--- a/data/hotels_by_city/Denver/Denver_shard_251.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_251.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33524-d223237-Reviews-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Staybridge-Suites-Denver-South-Park-Meadows.h487720.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1620 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r589334742-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>223237</t>
+  </si>
+  <si>
+    <t>589334742</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel in a great location</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a couple of nights while in Denver area for work. The staff was very friendly, polite and helpful. Mike at the front desk was exceptional. The evening snacks/dinner from Monday to Wednesday were great. Breakfast was fantastic.I would definitely stay here if in the area again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r583061467-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>583061467</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Superb!</t>
+  </si>
+  <si>
+    <t>We’ve traveled the world. This was one of best stays ever.  Friendliest staff ever encountered.  Full breakfast not just a bagel.  Social hours with complimentary dinner and drinks.  Clean. Comfortable.  Beautiful grounds with fire pit, grilling option, etc.  fabulous place to stay overall.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r580199349-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>580199349</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay.</t>
+  </si>
+  <si>
+    <t>Room was comfortable. Cook-top/microwave/refrigerator were a plus. Free washer/dryer use. Breakfast was good and provided a great start to the day. Bed was comfortable and we liked the shower pressure.We were moved after the first night because of howling dogs so make sure you are put in a quiet room.The County Line light railway station was 10 minutes away and gave us easy access to downtown Denver without the traffic hassles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r506160907-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>506160907</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Save your money....Better places to choose from</t>
+  </si>
+  <si>
+    <t>Where do I start... Is it with the rudeness of the check in staff or their customer service line. Either way they need to learn to treat their guests. The hotel failed to tell us their air conditioners weren't working instead they are using portable units which take up additional room. The room was dirty with torn carpets, holes in the couches, hair and mold in the showers. The evening social hour seemed like it was more for the employees than customers. I spoke with a neighbor who said here mother used to stay there, but it has gone down hill. Needless to say I couldn't wait to check out and go to a place that is cleaner and friendlier for my long range stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Where do I start... Is it with the rudeness of the check in staff or their customer service line. Either way they need to learn to treat their guests. The hotel failed to tell us their air conditioners weren't working instead they are using portable units which take up additional room. The room was dirty with torn carpets, holes in the couches, hair and mold in the showers. The evening social hour seemed like it was more for the employees than customers. I spoke with a neighbor who said here mother used to stay there, but it has gone down hill. Needless to say I couldn't wait to check out and go to a place that is cleaner and friendlier for my long range stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r495001076-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>495001076</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>I am staying here for two weeks during my visit to Denver. It's a pretty decent hotel considering the rooms and kitchen equipments they provide. The breakfast is very good. They provide a shuttle for a 5 mile radius from 7 am to 7 pm. Tony is the guy and he take really good care of people. Wish they had a bigger swimming pool and a restaurant as well. They have a free laundry service daily and social evening snacks from Monday to Wednesday. That's pretty much of it. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>I am staying here for two weeks during my visit to Denver. It's a pretty decent hotel considering the rooms and kitchen equipments they provide. The breakfast is very good. They provide a shuttle for a 5 mile radius from 7 am to 7 pm. Tony is the guy and he take really good care of people. Wish they had a bigger swimming pool and a restaurant as well. They have a free laundry service daily and social evening snacks from Monday to Wednesday. That's pretty much of it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r491784953-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>491784953</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Nice place to have an extended stay</t>
+  </si>
+  <si>
+    <t>I have been staying at this Staybridge on and off for the last 8 years. The service is excellent and the rooms are clean. Having a fully functional kitchen is huge when you want to cut cost on meals. They also have food Monday through Wednesday with drinks served from 5:30 to 7:30PM which is very nice. Laundry facilities, small area with food items and drinks and a workout gym are other pluses to staying here. I have never had a bad stay at the Staybridge.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r465461670-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>465461670</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>A comfortable choice in a pinch!!</t>
+  </si>
+  <si>
+    <t>This was a last minute choice as I was stuck in Lone Tree due to a snow storm. Reservations were quick and efficient. Room was comfortable, with a nice kitchen setup. But, the A/C needed a bit of maintenance. It was quite, and I got good sleep... until the garbage truck arrived early. The fitness room was pretty basic. But odd set-up in that everyone doing laundry in the am had to cut thru my workout to reach the washing machines. Yes, really! Breakfast was decent, with lots of healthy choices beyond the basic carbs. Staff, especially Amanda, were very helpful &amp; friendly. And it's walking distance to Lone Tree Brewing!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>This was a last minute choice as I was stuck in Lone Tree due to a snow storm. Reservations were quick and efficient. Room was comfortable, with a nice kitchen setup. But, the A/C needed a bit of maintenance. It was quite, and I got good sleep... until the garbage truck arrived early. The fitness room was pretty basic. But odd set-up in that everyone doing laundry in the am had to cut thru my workout to reach the washing machines. Yes, really! Breakfast was decent, with lots of healthy choices beyond the basic carbs. Staff, especially Amanda, were very helpful &amp; friendly. And it's walking distance to Lone Tree Brewing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r436470199-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>436470199</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>The smoking is everywhere, including in nonsmoking rooms</t>
+  </si>
+  <si>
+    <t>I really wanted to give a great review of this hotel. There really are so many things that worked well, Very clean, modernish furniture, comfortable beds, great staff. Thing is, we are non smokers and in a non smoking room but because this hotel allows smoking anywhere on the grounds AND does not isolate the smoking rooms to a particular area of the hotel--- it means your non smoking room will smell everytime your neighbor lights up in their room. The seals on the doors are very poor and all the smoke to right through. We have several long stays in the future in Denver and I wish I could stay here but the cigarette smoke is awful. Our stays involve us needing to be in the room for major parts of the day so this became a really big issue for us. Constantly having to stuff towels in the door jam to try to block the smoke from the other rooms and everytime someone was smoking on the patio we had to close the windows up again. Which just led to more smoke in the room from the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>I really wanted to give a great review of this hotel. There really are so many things that worked well, Very clean, modernish furniture, comfortable beds, great staff. Thing is, we are non smokers and in a non smoking room but because this hotel allows smoking anywhere on the grounds AND does not isolate the smoking rooms to a particular area of the hotel--- it means your non smoking room will smell everytime your neighbor lights up in their room. The seals on the doors are very poor and all the smoke to right through. We have several long stays in the future in Denver and I wish I could stay here but the cigarette smoke is awful. Our stays involve us needing to be in the room for major parts of the day so this became a really big issue for us. Constantly having to stuff towels in the door jam to try to block the smoke from the other rooms and everytime someone was smoking on the patio we had to close the windows up again. Which just led to more smoke in the room from the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r429482427-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>429482427</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>IHG member - avg property that allows pets and smokers</t>
+  </si>
+  <si>
+    <t>This was our second time at this property.  Here for business and it is proximate to the business site and has the best rating within the IHG group for the area.  Did a one bedroom suite on promo.
+The breakfast is avg for the hotel but above avg for most breakfast offerings.  Breakfast staff people are busy and attentive.  
+The laundry and gym are below avg for the Staybridge properties we have stayed at due to both size and cleanliness.  Need to monitor kids in all areas as they were frequently left unattended and disruptive and tough on the property.  
+Lots of staff working here but most don't want to attend to the property needs and like to be at the front desk.  Only once saw the shuttle go out to give guests service and there is a lot within the 3 mile area so I'm not sure if that is clearly an offering.  No regular cleaning service on the weekend and it shows . . . carpets are getting grungy in the common areas, garbage left out in the halls without attention, rear west side/stair access is smoky &amp; gross like cigars for days.  
+Our room was across from the cigar room and so the hall was consistently nasty and likely they didn't go outside although the weather was good.  Again, needs monitoring.
+Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you...This was our second time at this property.  Here for business and it is proximate to the business site and has the best rating within the IHG group for the area.  Did a one bedroom suite on promo.The breakfast is avg for the hotel but above avg for most breakfast offerings.  Breakfast staff people are busy and attentive.  The laundry and gym are below avg for the Staybridge properties we have stayed at due to both size and cleanliness.  Need to monitor kids in all areas as they were frequently left unattended and disruptive and tough on the property.  Lots of staff working here but most don't want to attend to the property needs and like to be at the front desk.  Only once saw the shuttle go out to give guests service and there is a lot within the 3 mile area so I'm not sure if that is clearly an offering.  No regular cleaning service on the weekend and it shows . . . carpets are getting grungy in the common areas, garbage left out in the halls without attention, rear west side/stair access is smoky &amp; gross like cigars for days.  Our room was across from the cigar room and so the hall was consistently nasty and likely they didn't go outside although the weather was good.  Again, needs monitoring.Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you - go high for the quietest rooms.  We were in 205.  At reservation we asked for extra pillows and they were not in the bedroom.  Called for them and were told to seek extra blanket and pillows out of the closet as they didn't have housekeeping there.   Nothing special view to the south.  Kitchen tile area/sink needs some major cleaning and caulking.  Bathroom needs maintenance work - i.e. tub plug isn't working right, fan is required by law but it is blocked with a cover.  No in room safe which is essential to longer stay guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>This was our second time at this property.  Here for business and it is proximate to the business site and has the best rating within the IHG group for the area.  Did a one bedroom suite on promo.
+The breakfast is avg for the hotel but above avg for most breakfast offerings.  Breakfast staff people are busy and attentive.  
+The laundry and gym are below avg for the Staybridge properties we have stayed at due to both size and cleanliness.  Need to monitor kids in all areas as they were frequently left unattended and disruptive and tough on the property.  
+Lots of staff working here but most don't want to attend to the property needs and like to be at the front desk.  Only once saw the shuttle go out to give guests service and there is a lot within the 3 mile area so I'm not sure if that is clearly an offering.  No regular cleaning service on the weekend and it shows . . . carpets are getting grungy in the common areas, garbage left out in the halls without attention, rear west side/stair access is smoky &amp; gross like cigars for days.  
+Our room was across from the cigar room and so the hall was consistently nasty and likely they didn't go outside although the weather was good.  Again, needs monitoring.
+Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you...This was our second time at this property.  Here for business and it is proximate to the business site and has the best rating within the IHG group for the area.  Did a one bedroom suite on promo.The breakfast is avg for the hotel but above avg for most breakfast offerings.  Breakfast staff people are busy and attentive.  The laundry and gym are below avg for the Staybridge properties we have stayed at due to both size and cleanliness.  Need to monitor kids in all areas as they were frequently left unattended and disruptive and tough on the property.  Lots of staff working here but most don't want to attend to the property needs and like to be at the front desk.  Only once saw the shuttle go out to give guests service and there is a lot within the 3 mile area so I'm not sure if that is clearly an offering.  No regular cleaning service on the weekend and it shows . . . carpets are getting grungy in the common areas, garbage left out in the halls without attention, rear west side/stair access is smoky &amp; gross like cigars for days.  Our room was across from the cigar room and so the hall was consistently nasty and likely they didn't go outside although the weather was good.  Again, needs monitoring.Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you - go high for the quietest rooms.  We were in 205.  At reservation we asked for extra pillows and they were not in the bedroom.  Called for them and were told to seek extra blanket and pillows out of the closet as they didn't have housekeeping there.   Nothing special view to the south.  Kitchen tile area/sink needs some major cleaning and caulking.  Bathroom needs maintenance work - i.e. tub plug isn't working right, fan is required by law but it is blocked with a cover.  No in room safe which is essential to longer stay guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r425055651-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>425055651</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Long awaited getaway</t>
+  </si>
+  <si>
+    <t>We loved everything about this hotel! From the moment we walked thru the front door we were welcomed with a very friendly staff. Our room was spotless &amp; the bed was extremely comfortable. The front desk clerk was really helpful in helping us pick a local restaurant for dinner. She gave us several recommendations &amp; the one we ended up choosing was perfect! We would definitely stay at this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>We loved everything about this hotel! From the moment we walked thru the front door we were welcomed with a very friendly staff. Our room was spotless &amp; the bed was extremely comfortable. The front desk clerk was really helpful in helping us pick a local restaurant for dinner. She gave us several recommendations &amp; the one we ended up choosing was perfect! We would definitely stay at this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r424245005-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>424245005</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>LOVE the 2 bedroom suite!</t>
+  </si>
+  <si>
+    <t>The 2 bedroom suite is huge!  Has 2 full bathrooms and a full kitchen.  Love the service, the location and the pool. Very friendly service and they will "make it right".  Pretty decent breakfast as well!   Anytime I'm in Denver, this is my go to hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>The 2 bedroom suite is huge!  Has 2 full bathrooms and a full kitchen.  Love the service, the location and the pool. Very friendly service and they will "make it right".  Pretty decent breakfast as well!   Anytime I'm in Denver, this is my go to hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r417661496-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>417661496</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Excellent location quite a few stores including Walmart and Sam's Club.  Our room was spacious and clean whatever we needed was there. The breakfast was wonderful not your typical continental . I appreciated the free laundry. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Excellent location quite a few stores including Walmart and Sam's Club.  Our room was spacious and clean whatever we needed was there. The breakfast was wonderful not your typical continental . I appreciated the free laundry. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r408415517-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>408415517</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>$6500 in lost medications, still trying to get help</t>
+  </si>
+  <si>
+    <t>We stayed here a few times for medical reasons.  The main issue is that the refrigerators are really old.  We had 1 room where the refrigerator was randomly defrosting, but did get "fixed".  However, on a return trip, the refrigerator completely gave out and we lost $6500 in medications.  They actually will not help you at all.  It has been three months now, and only one of a few things happens.  When we called Staybridge, they said it was really just up to their insurance company.  When we called Staybridge's corporate, they said it was really just up to the local Staybridge, as it is independently owned and operated.  When we call the insurance company, they always need more time to look into things.They post in their lobby that if the stay isn't up to satisfaction, the stay is free.  However, we have had no luck with this either.Other than losing $6500 in medications, the stay was fine.  So if you do not need the refrigerator, there is probably nothing worth worrying about.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here a few times for medical reasons.  The main issue is that the refrigerators are really old.  We had 1 room where the refrigerator was randomly defrosting, but did get "fixed".  However, on a return trip, the refrigerator completely gave out and we lost $6500 in medications.  They actually will not help you at all.  It has been three months now, and only one of a few things happens.  When we called Staybridge, they said it was really just up to their insurance company.  When we called Staybridge's corporate, they said it was really just up to the local Staybridge, as it is independently owned and operated.  When we call the insurance company, they always need more time to look into things.They post in their lobby that if the stay isn't up to satisfaction, the stay is free.  However, we have had no luck with this either.Other than losing $6500 in medications, the stay was fine.  So if you do not need the refrigerator, there is probably nothing worth worrying about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r402734640-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>402734640</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>9 nights during July 2016</t>
+  </si>
+  <si>
+    <t>I spent 9 nights during July 2016. the hotel is very nice, staff are great and very polite. parking is ok, location is also ok.there is an internal garden for the hotel.there are many exist doors around, so you don't have to enter from the main entrance only, and on each exit door there is a smoking area, which is great for me as a smoker especially that the hotel is smoke free.one thing I have to complain about is the cleaning.floor is not being cleaner well, I always felt the dust when walking bare foot.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r401515706-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>401515706</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>All good</t>
+  </si>
+  <si>
+    <t>Recently spent two nights at this Staybridge Suites and had a great time without any issues.  Hotel is in great shape, breakfast was wonderful and "The Social" (Mon - Wed) was exactly what we needed: good free food and beer (Coors Light and Blue Moon), wine and other friendly travelers!  AJ, Laura and the rest of the staff went out of their way to make sure everything was great. Thanks guys!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r386685106-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>386685106</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>A comfortable second home</t>
+  </si>
+  <si>
+    <t>I was booked by my employer as part of the US Antarctic Program into the Littleton, Colorado Staybridge Suites for an extended stay. After 3 weeks there I can say the stay has been excellent. I have spent some time getting to know the staff and the word "family" comes up over and over. I don't know if that is normal for a Staybridge or this place is something special but these folks go out of their way to provide terrific service. The rooms are very nice, exceptionally clean and well laid out. There is a hot breakfast buffet every morning and several nights a week a light dinner with beer or wine, all served in an attractive lodge type room where you can meet some interesting people. There is a small gym, laundry room (washers and dryers free so all you need is the soap) and a small store that is surprisingly well stocked. The location is great and there is a grocery store within a half of a mile along with many choices of restaurants. There is a movie theater within a mile with numerous food choices nearby. The hotel offers a shuttle service for nearby trips and it has been the highpoint of my stay to have met their weekday driver, Tony a retired newspaperman and fascinating fellow. All in all its been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I was booked by my employer as part of the US Antarctic Program into the Littleton, Colorado Staybridge Suites for an extended stay. After 3 weeks there I can say the stay has been excellent. I have spent some time getting to know the staff and the word "family" comes up over and over. I don't know if that is normal for a Staybridge or this place is something special but these folks go out of their way to provide terrific service. The rooms are very nice, exceptionally clean and well laid out. There is a hot breakfast buffet every morning and several nights a week a light dinner with beer or wine, all served in an attractive lodge type room where you can meet some interesting people. There is a small gym, laundry room (washers and dryers free so all you need is the soap) and a small store that is surprisingly well stocked. The location is great and there is a grocery store within a half of a mile along with many choices of restaurants. There is a movie theater within a mile with numerous food choices nearby. The hotel offers a shuttle service for nearby trips and it has been the highpoint of my stay to have met their weekday driver, Tony a retired newspaperman and fascinating fellow. All in all its been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r380491685-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380491685</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>never again</t>
+  </si>
+  <si>
+    <t>I've stayed in this location for one month. Some of the personnel are very good and it's a pleasure to talk to them but some just make you wish to leave and never come back. The food is always the same, if you are here for 2 days that might be ok but after a few weeks ...not very vegetarian friendly either. If by any chance there is a problem with your card, valid or not, they lock you out without any notice or valid explanation. After staying there for one month, there was an issue with the last night, not even valid as it got resolved by trying the card the 2nd time however i lost a few good hours wondering what happened to the CC because no explanation could be offered until someone else will begin his shift and can read and explain the program. The part of being locked out happened twice during my stay, once at the very end and once when i've extended my stay and the card was not updated. Brutal. After a long day at work this is the last thing you wish for. NO talking, no e-mail just no access. Not even when you come in and pass through the reception, nothing. I would not recommend this for an extended stay, The walls are very thin and if you have neighbors you will hear everything they talk, furniture is a little old...I've stayed in this location for one month. Some of the personnel are very good and it's a pleasure to talk to them but some just make you wish to leave and never come back. The food is always the same, if you are here for 2 days that might be ok but after a few weeks ...not very vegetarian friendly either. If by any chance there is a problem with your card, valid or not, they lock you out without any notice or valid explanation. After staying there for one month, there was an issue with the last night, not even valid as it got resolved by trying the card the 2nd time however i lost a few good hours wondering what happened to the CC because no explanation could be offered until someone else will begin his shift and can read and explain the program. The part of being locked out happened twice during my stay, once at the very end and once when i've extended my stay and the card was not updated. Brutal. After a long day at work this is the last thing you wish for. NO talking, no e-mail just no access. Not even when you come in and pass through the reception, nothing. I would not recommend this for an extended stay, The walls are very thin and if you have neighbors you will hear everything they talk, furniture is a little old and the cleaning personnel always leave the lights on and sometimes they more the things around. The heating system is loud and in the bedroom, always starts at 4 AM and you cannot ignore it unless you turn it off. A good thing is that this is pet friendly and that you can wash your own laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed in this location for one month. Some of the personnel are very good and it's a pleasure to talk to them but some just make you wish to leave and never come back. The food is always the same, if you are here for 2 days that might be ok but after a few weeks ...not very vegetarian friendly either. If by any chance there is a problem with your card, valid or not, they lock you out without any notice or valid explanation. After staying there for one month, there was an issue with the last night, not even valid as it got resolved by trying the card the 2nd time however i lost a few good hours wondering what happened to the CC because no explanation could be offered until someone else will begin his shift and can read and explain the program. The part of being locked out happened twice during my stay, once at the very end and once when i've extended my stay and the card was not updated. Brutal. After a long day at work this is the last thing you wish for. NO talking, no e-mail just no access. Not even when you come in and pass through the reception, nothing. I would not recommend this for an extended stay, The walls are very thin and if you have neighbors you will hear everything they talk, furniture is a little old...I've stayed in this location for one month. Some of the personnel are very good and it's a pleasure to talk to them but some just make you wish to leave and never come back. The food is always the same, if you are here for 2 days that might be ok but after a few weeks ...not very vegetarian friendly either. If by any chance there is a problem with your card, valid or not, they lock you out without any notice or valid explanation. After staying there for one month, there was an issue with the last night, not even valid as it got resolved by trying the card the 2nd time however i lost a few good hours wondering what happened to the CC because no explanation could be offered until someone else will begin his shift and can read and explain the program. The part of being locked out happened twice during my stay, once at the very end and once when i've extended my stay and the card was not updated. Brutal. After a long day at work this is the last thing you wish for. NO talking, no e-mail just no access. Not even when you come in and pass through the reception, nothing. I would not recommend this for an extended stay, The walls are very thin and if you have neighbors you will hear everything they talk, furniture is a little old and the cleaning personnel always leave the lights on and sometimes they more the things around. The heating system is loud and in the bedroom, always starts at 4 AM and you cannot ignore it unless you turn it off. A good thing is that this is pet friendly and that you can wash your own laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r378119458-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>378119458</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Visiting family... "home town"...</t>
+  </si>
+  <si>
+    <t>Hotel look like my own condos, nice place and cozy room. Comfy bed and good night sleep. Sleepless in Denver...Good breakfast buffet and social evening buffet night ... tue wed and Thursday yummy...Always good to be home...</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r365802216-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>365802216</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel with great location</t>
+  </si>
+  <si>
+    <t>During the week, this motel offers free dinner with wine and beer. Their breakfast is hearty with fruit, eggs, waffles, sausage and more. They are also a pet friendly motel with nice surroundings for walking your dog. A great bargain with top quality accommodations.  I recommend it to everyone. It is very near the Park Meadows shopping area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonja L, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>During the week, this motel offers free dinner with wine and beer. Their breakfast is hearty with fruit, eggs, waffles, sausage and more. They are also a pet friendly motel with nice surroundings for walking your dog. A great bargain with top quality accommodations.  I recommend it to everyone. It is very near the Park Meadows shopping area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r354703765-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>354703765</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Locked out over $1</t>
+  </si>
+  <si>
+    <t>Pre-paid online for two nights while travelling with family. Mgmt deactivated our room cards over a $1 fee for using the 'complimentary' laundry detergent packet left in the room on first day after returning back from dinner. I had lost the credit card I used to book the room and closed it earlier in the day. Find it hard to believe a hotel would do a lock out over a $1 fee for using laundry detergent.  Especially after we had already pre-paid for two nights.Terrible having my kids wait out in the hallway over such a minor issue. Desk staffer attitude appeared as though they could care less.Will never return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Sonja L, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Pre-paid online for two nights while travelling with family. Mgmt deactivated our room cards over a $1 fee for using the 'complimentary' laundry detergent packet left in the room on first day after returning back from dinner. I had lost the credit card I used to book the room and closed it earlier in the day. Find it hard to believe a hotel would do a lock out over a $1 fee for using laundry detergent.  Especially after we had already pre-paid for two nights.Terrible having my kids wait out in the hallway over such a minor issue. Desk staffer attitude appeared as though they could care less.Will never return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r354199124-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>354199124</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>They have gone downhill since our last visit</t>
+  </si>
+  <si>
+    <t>The room wasn't cleaned very good. There was sticky stuff all over the floor in the kitchen area. The attention to detail was lacking. The breakfast buffet was good. There was a lot of wear and tear throughout the hotel. More than one would expect over 2 years.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The room wasn't cleaned very good. There was sticky stuff all over the floor in the kitchen area. The attention to detail was lacking. The breakfast buffet was good. There was a lot of wear and tear throughout the hotel. More than one would expect over 2 years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r332316746-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>332316746</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Good budget stay in great location</t>
+  </si>
+  <si>
+    <t>Comfortable rooms with kitchen area and full size fridge. Breakfast offering pretty good with a nice spread that varies daily. Happy hour Mon-Wed with various offerings that you can fill up on or just snack before going out for dinner. Staff is friendly and the location is good and close next to the mall and a few restaurants. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Comfortable rooms with kitchen area and full size fridge. Breakfast offering pretty good with a nice spread that varies daily. Happy hour Mon-Wed with various offerings that you can fill up on or just snack before going out for dinner. Staff is friendly and the location is good and close next to the mall and a few restaurants. I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r327005975-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>327005975</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Amazong ! 5 Days stay @ Staybridge</t>
+  </si>
+  <si>
+    <t>I had recently moved to Colorado and had stayed in Staybridge suites for 5 days. Its was a great stay with good facilities like - Full Continental Breakfast, Laundry Service, business room to print personal stuff. The staff is very friendly and has taken good care of basic necessities thru out our stay.I would recommend this hotel to one and all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>I had recently moved to Colorado and had stayed in Staybridge suites for 5 days. Its was a great stay with good facilities like - Full Continental Breakfast, Laundry Service, business room to print personal stuff. The staff is very friendly and has taken good care of basic necessities thru out our stay.I would recommend this hotel to one and all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r320974786-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>320974786</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed for about three weeks, partial business/pleasure trip.  Hotel is clean, breakfast is excellent and three nights a week they offer free food with beer and wine, sort of a happy hour, get to know people.  Enjoyed the stay, close to shopping and restaurants. Would recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for about three weeks, partial business/pleasure trip.  Hotel is clean, breakfast is excellent and three nights a week they offer free food with beer and wine, sort of a happy hour, get to know people.  Enjoyed the stay, close to shopping and restaurants. Would recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r301643366-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>301643366</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Outdoor Pool only and wasn't available the day I stayed, no hot tub and an ok exercise room. Above average well stocked with variety of options continental breakfast, managers social is nice because the manager actually joined, with free beer wine and food it's hard to complain, however, definitely could try some better hamburgers.  They were cheap tough very thin frozen patties with no seasoning and obviously not freshly grilled. But, very nice accommodating staff, Hotel common areas are nice updated and clean, I had a two bedroom suite which was awesome full kitchen 2 bedrooms and 3 TVs with a pull out couch and lots more room with 2 full bathrooms. Outdoor sitting area in an area to play with a couple of grills next to the pool. Nice place.  Just get different burgers a clean pool and a hot tub for five stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Outdoor Pool only and wasn't available the day I stayed, no hot tub and an ok exercise room. Above average well stocked with variety of options continental breakfast, managers social is nice because the manager actually joined, with free beer wine and food it's hard to complain, however, definitely could try some better hamburgers.  They were cheap tough very thin frozen patties with no seasoning and obviously not freshly grilled. But, very nice accommodating staff, Hotel common areas are nice updated and clean, I had a two bedroom suite which was awesome full kitchen 2 bedrooms and 3 TVs with a pull out couch and lots more room with 2 full bathrooms. Outdoor sitting area in an area to play with a couple of grills next to the pool. Nice place.  Just get different burgers a clean pool and a hot tub for five stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r301161192-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>301161192</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent Choice!!!</t>
+  </si>
+  <si>
+    <t>Where to start. Check in was a breeze, and the room was very large. They serve light dinner TUE/WED/THU along with drinks and sodas. A great breakfast is served each morning. The room we stayed in had a nice kitchen area with microwave, stove top, large refrigerator. Along with kitchen items, dishes, pots pans, etc. Large bathroom area, sitting area and bed was comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Where to start. Check in was a breeze, and the room was very large. They serve light dinner TUE/WED/THU along with drinks and sodas. A great breakfast is served each morning. The room we stayed in had a nice kitchen area with microwave, stove top, large refrigerator. Along with kitchen items, dishes, pots pans, etc. Large bathroom area, sitting area and bed was comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r299003895-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>299003895</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Talk about Royal Treatment</t>
+  </si>
+  <si>
+    <t>I stayed with my dad and Mike, Amanda, Christine, and Winnie were all very accommodating throughout my stay. The comp wine and food were excellent. Mike always called me by my first name and with a smile. Amanda gave me a really awesome rateChristine and Winnie brought smiles to my morning And eveningThank you allMoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed with my dad and Mike, Amanda, Christine, and Winnie were all very accommodating throughout my stay. The comp wine and food were excellent. Mike always called me by my first name and with a smile. Amanda gave me a really awesome rateChristine and Winnie brought smiles to my morning And eveningThank you allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r285546353-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>285546353</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Good Extended Stay Hotel for Business Travel</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of times.  First time was for a month while on work assignment and the other visits have been a week at a time.  This hotel has updated rooms which are clean and comfortable. I had a small kitchenette in my room since I like to prepare my own meals.   It is also a pet friendly hotel.  Breakfast is provided each day.  They also serve evening snacks, wine and beer in the evening (Tues-Thurs).  Close access to 470, restaurants and the mall by car.  There is also Super Walmart and a Kings Soopers supermarket if you prefer to cook in your room.   SAMs club is across the street from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of times.  First time was for a month while on work assignment and the other visits have been a week at a time.  This hotel has updated rooms which are clean and comfortable. I had a small kitchenette in my room since I like to prepare my own meals.   It is also a pet friendly hotel.  Breakfast is provided each day.  They also serve evening snacks, wine and beer in the evening (Tues-Thurs).  Close access to 470, restaurants and the mall by car.  There is also Super Walmart and a Kings Soopers supermarket if you prefer to cook in your room.   SAMs club is across the street from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r282662372-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>282662372</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Room</t>
+  </si>
+  <si>
+    <t>We stayed there in June. Our suite on the second floor was quiet. The bedroom was separated from the living room and kitchen by a door. The bathroom sink and closet is an extension of the bedroom, so there is no door. There is a door into the toilet and bathtub. Our king bed was acceptable, but not special. The couch in the living room was a sleeper and not particularly comfortable to sit on. The kitchen was functional and the refrigerator had an ice maker that was very convenient. The free breakfast was acceptable. There is a small café, the Silver Creek Diner, that had good breakfasts and was adjacent to the Staybridge. There is a nice walking trail system not far from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed there in June. Our suite on the second floor was quiet. The bedroom was separated from the living room and kitchen by a door. The bathroom sink and closet is an extension of the bedroom, so there is no door. There is a door into the toilet and bathtub. Our king bed was acceptable, but not special. The couch in the living room was a sleeper and not particularly comfortable to sit on. The kitchen was functional and the refrigerator had an ice maker that was very convenient. The free breakfast was acceptable. There is a small café, the Silver Creek Diner, that had good breakfasts and was adjacent to the Staybridge. There is a nice walking trail system not far from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r279957303-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>279957303</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Great for extended stay</t>
+  </si>
+  <si>
+    <t>Room and bedding accommodations were fine.I would recommend staying on the top floor so to avoid the noise from above as the soundproofing between floors is thin. Never heard anything in the rooms next to us but the noise of people walking in the halls or in the room above was aggravating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Room and bedding accommodations were fine.I would recommend staying on the top floor so to avoid the noise from above as the soundproofing between floors is thin. Never heard anything in the rooms next to us but the noise of people walking in the halls or in the room above was aggravating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r273743842-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>273743842</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Not as clean as it could be.</t>
+  </si>
+  <si>
+    <t>Greasy and smelly... Beds are old hard and lumpy. Towels are old and need replaced. Pillows are flat and small. Room had dead bugs in lamp and bathroom. Overall dissatisfied. Pool and hot tub closed trash in the stairwells and crowded amenitiesMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Greasy and smelly... Beds are old hard and lumpy. Towels are old and need replaced. Pillows are flat and small. Room had dead bugs in lamp and bathroom. Overall dissatisfied. Pool and hot tub closed trash in the stairwells and crowded amenitiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r272268956-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>272268956</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Worth every cent</t>
+  </si>
+  <si>
+    <t>We found this hotel by chance, because all the hotels in Greeley and Denver were booked. So it's an hour away from the family we are visiting, and I am fairly certain we will stay here again. It is simply beautiful, and so comfortable. There is a small kitchenette attached the the room as well that is just an extra bonus. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>We found this hotel by chance, because all the hotels in Greeley and Denver were booked. So it's an hour away from the family we are visiting, and I am fairly certain we will stay here again. It is simply beautiful, and so comfortable. There is a small kitchenette attached the the room as well that is just an extra bonus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r268190431-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>268190431</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Even during roof renovations, this hotel was great</t>
+  </si>
+  <si>
+    <t>Many hotels can provide excellent experiences for their guests, but how many can do it during challenging circumstances?  This one did.  Due to earlier hail storm damage, the roof on this hotel had to be replaced during our recent stay.  Tawnya and her amazing staff handled it all so well.  Work crews taped off specific parking areas for the section they were doing that day, and it all worked well.  Our room was spacious and clean.  We really appreciated the convenient location of this hotel.  We landed our airplane at the nearby Centennial Airport, KAPA, and enjoyed exploring the area with our rental car.  This was a great location for us to drive to everything we wanted to see:  Leadville, Buena Vista, Fairplay, downtown Denver, Pike's Peak, etc. Excellent shopping and dining close by.  Great quality breakfast included each day.  Thanks Tawnya to you and your fun staff members.  You truly give your guests the home away from home experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Many hotels can provide excellent experiences for their guests, but how many can do it during challenging circumstances?  This one did.  Due to earlier hail storm damage, the roof on this hotel had to be replaced during our recent stay.  Tawnya and her amazing staff handled it all so well.  Work crews taped off specific parking areas for the section they were doing that day, and it all worked well.  Our room was spacious and clean.  We really appreciated the convenient location of this hotel.  We landed our airplane at the nearby Centennial Airport, KAPA, and enjoyed exploring the area with our rental car.  This was a great location for us to drive to everything we wanted to see:  Leadville, Buena Vista, Fairplay, downtown Denver, Pike's Peak, etc. Excellent shopping and dining close by.  Great quality breakfast included each day.  Thanks Tawnya to you and your fun staff members.  You truly give your guests the home away from home experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r239962186-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>239962186</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Great stay, highly recommended!</t>
+  </si>
+  <si>
+    <t>The service alone made this a great stay. I don't think I've ever stayed at a friendlier place. We stayed in a two bedroom suite and it was clean and comfortable. Housekeeping even ran our dishwasher one day when we forgot to start it before leaving for the day. The daily breakfast had a nice selection, and the Tuesday through Thursday dinners were nice as well when we didn't feel like cooking in our room. The only unfortunate part (for my two year old) was that there wasn't a pool to swim in as it's an outdoor seasonal one. You get a lot for a great price. We have a few more extended trips to Denver coming up and this place will be on our list of possibilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>The service alone made this a great stay. I don't think I've ever stayed at a friendlier place. We stayed in a two bedroom suite and it was clean and comfortable. Housekeeping even ran our dishwasher one day when we forgot to start it before leaving for the day. The daily breakfast had a nice selection, and the Tuesday through Thursday dinners were nice as well when we didn't feel like cooking in our room. The only unfortunate part (for my two year old) was that there wasn't a pool to swim in as it's an outdoor seasonal one. You get a lot for a great price. We have a few more extended trips to Denver coming up and this place will be on our list of possibilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r231708113-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>231708113</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Great room, loved the location</t>
+  </si>
+  <si>
+    <t>This was a great little hotel in a great location. Very close to a large, nice, mall, as well as a lot of restaurants. It's not close to the city, which was fine, but be aware that it's about 20-30 mins from downtown. It's not too far from a light rail stop. The room and rates were good. The staff was very friendly, though I'm afraid to say not very quick on the uptake. Check in and check out took a long time, though not due to any problems or issues; just a bit slow. When I checked out, they had no record of my stay (?) including my check-in. The free breakfast was very good! This was a great value, and I wouldn't hesitate to stay here again. Also, free parking and wi-fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>This was a great little hotel in a great location. Very close to a large, nice, mall, as well as a lot of restaurants. It's not close to the city, which was fine, but be aware that it's about 20-30 mins from downtown. It's not too far from a light rail stop. The room and rates were good. The staff was very friendly, though I'm afraid to say not very quick on the uptake. Check in and check out took a long time, though not due to any problems or issues; just a bit slow. When I checked out, they had no record of my stay (?) including my check-in. The free breakfast was very good! This was a great value, and I wouldn't hesitate to stay here again. Also, free parking and wi-fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r229034578-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>229034578</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Very convenient and friendly hotel</t>
+  </si>
+  <si>
+    <t>The room is very clean and all people are very kind and polite. Food and pantry were good. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>The room is very clean and all people are very kind and polite. Food and pantry were good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r225292047-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>225292047</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>This has to be the best hotel I have every visited. The rooms are clean and very large. The staff with very helpful and friendly. The free breakfast, wi fi, and business center is a complete plus. A must stay for families and business travelers. I could find no fault with this hotel...To the management, what ever you're doing please keep doing it...it worksMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This has to be the best hotel I have every visited. The rooms are clean and very large. The staff with very helpful and friendly. The free breakfast, wi fi, and business center is a complete plus. A must stay for families and business travelers. I could find no fault with this hotel...To the management, what ever you're doing please keep doing it...it worksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r222624315-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>222624315</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel with Lots to do Nearby</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and the service was excellent. We loved the pool and courtyard. The breakfast offered was the best we have had at a hotel that includes a complimentary breakfast.  The afternoon socials Tues -Thursday was yummy!  At this hotel, you are very close to many restaurants and the Park Meadows mall.  If you like handcrafted beer-venture over the Lone Tree Tasting room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and the service was excellent. We loved the pool and courtyard. The breakfast offered was the best we have had at a hotel that includes a complimentary breakfast.  The afternoon socials Tues -Thursday was yummy!  At this hotel, you are very close to many restaurants and the Park Meadows mall.  If you like handcrafted beer-venture over the Lone Tree Tasting room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r216950107-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>216950107</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Really a GREAT Hotel</t>
+  </si>
+  <si>
+    <t>I don't give 5 stars to hotels without fine restaurants, etc. - but this one's close.This was my first stay at a Staybridge hotel but won't be my last. The rooms are large, fully equipped and very-very well kept (micro, full size fridge/freezer, 2 flat screens, good-fast WiFi, etc.). Breakfast was well above average, evening snacks/beer/wine average (but I only tried it one evening).The staff was 5-star. Michael, AJ, and Tawnya went above and beyond the call of duty in every case, and did so with a smile and a genuine cheerful attitude. They more than anything sold me on this brand, and I will return.Dining - plenty of choices around, but I recommend the Silver Creek Diner in the adjacent parking lot. Great mom-pop place with simple wholesome homemade food. Great fish &amp; chips, good burgers, and great breakfast served all day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>I don't give 5 stars to hotels without fine restaurants, etc. - but this one's close.This was my first stay at a Staybridge hotel but won't be my last. The rooms are large, fully equipped and very-very well kept (micro, full size fridge/freezer, 2 flat screens, good-fast WiFi, etc.). Breakfast was well above average, evening snacks/beer/wine average (but I only tried it one evening).The staff was 5-star. Michael, AJ, and Tawnya went above and beyond the call of duty in every case, and did so with a smile and a genuine cheerful attitude. They more than anything sold me on this brand, and I will return.Dining - plenty of choices around, but I recommend the Silver Creek Diner in the adjacent parking lot. Great mom-pop place with simple wholesome homemade food. Great fish &amp; chips, good burgers, and great breakfast served all day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r210280690-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>210280690</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>pleasant week long stay</t>
+  </si>
+  <si>
+    <t>My wife and I were in Denver for a work / pleasure stay. We chose the staybridge suites to stay because of the kitchen and separate living area.  the room was updated and quiet. the kitchen had a full refrigerator and a 2 burner stove. Pots, pans, utensils and plates were provided by the hotel. We have no complaints whatsoever about this hotel. The staff are extremely pleasant and cheery. The hotel provides a full breakfast of eggs, waffles, oatmeal, meats, fruit and cereal. I am a vegetarian and the breakfast staff gladly offered me eggs with no meat in them as an alternative to what they were serving. Three nights a week they provide a light dinner from neighboring restaurants which include beer and wine.  This is a huge bonus for us as it saved us lots of money to have breakfast and dinner provided by the hotel. In addition the facilities on site include washers and dryers, work out room, pool, and a grill area. Everything was in working order and very clean.  There are tons of restaurants and shopping within an easy drive from the hotel and the interstate system is a block away. It is an excellent location to see Denver and the mountains.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I were in Denver for a work / pleasure stay. We chose the staybridge suites to stay because of the kitchen and separate living area.  the room was updated and quiet. the kitchen had a full refrigerator and a 2 burner stove. Pots, pans, utensils and plates were provided by the hotel. We have no complaints whatsoever about this hotel. The staff are extremely pleasant and cheery. The hotel provides a full breakfast of eggs, waffles, oatmeal, meats, fruit and cereal. I am a vegetarian and the breakfast staff gladly offered me eggs with no meat in them as an alternative to what they were serving. Three nights a week they provide a light dinner from neighboring restaurants which include beer and wine.  This is a huge bonus for us as it saved us lots of money to have breakfast and dinner provided by the hotel. In addition the facilities on site include washers and dryers, work out room, pool, and a grill area. Everything was in working order and very clean.  There are tons of restaurants and shopping within an easy drive from the hotel and the interstate system is a block away. It is an excellent location to see Denver and the mountains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r192132780-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>192132780</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>A perfect stay</t>
+  </si>
+  <si>
+    <t>Being welcomed by polite, proffesional and educated staff, started the experience in the best way possible. Registration and check-in was done in less than 2 minutes. Room was excellent, and clean all the time. If I had any inquiries, no problem. They helped me out, any way possibleBreakfast every morning. Not one day repeated in content of the warm foodShuttlebus was present and available all the time, and took me wherever I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Being welcomed by polite, proffesional and educated staff, started the experience in the best way possible. Registration and check-in was done in less than 2 minutes. Room was excellent, and clean all the time. If I had any inquiries, no problem. They helped me out, any way possibleBreakfast every morning. Not one day repeated in content of the warm foodShuttlebus was present and available all the time, and took me wherever I needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r190210333-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>190210333</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Old and In the Way</t>
+  </si>
+  <si>
+    <t>I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that...I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that anyone think twice about this place as there are plenty of alternatives in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that...I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that anyone think twice about this place as there are plenty of alternatives in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r178380632-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>178380632</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>A good experience</t>
+  </si>
+  <si>
+    <t>My daughter was getting married in the southwest Denver metro area. I decided to stay close to the wedding site and chose Staybridge Suites Park Meadows because of the nightly rate. Staybridge was a new hotel name for me.  I got a two room suite because a relative would be staying with me.My experience at this hotel was very satisfying. The staff was attentive and very friendly. The room was in excellent condition, clean and orderly. Each bedroom had an individual bathroom so privacy was no problem. The only complaint I have is that Clorox style bleach is used to clean the room and the odor was stifling when we entered the room. If you have this problem put the thermostat fan on the continuous setting and the smell will be removed.The hot breakfast was good and much better than the traditional English muffin and cold cereal offerings that are common at many hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>My daughter was getting married in the southwest Denver metro area. I decided to stay close to the wedding site and chose Staybridge Suites Park Meadows because of the nightly rate. Staybridge was a new hotel name for me.  I got a two room suite because a relative would be staying with me.My experience at this hotel was very satisfying. The staff was attentive and very friendly. The room was in excellent condition, clean and orderly. Each bedroom had an individual bathroom so privacy was no problem. The only complaint I have is that Clorox style bleach is used to clean the room and the odor was stifling when we entered the room. If you have this problem put the thermostat fan on the continuous setting and the smell will be removed.The hot breakfast was good and much better than the traditional English muffin and cold cereal offerings that are common at many hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r174348140-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>174348140</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Nice for several days stay</t>
+  </si>
+  <si>
+    <t>Good hot breakfast each morning.  Nice evening "snacks" or light meal on Tuesday Wednesday and Thursday evening.  I miss it on Fri and Sat.  Good value on room rate. I have nothing else to add but it must be 200 charactersMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Good hot breakfast each morning.  Nice evening "snacks" or light meal on Tuesday Wednesday and Thursday evening.  I miss it on Fri and Sat.  Good value on room rate. I have nothing else to add but it must be 200 charactersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r170478940-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>170478940</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Great value, friendly and just bloody good spot to stay</t>
+  </si>
+  <si>
+    <t>We were in middle of packing the house to relocate overseas and needed somewhere for a few days.   I hunted around, looking for an apartment hotel or suites hotel near Highlands Ranch, Colorado.     On hotwire I got this excellent rate in my local area of Lone Tree and it turned out to be the Staybridge Suites in Denver South - ParK Meadows.What a little treasure this place is.   Very friendly service.  Not the most modern but well maintained and the staff are all excellent.  Tue-Thu the hotel puts on simple meals and beer and wine.    Great easy food and a chance to meet other travellers.  Saves heating something up or dragging your tired butt out for dinner every night.Cable, wifi included,  pool and sports court.   Also the breakfast was at least on par with most of chain hotel breakfast offerings.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>We were in middle of packing the house to relocate overseas and needed somewhere for a few days.   I hunted around, looking for an apartment hotel or suites hotel near Highlands Ranch, Colorado.     On hotwire I got this excellent rate in my local area of Lone Tree and it turned out to be the Staybridge Suites in Denver South - ParK Meadows.What a little treasure this place is.   Very friendly service.  Not the most modern but well maintained and the staff are all excellent.  Tue-Thu the hotel puts on simple meals and beer and wine.    Great easy food and a chance to meet other travellers.  Saves heating something up or dragging your tired butt out for dinner every night.Cable, wifi included,  pool and sports court.   Also the breakfast was at least on par with most of chain hotel breakfast offerings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r164856355-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>164856355</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Great Property, Great Staff</t>
+  </si>
+  <si>
+    <t>Though not much larger than a standard deluxe room, my queen suite at this hotel was fresh, efficiently designed, tastefully furnished, immaculate and very comfortable, with a tiny but well-equipped kitchenette I didn't use.  The common areas, like their "great room," are welcoming, and the staff is cheerful and friendly.  The courtyard has a sport court, lawn, pool, gas grills for guests to use and comfortable areas to relax.  It's really more like a resort than a mid-priced extended-stay property.  The complementary breakfast is simple, but a cut above most and has healthy options.If you're a shopper, the upscale Park Meadows mall is just down the road, and if you're bringing Fido, there's a large off-leash park at David Lorenz Regional Park just a couple of miles away.  At the hotel, poop bags are graciously provided and there are several grassy areas on-site for dog walking.I'd recommend this property to anyone visiting the area, and the queen suite is more than adequate for one or two guests. This is what a mid-range property should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Though not much larger than a standard deluxe room, my queen suite at this hotel was fresh, efficiently designed, tastefully furnished, immaculate and very comfortable, with a tiny but well-equipped kitchenette I didn't use.  The common areas, like their "great room," are welcoming, and the staff is cheerful and friendly.  The courtyard has a sport court, lawn, pool, gas grills for guests to use and comfortable areas to relax.  It's really more like a resort than a mid-priced extended-stay property.  The complementary breakfast is simple, but a cut above most and has healthy options.If you're a shopper, the upscale Park Meadows mall is just down the road, and if you're bringing Fido, there's a large off-leash park at David Lorenz Regional Park just a couple of miles away.  At the hotel, poop bags are graciously provided and there are several grassy areas on-site for dog walking.I'd recommend this property to anyone visiting the area, and the queen suite is more than adequate for one or two guests. This is what a mid-range property should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r164500415-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>164500415</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel but tired</t>
+  </si>
+  <si>
+    <t>To be awakened each morning by three very LOUD dogs is a bit unsettling.  They allow large pets in this hotel.  Think large German Shepherds and that is what I passed daily in the hallway as they were off for their morning walk. Now imagine large dog smells and you have the scent of this hotel. The bed was fairly comfortable, the AC unit was terribly noisy (bring ear plugs), the walls are thin, the staff is helpful (but some give poor directions), the breakfast was somewhat palatable (fake eggs), and the parking lot is full by early evening.  The rooms are decent sized and clean. The cleaning staff  was exceptionally friendly and fantastic. The free laundry facility was a useful bonus but the adjoining work out room was small and ill- equipped.  The entire place just lacks flair. It would be okay to stay for a week but  a month (our stay) was a little tiresome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2013</t>
+  </si>
+  <si>
+    <t>To be awakened each morning by three very LOUD dogs is a bit unsettling.  They allow large pets in this hotel.  Think large German Shepherds and that is what I passed daily in the hallway as they were off for their morning walk. Now imagine large dog smells and you have the scent of this hotel. The bed was fairly comfortable, the AC unit was terribly noisy (bring ear plugs), the walls are thin, the staff is helpful (but some give poor directions), the breakfast was somewhat palatable (fake eggs), and the parking lot is full by early evening.  The rooms are decent sized and clean. The cleaning staff  was exceptionally friendly and fantastic. The free laundry facility was a useful bonus but the adjoining work out room was small and ill- equipped.  The entire place just lacks flair. It would be okay to stay for a week but  a month (our stay) was a little tiresome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r160409724-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>160409724</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>The best stay ever.</t>
+  </si>
+  <si>
+    <t>I've stayed here quite a bit over the years and have never been disappointed. The staff is great, all areas of the hotel are immaculate, and with the recent renovations it only got better! I recommend this place to anyone staying in the area, especially for an extended stay. With the Social reception in Tues, Wed, and Thurs and breakfast everyday, it doesn't get any better. ENJOY!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed here quite a bit over the years and have never been disappointed. The staff is great, all areas of the hotel are immaculate, and with the recent renovations it only got better! I recommend this place to anyone staying in the area, especially for an extended stay. With the Social reception in Tues, Wed, and Thurs and breakfast everyday, it doesn't get any better. ENJOY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r152917258-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>152917258</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Five star hotel and seven star staff - Stay at Staybridge!</t>
+  </si>
+  <si>
+    <t>I LIVED at this hotel for FIVE MONTHS straight from early November 2011 until April 2012. The staff is beyond amazing - I have never experienced such attentiveness and GENUINELY pleasant service, down to having AJ check in on my cats during an extended Christmas trip home.
+I had an issue with the internet connectivity, and Drew (Manager) looked into my situation personally and worked diligently with the outsourced IT services company to correct my connectivity situation.
+The housekeeping staff is thorough, provide great service and took great care of my room while I was living there.
+The complimentary breakfast is AMAZING - extended service is provided on the weekends, and the quality and variety of the food is excellent!!!
+The free laundry service is awesome and there are four washer/dryer combinations, next to the workout room. The only negative issue I experienced was that one of the treadmills was out of commission for several weeks over the Thanksgiving/Christmas holidays, but I heard that a replacement part was backordered - not a deal breaker, but made for some inconvenient morning workouts when several of us long-termers wanted to work out before going to work.
+The hotel accommodates pets (I had my two cats along for most of the time) and the staff even looked in on them to refill their water bowl for me on housekeeping days when I had to work late. Nice touches....
+The Tues-Thurs night meals were...I LIVED at this hotel for FIVE MONTHS straight from early November 2011 until April 2012. The staff is beyond amazing - I have never experienced such attentiveness and GENUINELY pleasant service, down to having AJ check in on my cats during an extended Christmas trip home.I had an issue with the internet connectivity, and Drew (Manager) looked into my situation personally and worked diligently with the outsourced IT services company to correct my connectivity situation.The housekeeping staff is thorough, provide great service and took great care of my room while I was living there.The complimentary breakfast is AMAZING - extended service is provided on the weekends, and the quality and variety of the food is excellent!!!The free laundry service is awesome and there are four washer/dryer combinations, next to the workout room. The only negative issue I experienced was that one of the treadmills was out of commission for several weeks over the Thanksgiving/Christmas holidays, but I heard that a replacement part was backordered - not a deal breaker, but made for some inconvenient morning workouts when several of us long-termers wanted to work out before going to work.The hotel accommodates pets (I had my two cats along for most of the time) and the staff even looked in on them to refill their water bowl for me on housekeeping days when I had to work late. Nice touches....The Tues-Thurs night meals were AMAZING - PF Changs was a regular participant, along with several other local restaurants from near the Park Meadows Mall. Believe me, the quality and presentation of the food was always FIRST RATE....food was kept hot, and PLENTIFUL....beer was always COLD and FRESH....SALADS were fresh and good quality....Only thing I wish was that they had covered parking  available - it would be nice to provide protection from the snow and hail storms, but there's PLENTY of parking around the hotel, and the area is SAFE, QUIET, and CONVENIENT with a couple of small restaurants within walking distance, as well as a nearby King Soopers for groceries and supplies and a Kohls is right around the corner on Quebec, along with a gas station and car wash.The entire area is really, REALLY pleasant...We had stayed at this hotel earlier in 2011 when I volunteered at the US Women's Open Golf tournament, and the cable service was more extensive than it was when I lived there from November 2011 onwards, but I heard that it was going to be reinstated following the remodel.They were planning on remodeling the hotel in May/June when I ended my stay, and it sounds like the remodel went well....This is one of the few hotels in the area that has an outdoor pool, and while I didn't use it when I lived there, we used it when we visited in June 2011, and it's spacious and well maintained. There's also a sport court with basketball courts and a volleyball net during the summer, along with a BBQ pavilion for summertime cookouts....I cannot recommend this property highly enough - when staying in SE Metro Denver, I will not stay anywhere else......MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>I LIVED at this hotel for FIVE MONTHS straight from early November 2011 until April 2012. The staff is beyond amazing - I have never experienced such attentiveness and GENUINELY pleasant service, down to having AJ check in on my cats during an extended Christmas trip home.
+I had an issue with the internet connectivity, and Drew (Manager) looked into my situation personally and worked diligently with the outsourced IT services company to correct my connectivity situation.
+The housekeeping staff is thorough, provide great service and took great care of my room while I was living there.
+The complimentary breakfast is AMAZING - extended service is provided on the weekends, and the quality and variety of the food is excellent!!!
+The free laundry service is awesome and there are four washer/dryer combinations, next to the workout room. The only negative issue I experienced was that one of the treadmills was out of commission for several weeks over the Thanksgiving/Christmas holidays, but I heard that a replacement part was backordered - not a deal breaker, but made for some inconvenient morning workouts when several of us long-termers wanted to work out before going to work.
+The hotel accommodates pets (I had my two cats along for most of the time) and the staff even looked in on them to refill their water bowl for me on housekeeping days when I had to work late. Nice touches....
+The Tues-Thurs night meals were...I LIVED at this hotel for FIVE MONTHS straight from early November 2011 until April 2012. The staff is beyond amazing - I have never experienced such attentiveness and GENUINELY pleasant service, down to having AJ check in on my cats during an extended Christmas trip home.I had an issue with the internet connectivity, and Drew (Manager) looked into my situation personally and worked diligently with the outsourced IT services company to correct my connectivity situation.The housekeeping staff is thorough, provide great service and took great care of my room while I was living there.The complimentary breakfast is AMAZING - extended service is provided on the weekends, and the quality and variety of the food is excellent!!!The free laundry service is awesome and there are four washer/dryer combinations, next to the workout room. The only negative issue I experienced was that one of the treadmills was out of commission for several weeks over the Thanksgiving/Christmas holidays, but I heard that a replacement part was backordered - not a deal breaker, but made for some inconvenient morning workouts when several of us long-termers wanted to work out before going to work.The hotel accommodates pets (I had my two cats along for most of the time) and the staff even looked in on them to refill their water bowl for me on housekeeping days when I had to work late. Nice touches....The Tues-Thurs night meals were AMAZING - PF Changs was a regular participant, along with several other local restaurants from near the Park Meadows Mall. Believe me, the quality and presentation of the food was always FIRST RATE....food was kept hot, and PLENTIFUL....beer was always COLD and FRESH....SALADS were fresh and good quality....Only thing I wish was that they had covered parking  available - it would be nice to provide protection from the snow and hail storms, but there's PLENTY of parking around the hotel, and the area is SAFE, QUIET, and CONVENIENT with a couple of small restaurants within walking distance, as well as a nearby King Soopers for groceries and supplies and a Kohls is right around the corner on Quebec, along with a gas station and car wash.The entire area is really, REALLY pleasant...We had stayed at this hotel earlier in 2011 when I volunteered at the US Women's Open Golf tournament, and the cable service was more extensive than it was when I lived there from November 2011 onwards, but I heard that it was going to be reinstated following the remodel.They were planning on remodeling the hotel in May/June when I ended my stay, and it sounds like the remodel went well....This is one of the few hotels in the area that has an outdoor pool, and while I didn't use it when I lived there, we used it when we visited in June 2011, and it's spacious and well maintained. There's also a sport court with basketball courts and a volleyball net during the summer, along with a BBQ pavilion for summertime cookouts....I cannot recommend this property highly enough - when staying in SE Metro Denver, I will not stay anywhere else......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r147707480-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>147707480</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Looks Great After Update</t>
+  </si>
+  <si>
+    <t>Have not stayed here in a couple of years.  The hotel looks great after the recent update but it does not look complete in some areas.  Paint overspray on tile in bathroom. Thermostat was not working thank goodness we figured out that the unit would work without it.  When I contacted the front desk they seemed pretty uninterested in resolving the problem.  The refrigerator makes terrible noise all night and none of the appliances had been replaced.  Looks far better than it did but just not complete in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Have not stayed here in a couple of years.  The hotel looks great after the recent update but it does not look complete in some areas.  Paint overspray on tile in bathroom. Thermostat was not working thank goodness we figured out that the unit would work without it.  When I contacted the front desk they seemed pretty uninterested in resolving the problem.  The refrigerator makes terrible noise all night and none of the appliances had been replaced.  Looks far better than it did but just not complete in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r145182643-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>145182643</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Even better after recent updates.</t>
+  </si>
+  <si>
+    <t>My wife and I have literally spent well over a month of time in this hotel in 2012, spread over five separate trips (three of those with our three-year-old daughter), and I can honestly say that all of our needs were met on each of those occasions. The staff at the Staybridge is above all its leading asset, as everyone from the desk staff, to breakfast attendants, to housekeeping, are incredibly friendly and willing to help with any concerns. The front desk is especially flexible when it comes to changing travel plans: more than once, we had to cut several days off of our reservation due to unforeseen circumstances, and these modifications were accommodated cheerfully and without penalty--even though our notice was given only a couple of days before the updated checkout date. 
+When it comes to food, breakfast is always a well-prepared, comprehensive spread, including a hot station with some variation on eggs/bacon/sausage/ham, a make-your-own waffle station, bagels/muffins/toast/coffee cake, cold cereal, fruit, yogurt, and a selection of juices and milk. Breakfast hours extend to a reasonable 9:30 on weekdays, and 10:30 on weekends. Take-out bags are also provided in case you want to grab a couple of items for later in the day. 
+Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide...My wife and I have literally spent well over a month of time in this hotel in 2012, spread over five separate trips (three of those with our three-year-old daughter), and I can honestly say that all of our needs were met on each of those occasions. The staff at the Staybridge is above all its leading asset, as everyone from the desk staff, to breakfast attendants, to housekeeping, are incredibly friendly and willing to help with any concerns. The front desk is especially flexible when it comes to changing travel plans: more than once, we had to cut several days off of our reservation due to unforeseen circumstances, and these modifications were accommodated cheerfully and without penalty--even though our notice was given only a couple of days before the updated checkout date. When it comes to food, breakfast is always a well-prepared, comprehensive spread, including a hot station with some variation on eggs/bacon/sausage/ham, a make-your-own waffle station, bagels/muffins/toast/coffee cake, cold cereal, fruit, yogurt, and a selection of juices and milk. Breakfast hours extend to a reasonable 9:30 on weekdays, and 10:30 on weekends. Take-out bags are also provided in case you want to grab a couple of items for later in the day. Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide a reasonable fallback option from eating out during the entire stay.Rooms were always adequate, but the hotel has just completed down-to-the-plaster renovations in every room with significant updates to somewhat dated decor, completely new furniture (including beds), and HD TVs. This being an all-suite property, each room has at the minimum a full-size refrigerator, two-burner stovetop, cookware, dishes, and dishwasher. Free WiFi is included with the room, and usually works without a hitch--although in one of the rooms we stayed signal was rather weak. Ethernet jacks are also provided, but I've never seen any networking cables in the rooms (don't know if the front desk has any).Recreation amenities include the courtyard with swimming pool, basketball/volleyball court, and picnic tables with nearby propane grills for guest use; and when the weather is not nice enough to play outside, a selection of several dozen DVDs for free guest checkout at the front desk. Also, if you have young children, there is a nice neighborhood playground about a three-block walk to the south.Bottom line: this Staybridge has consistently provided a good place to stay with top-notch service and great breakfast for an excellent value. With the recent renovations and updates, it is even better. Based on their track-record with our family, we wouldn't stay anywhere else in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I have literally spent well over a month of time in this hotel in 2012, spread over five separate trips (three of those with our three-year-old daughter), and I can honestly say that all of our needs were met on each of those occasions. The staff at the Staybridge is above all its leading asset, as everyone from the desk staff, to breakfast attendants, to housekeeping, are incredibly friendly and willing to help with any concerns. The front desk is especially flexible when it comes to changing travel plans: more than once, we had to cut several days off of our reservation due to unforeseen circumstances, and these modifications were accommodated cheerfully and without penalty--even though our notice was given only a couple of days before the updated checkout date. 
+When it comes to food, breakfast is always a well-prepared, comprehensive spread, including a hot station with some variation on eggs/bacon/sausage/ham, a make-your-own waffle station, bagels/muffins/toast/coffee cake, cold cereal, fruit, yogurt, and a selection of juices and milk. Breakfast hours extend to a reasonable 9:30 on weekdays, and 10:30 on weekends. Take-out bags are also provided in case you want to grab a couple of items for later in the day. 
+Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide...My wife and I have literally spent well over a month of time in this hotel in 2012, spread over five separate trips (three of those with our three-year-old daughter), and I can honestly say that all of our needs were met on each of those occasions. The staff at the Staybridge is above all its leading asset, as everyone from the desk staff, to breakfast attendants, to housekeeping, are incredibly friendly and willing to help with any concerns. The front desk is especially flexible when it comes to changing travel plans: more than once, we had to cut several days off of our reservation due to unforeseen circumstances, and these modifications were accommodated cheerfully and without penalty--even though our notice was given only a couple of days before the updated checkout date. When it comes to food, breakfast is always a well-prepared, comprehensive spread, including a hot station with some variation on eggs/bacon/sausage/ham, a make-your-own waffle station, bagels/muffins/toast/coffee cake, cold cereal, fruit, yogurt, and a selection of juices and milk. Breakfast hours extend to a reasonable 9:30 on weekdays, and 10:30 on weekends. Take-out bags are also provided in case you want to grab a couple of items for later in the day. Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide a reasonable fallback option from eating out during the entire stay.Rooms were always adequate, but the hotel has just completed down-to-the-plaster renovations in every room with significant updates to somewhat dated decor, completely new furniture (including beds), and HD TVs. This being an all-suite property, each room has at the minimum a full-size refrigerator, two-burner stovetop, cookware, dishes, and dishwasher. Free WiFi is included with the room, and usually works without a hitch--although in one of the rooms we stayed signal was rather weak. Ethernet jacks are also provided, but I've never seen any networking cables in the rooms (don't know if the front desk has any).Recreation amenities include the courtyard with swimming pool, basketball/volleyball court, and picnic tables with nearby propane grills for guest use; and when the weather is not nice enough to play outside, a selection of several dozen DVDs for free guest checkout at the front desk. Also, if you have young children, there is a nice neighborhood playground about a three-block walk to the south.Bottom line: this Staybridge has consistently provided a good place to stay with top-notch service and great breakfast for an excellent value. With the recent renovations and updates, it is even better. Based on their track-record with our family, we wouldn't stay anywhere else in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r136869226-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>136869226</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights with my wife whilst on a business trip. Firstly, the hotel ticked all the basic requirements - clean, comfortable, spacious rooms. Next, a few things to make the stay a little bit special - excellent free breakfast, free shuttle service to anywhere you want in a 3 mile radius, free wifi, free laundry and even complimentary food on some evenings!And finally, the real wow factor for us - The amazing, lovely staff. In all my travels I have not had such a team of people. Always smiling, helpful beyond the call of duty. Nothing was ever too much trouble.  If work or pleasure brings me back to the area, I would not consider staying anywhere except the Staybridge South Park Meadows.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights with my wife whilst on a business trip. Firstly, the hotel ticked all the basic requirements - clean, comfortable, spacious rooms. Next, a few things to make the stay a little bit special - excellent free breakfast, free shuttle service to anywhere you want in a 3 mile radius, free wifi, free laundry and even complimentary food on some evenings!And finally, the real wow factor for us - The amazing, lovely staff. In all my travels I have not had such a team of people. Always smiling, helpful beyond the call of duty. Nothing was ever too much trouble.  If work or pleasure brings me back to the area, I would not consider staying anywhere except the Staybridge South Park Meadows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r131479514-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>131479514</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel. I Will Come Back.  Great for Long Term Stays</t>
+  </si>
+  <si>
+    <t>I love this hotel.  I stayed here for two weeks.  The hotel staff from the general manager to the housekeeping team are all amazing. They are kind, helpful, and friendly. I am traveling with two little dogs.  One is two pounds, the other six.  The entire staff knows them.  When we walk around the property my dogs are even greeted.  They have free breakfasts which are great.  Not like the ones at Holiday Inn Express. OK, they are missing the rolls, but this is really a full breakfast!!!  Three nights a week they have happy hour including beer on tap and wine.  The food is catered in, except on Wednesday when they BBQ hot dogs and hamburgers for us.  It is a great social event because the guest get to know each other.  This Tuesday night there is someone coming in to give 15 minute massages during happy hour, which are great.  She will be bringing her table and even give full massages for only $50.00 which is a really good price.   I haven't needed it, but know there is a shuttle and people are always using it to go to work, training, and even chemo appt.  Even the washer and dryers are free!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I love this hotel.  I stayed here for two weeks.  The hotel staff from the general manager to the housekeeping team are all amazing. They are kind, helpful, and friendly. I am traveling with two little dogs.  One is two pounds, the other six.  The entire staff knows them.  When we walk around the property my dogs are even greeted.  They have free breakfasts which are great.  Not like the ones at Holiday Inn Express. OK, they are missing the rolls, but this is really a full breakfast!!!  Three nights a week they have happy hour including beer on tap and wine.  The food is catered in, except on Wednesday when they BBQ hot dogs and hamburgers for us.  It is a great social event because the guest get to know each other.  This Tuesday night there is someone coming in to give 15 minute massages during happy hour, which are great.  She will be bringing her table and even give full massages for only $50.00 which is a really good price.   I haven't needed it, but know there is a shuttle and people are always using it to go to work, training, and even chemo appt.  Even the washer and dryers are free!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r130808953-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>130808953</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>We were booked here thru my husband's company. It was not a good hotel. We started in a room downstairs and in the middle of the night when people above flushed the toilet it was so loud it woke us up. Sounded like a waterfall in the wall. Then the second night a dog in the room next to us started barking. We asked to be moved and the next room was fine, just seemed a little cheap and outdated. When we checked in they asked for a credit card for incidentals. My husband's company had paid for the room already but I found out a few days later that they had charged my card for the room anyway! Needless to say I was ticked. We called and they argued with me about it saying that his company had not paid for it. We contacted my husband's company and they said they did. I finally got my card refunded after arguing with the hotel. Definately would not stay there again. You can find something way cleaner and nicer for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>We were booked here thru my husband's company. It was not a good hotel. We started in a room downstairs and in the middle of the night when people above flushed the toilet it was so loud it woke us up. Sounded like a waterfall in the wall. Then the second night a dog in the room next to us started barking. We asked to be moved and the next room was fine, just seemed a little cheap and outdated. When we checked in they asked for a credit card for incidentals. My husband's company had paid for the room already but I found out a few days later that they had charged my card for the room anyway! Needless to say I was ticked. We called and they argued with me about it saying that his company had not paid for it. We contacted my husband's company and they said they did. I finally got my card refunded after arguing with the hotel. Definately would not stay there again. You can find something way cleaner and nicer for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r126342468-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>126342468</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent hotel, Can't say enough good things about it!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in this hotel for five days and we were pleasantly surprised with the quality of this hotel.  I was a bit skeptical at first when I was assigned this property from Hotwire.  However, this hotel was definitely worth the money.  First, the room was very comfortable.  We were in the area on a business/pleasure trip.  The size of the room allowed us to get our work done and also have a separate living space.  The staff was very friendly and helpful.  The room was immaculately clean and touch-up cleaning was provided daily.  The room had a great view and the fact that the windows opened allowed us to regulate the room temperature and enjoy the beautiful Colorado weather.
+We were very happy with the food provided.  Breakfast had enough variety that we didn't get bored.  On Tues, Wed, and Thurs nights a light dinner was provided and that allowed us to save some money.  
+Overall, I have only a few criticisms.  First, while the bed was not uncomfortable, it was definitely not the best hotel bed I have slept in.  I did appreciate the variety number of pillows available. Second, the TV in the hotel was an older box model with relatively poor picture quality.  Third, the internet connection was unreliable.  We had to reconnect several times during the day.  
+I'm not sure what the normal rate for this property is but for the $75ish...My wife and I stayed in this hotel for five days and we were pleasantly surprised with the quality of this hotel.  I was a bit skeptical at first when I was assigned this property from Hotwire.  However, this hotel was definitely worth the money.  First, the room was very comfortable.  We were in the area on a business/pleasure trip.  The size of the room allowed us to get our work done and also have a separate living space.  The staff was very friendly and helpful.  The room was immaculately clean and touch-up cleaning was provided daily.  The room had a great view and the fact that the windows opened allowed us to regulate the room temperature and enjoy the beautiful Colorado weather.We were very happy with the food provided.  Breakfast had enough variety that we didn't get bored.  On Tues, Wed, and Thurs nights a light dinner was provided and that allowed us to save some money.  Overall, I have only a few criticisms.  First, while the bed was not uncomfortable, it was definitely not the best hotel bed I have slept in.  I did appreciate the variety number of pillows available. Second, the TV in the hotel was an older box model with relatively poor picture quality.  Third, the internet connection was unreliable.  We had to reconnect several times during the day.  I'm not sure what the normal rate for this property is but for the $75ish I paid on Hotwire, it was definitely worth it and I would highly recommend to any traveler, on a budget, looking for a nice hotel in a quiet location.  Happy travels!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in this hotel for five days and we were pleasantly surprised with the quality of this hotel.  I was a bit skeptical at first when I was assigned this property from Hotwire.  However, this hotel was definitely worth the money.  First, the room was very comfortable.  We were in the area on a business/pleasure trip.  The size of the room allowed us to get our work done and also have a separate living space.  The staff was very friendly and helpful.  The room was immaculately clean and touch-up cleaning was provided daily.  The room had a great view and the fact that the windows opened allowed us to regulate the room temperature and enjoy the beautiful Colorado weather.
+We were very happy with the food provided.  Breakfast had enough variety that we didn't get bored.  On Tues, Wed, and Thurs nights a light dinner was provided and that allowed us to save some money.  
+Overall, I have only a few criticisms.  First, while the bed was not uncomfortable, it was definitely not the best hotel bed I have slept in.  I did appreciate the variety number of pillows available. Second, the TV in the hotel was an older box model with relatively poor picture quality.  Third, the internet connection was unreliable.  We had to reconnect several times during the day.  
+I'm not sure what the normal rate for this property is but for the $75ish...My wife and I stayed in this hotel for five days and we were pleasantly surprised with the quality of this hotel.  I was a bit skeptical at first when I was assigned this property from Hotwire.  However, this hotel was definitely worth the money.  First, the room was very comfortable.  We were in the area on a business/pleasure trip.  The size of the room allowed us to get our work done and also have a separate living space.  The staff was very friendly and helpful.  The room was immaculately clean and touch-up cleaning was provided daily.  The room had a great view and the fact that the windows opened allowed us to regulate the room temperature and enjoy the beautiful Colorado weather.We were very happy with the food provided.  Breakfast had enough variety that we didn't get bored.  On Tues, Wed, and Thurs nights a light dinner was provided and that allowed us to save some money.  Overall, I have only a few criticisms.  First, while the bed was not uncomfortable, it was definitely not the best hotel bed I have slept in.  I did appreciate the variety number of pillows available. Second, the TV in the hotel was an older box model with relatively poor picture quality.  Third, the internet connection was unreliable.  We had to reconnect several times during the day.  I'm not sure what the normal rate for this property is but for the $75ish I paid on Hotwire, it was definitely worth it and I would highly recommend to any traveler, on a budget, looking for a nice hotel in a quiet location.  Happy travels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r125354907-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>125354907</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Should only be a 2 1/2 star</t>
+  </si>
+  <si>
+    <t>Came up on Priceline as a 3 Star.. I just do not see it.. Maybe a 2 or 2.5 star. The room had cheaper funiture and a small-low-hard bed. The bathroom was very plain and basic..needs updating. The morning breakfest was good with lots on low fat choices and was very fresh. Staff was friendly and was clean..MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded March 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2012</t>
+  </si>
+  <si>
+    <t>Came up on Priceline as a 3 Star.. I just do not see it.. Maybe a 2 or 2.5 star. The room had cheaper funiture and a small-low-hard bed. The bathroom was very plain and basic..needs updating. The morning breakfest was good with lots on low fat choices and was very fresh. Staff was friendly and was clean..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r124641864-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>124641864</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>Nice place... great staff...</t>
+  </si>
+  <si>
+    <t>During my stay, I was upgraded to one of their corner suites. I have a was overwhealmed by the size of the room. The room had separate bedrooms with separate showers.  The only negative thing i had during my stay is that the hotel seems a bit 'aged.'  It is at a very convenient location with easy acess to the interstate.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r121416320-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121416320</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Always a good stay here!</t>
+  </si>
+  <si>
+    <t>I love the location of this hotel in South Denver.  Easy access to I-25.  Right off C-470 to circle around the west of Denver as well.  Oh, and don't forget....right by Park Meadows Mall and all the shopping/eating that comes with it.  Castle Rock outlet mall is only about 20 minutes away as well.I have stayed at this hotel many times in my business travels.  The staff here is one of the best staffs I've come across.  They are always very cordial and willing to help with any needs you may have.  The wireless internet can be a little testy at times, so if that is the most important thing to you in your stay, make sure you ask for a room close to the access point.  They have never let me down when requesting a special accommodation like this.  Waiting for them to get new flat screen tv's and some HD channels like alot of the industry is going to...then it will be perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I love the location of this hotel in South Denver.  Easy access to I-25.  Right off C-470 to circle around the west of Denver as well.  Oh, and don't forget....right by Park Meadows Mall and all the shopping/eating that comes with it.  Castle Rock outlet mall is only about 20 minutes away as well.I have stayed at this hotel many times in my business travels.  The staff here is one of the best staffs I've come across.  They are always very cordial and willing to help with any needs you may have.  The wireless internet can be a little testy at times, so if that is the most important thing to you in your stay, make sure you ask for a room close to the access point.  They have never let me down when requesting a special accommodation like this.  Waiting for them to get new flat screen tv's and some HD channels like alot of the industry is going to...then it will be perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r117724214-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>117724214</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>began my stay august 22 2011.  housekeeping bad (forget to stock room, leaking facet, towels smelly musty wash my own stuff dont trust staff)  bed too soft,   They are supposed to upgrade in feb 2012.  Management were "smare with me"  I am handicapped.  I had to buy own anti slip mats for floor in shower almost fell broke my neck!!    They advertize free internet wireless but they choose to blame me for no internet when the internet works fine right outside my door and in the hallways.   Now I find out other guests have complained about this room 131.  They  finally bring are bringing a tech out here tomorrow after every day calling with no respect.  I am here for 4 months on medical reasons.  Do yourself a favor rent an apartment please God BlessMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>began my stay august 22 2011.  housekeeping bad (forget to stock room, leaking facet, towels smelly musty wash my own stuff dont trust staff)  bed too soft,   They are supposed to upgrade in feb 2012.  Management were "smare with me"  I am handicapped.  I had to buy own anti slip mats for floor in shower almost fell broke my neck!!    They advertize free internet wireless but they choose to blame me for no internet when the internet works fine right outside my door and in the hallways.   Now I find out other guests have complained about this room 131.  They  finally bring are bringing a tech out here tomorrow after every day calling with no respect.  I am here for 4 months on medical reasons.  Do yourself a favor rent an apartment please God BlessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r115251577-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115251577</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>I LOVE this property. Staff is incredible. Awesome!!</t>
+  </si>
+  <si>
+    <t>This was my second year of staying at this Staybridge Suites.  I requested that we be put here this year after my experience with them last year.  The property is beautiful and well maintained.  The studio suites are spacious, fully furnished and in outstanding condition.
+The staff, Drew Rudnick (Mgr), LsShawnda Thomas (Front Desk) and Christina (food service setup) is unbelievable.  I travel a lot and I must say that I have never been treated so well in my life.  They all bent over backwards to make our stay the most enjoyable and trouble free experience of our lives.  An A/C unit failed in one of our rooms - they immediately replaced it with a brand new one.  We had to leave early everyday - they had breakfast buffet ready 45 min earlier than normal...just for us!!
+We BBQ'd, played some basketball (yes, they have a court), swam, played board games, and used the free computer and Internet in the business office.  They have snacks, coffee, tea and fruit 24 hours a day.
+Don't let the location of the property fool you.  Being south of Denver has a multitude of advantages, including easy freeway access.  The best part is that it is worth the drive.  We worked north of Denver almost every day, but the thought of returning to our wonderful suites with the most comfortable beds ever made was worth every single moment on the road.
+I LOVE this...This was my second year of staying at this Staybridge Suites.  I requested that we be put here this year after my experience with them last year.  The property is beautiful and well maintained.  The studio suites are spacious, fully furnished and in outstanding condition.The staff, Drew Rudnick (Mgr), LsShawnda Thomas (Front Desk) and Christina (food service setup) is unbelievable.  I travel a lot and I must say that I have never been treated so well in my life.  They all bent over backwards to make our stay the most enjoyable and trouble free experience of our lives.  An A/C unit failed in one of our rooms - they immediately replaced it with a brand new one.  We had to leave early everyday - they had breakfast buffet ready 45 min earlier than normal...just for us!!We BBQ'd, played some basketball (yes, they have a court), swam, played board games, and used the free computer and Internet in the business office.  They have snacks, coffee, tea and fruit 24 hours a day.Don't let the location of the property fool you.  Being south of Denver has a multitude of advantages, including easy freeway access.  The best part is that it is worth the drive.  We worked north of Denver almost every day, but the thought of returning to our wonderful suites with the most comfortable beds ever made was worth every single moment on the road.I LOVE this place!!  IT ROCKS!!! JimMoreShow less</t>
+  </si>
+  <si>
+    <t>This was my second year of staying at this Staybridge Suites.  I requested that we be put here this year after my experience with them last year.  The property is beautiful and well maintained.  The studio suites are spacious, fully furnished and in outstanding condition.
+The staff, Drew Rudnick (Mgr), LsShawnda Thomas (Front Desk) and Christina (food service setup) is unbelievable.  I travel a lot and I must say that I have never been treated so well in my life.  They all bent over backwards to make our stay the most enjoyable and trouble free experience of our lives.  An A/C unit failed in one of our rooms - they immediately replaced it with a brand new one.  We had to leave early everyday - they had breakfast buffet ready 45 min earlier than normal...just for us!!
+We BBQ'd, played some basketball (yes, they have a court), swam, played board games, and used the free computer and Internet in the business office.  They have snacks, coffee, tea and fruit 24 hours a day.
+Don't let the location of the property fool you.  Being south of Denver has a multitude of advantages, including easy freeway access.  The best part is that it is worth the drive.  We worked north of Denver almost every day, but the thought of returning to our wonderful suites with the most comfortable beds ever made was worth every single moment on the road.
+I LOVE this...This was my second year of staying at this Staybridge Suites.  I requested that we be put here this year after my experience with them last year.  The property is beautiful and well maintained.  The studio suites are spacious, fully furnished and in outstanding condition.The staff, Drew Rudnick (Mgr), LsShawnda Thomas (Front Desk) and Christina (food service setup) is unbelievable.  I travel a lot and I must say that I have never been treated so well in my life.  They all bent over backwards to make our stay the most enjoyable and trouble free experience of our lives.  An A/C unit failed in one of our rooms - they immediately replaced it with a brand new one.  We had to leave early everyday - they had breakfast buffet ready 45 min earlier than normal...just for us!!We BBQ'd, played some basketball (yes, they have a court), swam, played board games, and used the free computer and Internet in the business office.  They have snacks, coffee, tea and fruit 24 hours a day.Don't let the location of the property fool you.  Being south of Denver has a multitude of advantages, including easy freeway access.  The best part is that it is worth the drive.  We worked north of Denver almost every day, but the thought of returning to our wonderful suites with the most comfortable beds ever made was worth every single moment on the road.I LOVE this place!!  IT ROCKS!!! JimMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r48140319-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>48140319</t>
+  </si>
+  <si>
+    <t>10/30/2009</t>
+  </si>
+  <si>
+    <t>A nice home for a long stay.</t>
+  </si>
+  <si>
+    <t>I stayed there for about 2-1/2 weeks in late September and can confirm other's comments about the helpful and courteous staff.  It is fairly convenient to restaurants, a big mall within about a mile and to the excellent light-rail system for getting into Denver.My room was always cleaned well and was quiet, as long as the room beside mine was vacant.  The wall was a bit thin and I could easily hear conversations if more than one person was there.The whole place was starting to look like a makeover would be in order.  A few stained carpets in the halls, worn trim and minor wallpaper rips.  Not bad, just not good enough to warrant an 'Excellent' rating from me.  My room had minor tears in lampshades and the couch was worn.The breakfasts were very good and they have complimentary food on Tue - Thur evenings if you are on a budget.Nice pool, basketball court and grill area in the back.Speaking of food, there is an excellent neighborhood restaurant right behind the Staybridge, called the Silver Creek Diner.  It is about a 1 minute walk from the back entrance.  Not fancy but the food was very good and the staff always courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>I stayed there for about 2-1/2 weeks in late September and can confirm other's comments about the helpful and courteous staff.  It is fairly convenient to restaurants, a big mall within about a mile and to the excellent light-rail system for getting into Denver.My room was always cleaned well and was quiet, as long as the room beside mine was vacant.  The wall was a bit thin and I could easily hear conversations if more than one person was there.The whole place was starting to look like a makeover would be in order.  A few stained carpets in the halls, worn trim and minor wallpaper rips.  Not bad, just not good enough to warrant an 'Excellent' rating from me.  My room had minor tears in lampshades and the couch was worn.The breakfasts were very good and they have complimentary food on Tue - Thur evenings if you are on a budget.Nice pool, basketball court and grill area in the back.Speaking of food, there is an excellent neighborhood restaurant right behind the Staybridge, called the Silver Creek Diner.  It is about a 1 minute walk from the back entrance.  Not fancy but the food was very good and the staff always courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r18546318-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>18546318</t>
+  </si>
+  <si>
+    <t>08/02/2008</t>
+  </si>
+  <si>
+    <t>Nice hotel despite reservations error.</t>
+  </si>
+  <si>
+    <t>The Staybridge is in an excellent location for a stay in this part of suburban Denver (Littleton, Centennial, Lone Tree) and a mile from the Park Meadows Mall (eat at Thai Basil restaurant next to the mall -- excellent!).
+Our stay would have been perfect had there not been a pretty sizable error on the part of the hotel upon check in.  We reserved a non-smoking 2-bedroom suite for our family of four with small children (online, excellent rate) and upon arrival checked in with ease.  We went to our room and almost died of smoke inhilation.  We returned to the front desk to find that the hotel had us blocked into a smoking room and that our reservation indicating we requested such (despite our confirmation that said otherwise).  Unfortunately, they had no suites remaining.  Despite this mistake, the hotel did their best to rectify -- they offered us two rooms at  a sizable discount - they did not adjoin and we had to split up our family but the only other option was to seek accomodations elsewhere and that wasn't realistic.  We appreciate their efforts but it was inconvenient and unfortunate.
+The hotel itself is very nice, the rooms are large with "full" kitchens and normal baths - very nice for long-term business travel or family travel (only a 15 minute drive to downtown Denver and right on the C470 highway that connects to all parts of town and...The Staybridge is in an excellent location for a stay in this part of suburban Denver (Littleton, Centennial, Lone Tree) and a mile from the Park Meadows Mall (eat at Thai Basil restaurant next to the mall -- excellent!).Our stay would have been perfect had there not been a pretty sizable error on the part of the hotel upon check in.  We reserved a non-smoking 2-bedroom suite for our family of four with small children (online, excellent rate) and upon arrival checked in with ease.  We went to our room and almost died of smoke inhilation.  We returned to the front desk to find that the hotel had us blocked into a smoking room and that our reservation indicating we requested such (despite our confirmation that said otherwise).  Unfortunately, they had no suites remaining.  Despite this mistake, the hotel did their best to rectify -- they offered us two rooms at  a sizable discount - they did not adjoin and we had to split up our family but the only other option was to seek accomodations elsewhere and that wasn't realistic.  We appreciate their efforts but it was inconvenient and unfortunate.The hotel itself is very nice, the rooms are large with "full" kitchens and normal baths - very nice for long-term business travel or family travel (only a 15 minute drive to downtown Denver and right on the C470 highway that connects to all parts of town and the airport).  They offer housekeeping M-F but if you need weekend service, you must request it by 5PM on Friday or you are on your own for the weekend.We would probably stay there again but like in the old days before online reservations and "confirmations", call to be sure you get what you've requested if you have specific business or family needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>The Staybridge is in an excellent location for a stay in this part of suburban Denver (Littleton, Centennial, Lone Tree) and a mile from the Park Meadows Mall (eat at Thai Basil restaurant next to the mall -- excellent!).
+Our stay would have been perfect had there not been a pretty sizable error on the part of the hotel upon check in.  We reserved a non-smoking 2-bedroom suite for our family of four with small children (online, excellent rate) and upon arrival checked in with ease.  We went to our room and almost died of smoke inhilation.  We returned to the front desk to find that the hotel had us blocked into a smoking room and that our reservation indicating we requested such (despite our confirmation that said otherwise).  Unfortunately, they had no suites remaining.  Despite this mistake, the hotel did their best to rectify -- they offered us two rooms at  a sizable discount - they did not adjoin and we had to split up our family but the only other option was to seek accomodations elsewhere and that wasn't realistic.  We appreciate their efforts but it was inconvenient and unfortunate.
+The hotel itself is very nice, the rooms are large with "full" kitchens and normal baths - very nice for long-term business travel or family travel (only a 15 minute drive to downtown Denver and right on the C470 highway that connects to all parts of town and...The Staybridge is in an excellent location for a stay in this part of suburban Denver (Littleton, Centennial, Lone Tree) and a mile from the Park Meadows Mall (eat at Thai Basil restaurant next to the mall -- excellent!).Our stay would have been perfect had there not been a pretty sizable error on the part of the hotel upon check in.  We reserved a non-smoking 2-bedroom suite for our family of four with small children (online, excellent rate) and upon arrival checked in with ease.  We went to our room and almost died of smoke inhilation.  We returned to the front desk to find that the hotel had us blocked into a smoking room and that our reservation indicating we requested such (despite our confirmation that said otherwise).  Unfortunately, they had no suites remaining.  Despite this mistake, the hotel did their best to rectify -- they offered us two rooms at  a sizable discount - they did not adjoin and we had to split up our family but the only other option was to seek accomodations elsewhere and that wasn't realistic.  We appreciate their efforts but it was inconvenient and unfortunate.The hotel itself is very nice, the rooms are large with "full" kitchens and normal baths - very nice for long-term business travel or family travel (only a 15 minute drive to downtown Denver and right on the C470 highway that connects to all parts of town and the airport).  They offer housekeeping M-F but if you need weekend service, you must request it by 5PM on Friday or you are on your own for the weekend.We would probably stay there again but like in the old days before online reservations and "confirmations", call to be sure you get what you've requested if you have specific business or family needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r17946554-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>17946554</t>
+  </si>
+  <si>
+    <t>07/16/2008</t>
+  </si>
+  <si>
+    <t>Beyond Excellent!</t>
+  </si>
+  <si>
+    <t>We just returned from a 3 day stay here, and I don't think I have seen Better customer service Anywhere in the USA!  The hotel is clean, and the amenties wonderful. Every person we encountered with the staff went out of their way; each one personable and helpful! I wanted to go to the nearby Park Meadows Mall, and asked about a taxi there. Within moments the young lady at the front desk relayed a radio message to the courtesy shuttle driver (which I thought was only for airport runs), and his Only question in reply was "When do they want to go?  I said "asap", and we were on our way within 5 minutes!!  They offered to come back and get me at the mall, with just a simple call ,to let them know when I was ready.
+The housekeeping staff did come later in the day, but they did a wonderful job. I felt that if I had spoken to the front desk and let them know we were out of our room very early, they would have had the room cleaned earlier; so it was just a a matter of a request, on my part.
+We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets...We just returned from a 3 day stay here, and I don't think I have seen Better customer service Anywhere in the USA!  The hotel is clean, and the amenties wonderful. Every person we encountered with the staff went out of their way; each one personable and helpful! I wanted to go to the nearby Park Meadows Mall, and asked about a taxi there. Within moments the young lady at the front desk relayed a radio message to the courtesy shuttle driver (which I thought was only for airport runs), and his Only question in reply was "When do they want to go?  I said "asap", and we were on our way within 5 minutes!!  They offered to come back and get me at the mall, with just a simple call ,to let them know when I was ready.The housekeeping staff did come later in the day, but they did a wonderful job. I felt that if I had spoken to the front desk and let them know we were out of our room very early, they would have had the room cleaned earlier; so it was just a a matter of a request, on my part.We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets and coverlets are provided. We stayed on the third floor,which was quiet. I noticed that they are pet friendly., as well. Be sure to designate non smoking, as they do stil have smoking rooms, if that is your preference. We were accomodated there, and being able to leave the windows open all night, or most of the morning, we never felt we had been in a "smoking sometime" room, as some chains will give you. I do wish they would go all non-smoking, but I can see they are trying their best, to please all customers.The pool area seemed nice, as all of the grounds were well landscaped and very clean. We saw baby bunnies each night, feeding near the smaller flower beds!(hey, if baby bunnies feel safe here....gotta love it!)They have a night time reception during the week that has Real food; not snacks or appetizers--we had PF Chang's when we were there, and plenty of it, along with wine and soft drinks! The breakfast is also very good; with lots of choices for those who eat healthy, ( hot oatmeal, yogurt, fresh fruit, wheat bread and bagels for toasting, etc)and wonderful pound cakes, waffles, eggs and bacon, for those who want a heartier fare. We got a little carry-out bag from the kiosk there, and took back some fruit and pound cake slices, to leave in our  own kitchen, for later. With a full kitchenette and coffee maker, we enjoyed our coffee and cakes in the morning, the next day. They have a full sized fridge, and grocery stores nearby., so it is great to come back to a glass of wine or snack from your own fridge! There are 2 computers in the lobby, in a quiet nook, and a good printer, for getting your baording passes done, for your flight, or to print directions to attractions and restaurants.All in all, it was like having a a great apartment...HIGHLY recommend this hotel and would not stay anywhere else, on our next visit to Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just returned from a 3 day stay here, and I don't think I have seen Better customer service Anywhere in the USA!  The hotel is clean, and the amenties wonderful. Every person we encountered with the staff went out of their way; each one personable and helpful! I wanted to go to the nearby Park Meadows Mall, and asked about a taxi there. Within moments the young lady at the front desk relayed a radio message to the courtesy shuttle driver (which I thought was only for airport runs), and his Only question in reply was "When do they want to go?  I said "asap", and we were on our way within 5 minutes!!  They offered to come back and get me at the mall, with just a simple call ,to let them know when I was ready.
+The housekeeping staff did come later in the day, but they did a wonderful job. I felt that if I had spoken to the front desk and let them know we were out of our room very early, they would have had the room cleaned earlier; so it was just a a matter of a request, on my part.
+We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets...We just returned from a 3 day stay here, and I don't think I have seen Better customer service Anywhere in the USA!  The hotel is clean, and the amenties wonderful. Every person we encountered with the staff went out of their way; each one personable and helpful! I wanted to go to the nearby Park Meadows Mall, and asked about a taxi there. Within moments the young lady at the front desk relayed a radio message to the courtesy shuttle driver (which I thought was only for airport runs), and his Only question in reply was "When do they want to go?  I said "asap", and we were on our way within 5 minutes!!  They offered to come back and get me at the mall, with just a simple call ,to let them know when I was ready.The housekeeping staff did come later in the day, but they did a wonderful job. I felt that if I had spoken to the front desk and let them know we were out of our room very early, they would have had the room cleaned earlier; so it was just a a matter of a request, on my part.We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets and coverlets are provided. We stayed on the third floor,which was quiet. I noticed that they are pet friendly., as well. Be sure to designate non smoking, as they do stil have smoking rooms, if that is your preference. We were accomodated there, and being able to leave the windows open all night, or most of the morning, we never felt we had been in a "smoking sometime" room, as some chains will give you. I do wish they would go all non-smoking, but I can see they are trying their best, to please all customers.The pool area seemed nice, as all of the grounds were well landscaped and very clean. We saw baby bunnies each night, feeding near the smaller flower beds!(hey, if baby bunnies feel safe here....gotta love it!)They have a night time reception during the week that has Real food; not snacks or appetizers--we had PF Chang's when we were there, and plenty of it, along with wine and soft drinks! The breakfast is also very good; with lots of choices for those who eat healthy, ( hot oatmeal, yogurt, fresh fruit, wheat bread and bagels for toasting, etc)and wonderful pound cakes, waffles, eggs and bacon, for those who want a heartier fare. We got a little carry-out bag from the kiosk there, and took back some fruit and pound cake slices, to leave in our  own kitchen, for later. With a full kitchenette and coffee maker, we enjoyed our coffee and cakes in the morning, the next day. They have a full sized fridge, and grocery stores nearby., so it is great to come back to a glass of wine or snack from your own fridge! There are 2 computers in the lobby, in a quiet nook, and a good printer, for getting your baording passes done, for your flight, or to print directions to attractions and restaurants.All in all, it was like having a a great apartment...HIGHLY recommend this hotel and would not stay anywhere else, on our next visit to Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r8377948-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>8377948</t>
+  </si>
+  <si>
+    <t>08/08/2007</t>
+  </si>
+  <si>
+    <t>Outstanding Staff, Outstanding Property.</t>
+  </si>
+  <si>
+    <t>I booked three nights at this location and from the moment I entered the place I was impressed. I am a priority club platinum member. I was welcomed by the manager and thanked for my business. I was given a beauitful 1 bedroom suite with a full size fridge, electric stove top, sleeper sofa in the main area, DVD/VCR player and an additional TV in the bedroom portion of the suite. The breakfast was very good for a hotel type buffet with everything from fruit and yogurt to eggs, sausage patties and cereal, The bathroom towels were great and extra soft for a hotel chain. The only issue I had the whole time I was there was the water pressure in the shower which was too weak for my liking, but the staff was so friendly and helpful and the property was so well maintained that it was not a huge issue. If I return to Denver I would go out of my way to stay at this property. They just do it right.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>I booked three nights at this location and from the moment I entered the place I was impressed. I am a priority club platinum member. I was welcomed by the manager and thanked for my business. I was given a beauitful 1 bedroom suite with a full size fridge, electric stove top, sleeper sofa in the main area, DVD/VCR player and an additional TV in the bedroom portion of the suite. The breakfast was very good for a hotel type buffet with everything from fruit and yogurt to eggs, sausage patties and cereal, The bathroom towels were great and extra soft for a hotel chain. The only issue I had the whole time I was there was the water pressure in the shower which was too weak for my liking, but the staff was so friendly and helpful and the property was so well maintained that it was not a huge issue. If I return to Denver I would go out of my way to stay at this property. They just do it right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r6774419-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>6774419</t>
+  </si>
+  <si>
+    <t>02/08/2007</t>
+  </si>
+  <si>
+    <t>2 Thumbs up!</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, and I can't say enough good things about it. All rooms are spacious, even the one bedroom studio. Everything is very clean and the rooms are well appointed (each room has a little kitchenette). There is breakfast every morning, and it is more than the typical continental breakfast served at most places...bacon, eggs, waffles, breads, fresh fruit, cereals, etc. Three nights a week, there is even dinner (and free beer!). This past visit, I had to extend my stay due to family illness, and the management went the extra mile to make sure I was accomodated. I won't stay anywhere else.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r6556203-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>6556203</t>
+  </si>
+  <si>
+    <t>01/04/2007</t>
+  </si>
+  <si>
+    <t>so clean!!!</t>
+  </si>
+  <si>
+    <t>I am pretty particular re: hotels.  We booked a 2 bedroom suite on line.  What a value!!!  The hotel was immaculate. Would stay there again when the weather is nicer.  Had a beautiful pool, basketball court and even an area to barbecue.  All conveniently located right near the Park Meadows Mall and restaurants.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2155,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2187,4401 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>309</v>
+      </c>
+      <c r="X34" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>313</v>
+      </c>
+      <c r="J35" t="s">
+        <v>314</v>
+      </c>
+      <c r="K35" t="s">
+        <v>315</v>
+      </c>
+      <c r="L35" t="s">
+        <v>316</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>317</v>
+      </c>
+      <c r="X35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>325</v>
+      </c>
+      <c r="O36" t="s">
+        <v>326</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>335</v>
+      </c>
+      <c r="X37" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>339</v>
+      </c>
+      <c r="J38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>335</v>
+      </c>
+      <c r="X38" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>349</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>350</v>
+      </c>
+      <c r="X39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>358</v>
+      </c>
+      <c r="X40" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>374</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>374</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>383</v>
+      </c>
+      <c r="X43" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>391</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>392</v>
+      </c>
+      <c r="X45" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>404</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" t="s">
+        <v>406</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>408</v>
+      </c>
+      <c r="X46" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>411</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s">
+        <v>414</v>
+      </c>
+      <c r="L47" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" t="s">
+        <v>422</v>
+      </c>
+      <c r="K48" t="s">
+        <v>423</v>
+      </c>
+      <c r="L48" t="s">
+        <v>424</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>429</v>
+      </c>
+      <c r="J49" t="s">
+        <v>430</v>
+      </c>
+      <c r="K49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>433</v>
+      </c>
+      <c r="X49" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>437</v>
+      </c>
+      <c r="J50" t="s">
+        <v>438</v>
+      </c>
+      <c r="K50" t="s">
+        <v>439</v>
+      </c>
+      <c r="L50" t="s">
+        <v>440</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>441</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>442</v>
+      </c>
+      <c r="X50" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>446</v>
+      </c>
+      <c r="J51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K51" t="s">
+        <v>448</v>
+      </c>
+      <c r="L51" t="s">
+        <v>449</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>450</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>451</v>
+      </c>
+      <c r="X51" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>454</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>455</v>
+      </c>
+      <c r="J52" t="s">
+        <v>456</v>
+      </c>
+      <c r="K52" t="s">
+        <v>457</v>
+      </c>
+      <c r="L52" t="s">
+        <v>458</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>459</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>460</v>
+      </c>
+      <c r="X52" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>464</v>
+      </c>
+      <c r="J53" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" t="s">
+        <v>466</v>
+      </c>
+      <c r="L53" t="s">
+        <v>467</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>468</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O54" t="s">
+        <v>96</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>483</v>
+      </c>
+      <c r="X55" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>486</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>487</v>
+      </c>
+      <c r="J56" t="s">
+        <v>488</v>
+      </c>
+      <c r="K56" t="s">
+        <v>489</v>
+      </c>
+      <c r="L56" t="s">
+        <v>490</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>491</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s">
+        <v>497</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>482</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>498</v>
+      </c>
+      <c r="X57" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+      <c r="L58" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>508</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>511</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>512</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+      <c r="J60" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" t="s">
+        <v>517</v>
+      </c>
+      <c r="L60" t="s">
+        <v>518</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>519</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>522</v>
+      </c>
+      <c r="J61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K61" t="s">
+        <v>524</v>
+      </c>
+      <c r="L61" t="s">
+        <v>525</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>512</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>527</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J62" t="s">
+        <v>529</v>
+      </c>
+      <c r="K62" t="s">
+        <v>530</v>
+      </c>
+      <c r="L62" t="s">
+        <v>531</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>532</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>534</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>535</v>
+      </c>
+      <c r="J63" t="s">
+        <v>536</v>
+      </c>
+      <c r="K63" t="s">
+        <v>537</v>
+      </c>
+      <c r="L63" t="s">
+        <v>538</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>539</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>539</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>547</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>548</v>
+      </c>
+      <c r="J65" t="s">
+        <v>549</v>
+      </c>
+      <c r="K65" t="s">
+        <v>550</v>
+      </c>
+      <c r="L65" t="s">
+        <v>551</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>552</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>554</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>555</v>
+      </c>
+      <c r="J66" t="s">
+        <v>556</v>
+      </c>
+      <c r="K66" t="s">
+        <v>557</v>
+      </c>
+      <c r="L66" t="s">
+        <v>558</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>559</v>
+      </c>
+      <c r="O66" t="s">
+        <v>96</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>560</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>561</v>
+      </c>
+      <c r="J67" t="s">
+        <v>562</v>
+      </c>
+      <c r="K67" t="s">
+        <v>563</v>
+      </c>
+      <c r="L67" t="s">
+        <v>564</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_251.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="891">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,120 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r611303546-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>223237</t>
+  </si>
+  <si>
+    <t>611303546</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>1- night business stay</t>
+  </si>
+  <si>
+    <t>Quick turn around business trip. Booked one night stay at Staybridge for under $200. Great price considering the majority of hotels nearby were averaging $250-$350 a night. There was a conference and normal hotel was sold out. Staff provided great customer service. Front desk was very friendly and attentive. Hotel hallway carpet was dirty and could be replaced and or cleaned. Hotel elevator was slow and used stairs to access room. Stairwell had several crates for animals. Noticed a large amount of guests had dogs on the property. Hotel room decor is definitely out dated but hotel room was clean.  Comfortable bed. Hotel offers continental breakfast and happy hour (social gathering) at night for guests. Good variety of options. Very little parking in the front entrance of the hotel. Majority of the parking is on the side and back of hotel. Overall for the price I would stay at the hotel if needed but it wouldn't be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Colin G, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Quick turn around business trip. Booked one night stay at Staybridge for under $200. Great price considering the majority of hotels nearby were averaging $250-$350 a night. There was a conference and normal hotel was sold out. Staff provided great customer service. Front desk was very friendly and attentive. Hotel hallway carpet was dirty and could be replaced and or cleaned. Hotel elevator was slow and used stairs to access room. Stairwell had several crates for animals. Noticed a large amount of guests had dogs on the property. Hotel room decor is definitely out dated but hotel room was clean.  Comfortable bed. Hotel offers continental breakfast and happy hour (social gathering) at night for guests. Good variety of options. Very little parking in the front entrance of the hotel. Majority of the parking is on the side and back of hotel. Overall for the price I would stay at the hotel if needed but it wouldn't be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r589042666-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>589042666</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Are you kidding me? This place is great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the best hotel that I’ve ever stayed in for under $200/night and I barley paid half of that!  It’s quiet, super clean, easy to get to, friendly people.   Loved it.  I will stay here anywhere I travel that has one, for the rest of my life.  </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r604463349-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>604463349</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Nice suite in Denver south</t>
+  </si>
+  <si>
+    <t>Staff was friendly.  Breakfast buffet was typical free buffet; adequate for breakfast, but could have had more selection.Decor is dated; looks like it is from the 1980s.  Only one elevator, so lots of walking down hallways to rooms.  Kitchen is nice for an extended stay.  Location is convenient to South Denver business area.  Bathroom is a bit small.  If you want maid service on weekends, you must request it by Friday afternoon.Only entry is front door.  Parking is around building, so there is walking from parking to front door.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r603976403-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>603976403</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Just passing through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were headed to Yellowstone and stayed at the Staybridge Suites overnight. The decor is adorable, the staff was super friendly and helpful, and the continental breakfast was hot and had a great selection. We would definitely stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r589859955-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>589859955</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Worst front office staff of any hotel I have been to in years</t>
+  </si>
+  <si>
+    <t>When I made this reservation I called the office and made them well aware that we were traveling from SE Asia for over 28 hours and would likely be there earlier than the 3pm check in.  "No problem" they said.However, 2 months later when we arrive 30 minutes before the 3pm check in their only answer (for an IHG Platinum Elite member) was "Check in time is at 3 pm".  Simply ridiculous level of service.  Had I known that we could have easily chosen from any number of other hotels in the area.  The hotel is in good condition and the rooms were well suited and nearly new.  If the staff weren't awful it would have been much more tolerable.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I made this reservation I called the office and made them well aware that we were traveling from SE Asia for over 28 hours and would likely be there earlier than the 3pm check in.  "No problem" they said.However, 2 months later when we arrive 30 minutes before the 3pm check in their only answer (for an IHG Platinum Elite member) was "Check in time is at 3 pm".  Simply ridiculous level of service.  Had I known that we could have easily chosen from any number of other hotels in the area.  The hotel is in good condition and the rooms were well suited and nearly new.  If the staff weren't awful it would have been much more tolerable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r589334742-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
-    <t>33524</t>
-  </si>
-  <si>
-    <t>223237</t>
-  </si>
-  <si>
     <t>589334742</t>
   </si>
   <si>
@@ -174,12 +276,6 @@
     <t>Stayed at this hotel for a couple of nights while in Denver area for work. The staff was very friendly, polite and helpful. Mike at the front desk was exceptional. The evening snacks/dinner from Monday to Wednesday were great. Breakfast was fantastic.I would definitely stay here if in the area again.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r583061467-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -216,7 +312,40 @@
     <t>Room was comfortable. Cook-top/microwave/refrigerator were a plus. Free washer/dryer use. Breakfast was good and provided a great start to the day. Bed was comfortable and we liked the shower pressure.We were moved after the first night because of howling dogs so make sure you are put in a quiet room.The County Line light railway station was 10 minutes away and gave us easy access to downtown Denver without the traffic hassles.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r568435138-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>568435138</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Hopefully it is very good by now, under a lot of decoration and clutter</t>
+  </si>
+  <si>
+    <t>Staff are amazing and super helpful here. Breakfast is a bit samey when you are there for more than a week. Local shuttle is terrific a great perk.You need a car to go to meals as not really near much. So did big shop at the grocery store and used the kitchen.As they have kitchens it would be nice if there was recycling available in the hotel. I hate having to put in trash glass containers that could be recycled, and the daily newspaper.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r550737613-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>550737613</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff and a good value. </t>
+  </si>
+  <si>
+    <t>We arrived and had a few glitches at check in, but Mike the night clerk was awesome! He done a supper job straightening things out and worked hard to make sure everything was good. Being it was New That's Eve they were packed and busy. With that being said...The only real gripe I have is the dining area was a train wreck during breakfast. The gentleman running it was doing a great job trying to make everyone happy, but he was clearly overwhelmed with the amount of people. Just needed more staff to help him. Other than that great place.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r506160907-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -286,6 +415,50 @@
   </si>
   <si>
     <t>I have been staying at this Staybridge on and off for the last 8 years. The service is excellent and the rooms are clean. Having a fully functional kitchen is huge when you want to cut cost on meals. They also have food Monday through Wednesday with drinks served from 5:30 to 7:30PM which is very nice. Laundry facilities, small area with food items and drinks and a workout gym are other pluses to staying here. I have never had a bad stay at the Staybridge.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r487793958-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>487793958</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Second visit to property; husband INJURED, rooms not very clean</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this property twice during a recent month long vacation that included driving to Seattle for a cruise, and spending a week in the Canadian Rockies.  We stayed once on April 24th, 2017, and once again on May 16th, 2017.  Reading other guest's reviews which were overwhelmingly positive, we must have been unlucky in having 2 stays that were less than stellar.  I really did wish to post a positive review for both our stays, but unfortunately, the facts should be presented as happened.
+For our first stay on April 24th, my son booked the reservations for all our hotels as a courtesy to us.  When he booked the property three months prior to our visit, he asked for a good room in a nice location, and requested an early check-in if available.  He called again the day before, and was told it wouldn't be a problem.  When we arrived at the hotel, we had to wait in the lobby for 2.4 hours while the room was being cleaned.  That is ok.  I truly do realize that early check-in is a special courtesy that the hotel tries to accommodate, but cannot sometimes due to departure time of the previous guest, and other underlying factors.  When the room was made ready, we dropped our bags, and did a little sightseeing around town, and returned to the hotel later in the evening.  Then we discovered that...My husband and I have stayed at this property twice during a recent month long vacation that included driving to Seattle for a cruise, and spending a week in the Canadian Rockies.  We stayed once on April 24th, 2017, and once again on May 16th, 2017.  Reading other guest's reviews which were overwhelmingly positive, we must have been unlucky in having 2 stays that were less than stellar.  I really did wish to post a positive review for both our stays, but unfortunately, the facts should be presented as happened.For our first stay on April 24th, my son booked the reservations for all our hotels as a courtesy to us.  When he booked the property three months prior to our visit, he asked for a good room in a nice location, and requested an early check-in if available.  He called again the day before, and was told it wouldn't be a problem.  When we arrived at the hotel, we had to wait in the lobby for 2.4 hours while the room was being cleaned.  That is ok.  I truly do realize that early check-in is a special courtesy that the hotel tries to accommodate, but cannot sometimes due to departure time of the previous guest, and other underlying factors.  When the room was made ready, we dropped our bags, and did a little sightseeing around town, and returned to the hotel later in the evening.  Then we discovered that the room upon closer inspection really wasn't all that clean.  The worst was, the bathroom was particularly not as clean as could be, with hair from the previous guests' on the floor, tub, etc.  We brought this to the attention of the front desk agent who stared blindly at us, perhaps not knowing what to do in this case, or either just not really caring.  Attitude wasn't very good; so hard to tell.  We had this same kind of "don't really care" attitude during previous interactions with this agent.  My son and I discussed should be change hotels for our second visit, but we hated to try to find someplace else, thinking our issues would certainly be isolated in nature and wouldn't happen again.  Nothing was done for this visit--and we were not even given an apology for the room not being clean.Our second visit on May 16th, we arrived later in the evening, checked in and headed directly to the Evening Social Reception.  My husband stated that there were approximately 4 dishes left in the spring-loaded dish dispensing rack located in the counter.  The dish on top was tilted slightly to the side.  He put his finger under the dish to retrieve it, and dishes immediately SHOT skyward very quickly.  He barely had time to move his face from the dishes which shattered around him on the counter and on the floor.  He was standing in the middle of broken dishware.  The drink attendant for the hotel was messing with her phone off to the side, and he asked her if he had glass around his eyes from the dishes that shattered and threw shrapnel everywhere.  His hand was pinched (later bruised) and cut from being caught momentarily between the spring loaded system and the plates right before they were ejected skyward.  Front desk attendant showed no compassion whatsoever, didn't offer an apology of any kind, just said, "this hasn't happened before."After we ate--which I must say the Social Reception and breakfast both times were very good and food was plentiful, the only redeeming grace of both stays--we went to the room for the first time and once again discovered that this one wasn't all that clean either.  Bathroom was ok, but the whole room just had the appearance of being skimmed over during the cleaning process.  Next morning, management did comp the room, for which both stays I had paid with IHG rewards points, but nothing was ever done about the first visit.Again, I have seen the other reviews of the hotel and are overwhelmingly positive.  Both of our stays were not unfortunately, and if in the area again, I would have to pick somewhere else to stay based upon my experiences.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this property twice during a recent month long vacation that included driving to Seattle for a cruise, and spending a week in the Canadian Rockies.  We stayed once on April 24th, 2017, and once again on May 16th, 2017.  Reading other guest's reviews which were overwhelmingly positive, we must have been unlucky in having 2 stays that were less than stellar.  I really did wish to post a positive review for both our stays, but unfortunately, the facts should be presented as happened.
+For our first stay on April 24th, my son booked the reservations for all our hotels as a courtesy to us.  When he booked the property three months prior to our visit, he asked for a good room in a nice location, and requested an early check-in if available.  He called again the day before, and was told it wouldn't be a problem.  When we arrived at the hotel, we had to wait in the lobby for 2.4 hours while the room was being cleaned.  That is ok.  I truly do realize that early check-in is a special courtesy that the hotel tries to accommodate, but cannot sometimes due to departure time of the previous guest, and other underlying factors.  When the room was made ready, we dropped our bags, and did a little sightseeing around town, and returned to the hotel later in the evening.  Then we discovered that...My husband and I have stayed at this property twice during a recent month long vacation that included driving to Seattle for a cruise, and spending a week in the Canadian Rockies.  We stayed once on April 24th, 2017, and once again on May 16th, 2017.  Reading other guest's reviews which were overwhelmingly positive, we must have been unlucky in having 2 stays that were less than stellar.  I really did wish to post a positive review for both our stays, but unfortunately, the facts should be presented as happened.For our first stay on April 24th, my son booked the reservations for all our hotels as a courtesy to us.  When he booked the property three months prior to our visit, he asked for a good room in a nice location, and requested an early check-in if available.  He called again the day before, and was told it wouldn't be a problem.  When we arrived at the hotel, we had to wait in the lobby for 2.4 hours while the room was being cleaned.  That is ok.  I truly do realize that early check-in is a special courtesy that the hotel tries to accommodate, but cannot sometimes due to departure time of the previous guest, and other underlying factors.  When the room was made ready, we dropped our bags, and did a little sightseeing around town, and returned to the hotel later in the evening.  Then we discovered that the room upon closer inspection really wasn't all that clean.  The worst was, the bathroom was particularly not as clean as could be, with hair from the previous guests' on the floor, tub, etc.  We brought this to the attention of the front desk agent who stared blindly at us, perhaps not knowing what to do in this case, or either just not really caring.  Attitude wasn't very good; so hard to tell.  We had this same kind of "don't really care" attitude during previous interactions with this agent.  My son and I discussed should be change hotels for our second visit, but we hated to try to find someplace else, thinking our issues would certainly be isolated in nature and wouldn't happen again.  Nothing was done for this visit--and we were not even given an apology for the room not being clean.Our second visit on May 16th, we arrived later in the evening, checked in and headed directly to the Evening Social Reception.  My husband stated that there were approximately 4 dishes left in the spring-loaded dish dispensing rack located in the counter.  The dish on top was tilted slightly to the side.  He put his finger under the dish to retrieve it, and dishes immediately SHOT skyward very quickly.  He barely had time to move his face from the dishes which shattered around him on the counter and on the floor.  He was standing in the middle of broken dishware.  The drink attendant for the hotel was messing with her phone off to the side, and he asked her if he had glass around his eyes from the dishes that shattered and threw shrapnel everywhere.  His hand was pinched (later bruised) and cut from being caught momentarily between the spring loaded system and the plates right before they were ejected skyward.  Front desk attendant showed no compassion whatsoever, didn't offer an apology of any kind, just said, "this hasn't happened before."After we ate--which I must say the Social Reception and breakfast both times were very good and food was plentiful, the only redeeming grace of both stays--we went to the room for the first time and once again discovered that this one wasn't all that clean either.  Bathroom was ok, but the whole room just had the appearance of being skimmed over during the cleaning process.  Next morning, management did comp the room, for which both stays I had paid with IHG rewards points, but nothing was ever done about the first visit.Again, I have seen the other reviews of the hotel and are overwhelmingly positive.  Both of our stays were not unfortunately, and if in the area again, I would have to pick somewhere else to stay based upon my experiences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r482223386-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>482223386</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Spend My Money Well</t>
+  </si>
+  <si>
+    <t>I just want to say this experience has-been great. I feel like I'm home with friends. The front desk staff is exceptional partially Megan. The management staff is out of this world....I've even had a chance to interact with maintenance who is great also. This hotel is hidden away but conveniently located to a major mall and the business hub. Priced reasonably and with a pool (which opens soon) and 2 outdoor grills it's like home. You won't find better customer service anywhere!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r465461670-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -382,6 +555,48 @@
 Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you...This was our second time at this property.  Here for business and it is proximate to the business site and has the best rating within the IHG group for the area.  Did a one bedroom suite on promo.The breakfast is avg for the hotel but above avg for most breakfast offerings.  Breakfast staff people are busy and attentive.  The laundry and gym are below avg for the Staybridge properties we have stayed at due to both size and cleanliness.  Need to monitor kids in all areas as they were frequently left unattended and disruptive and tough on the property.  Lots of staff working here but most don't want to attend to the property needs and like to be at the front desk.  Only once saw the shuttle go out to give guests service and there is a lot within the 3 mile area so I'm not sure if that is clearly an offering.  No regular cleaning service on the weekend and it shows . . . carpets are getting grungy in the common areas, garbage left out in the halls without attention, rear west side/stair access is smoky &amp; gross like cigars for days.  Our room was across from the cigar room and so the hall was consistently nasty and likely they didn't go outside although the weather was good.  Again, needs monitoring.Rooms are surprisingly quiet although loud in the halls and when big adults upstairs above you - go high for the quietest rooms.  We were in 205.  At reservation we asked for extra pillows and they were not in the bedroom.  Called for them and were told to seek extra blanket and pillows out of the closet as they didn't have housekeeping there.   Nothing special view to the south.  Kitchen tile area/sink needs some major cleaning and caulking.  Bathroom needs maintenance work - i.e. tub plug isn't working right, fan is required by law but it is blocked with a cover.  No in room safe which is essential to longer stay guests.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r426998253-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>426998253</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Reliable, clean, and staff is really friendly</t>
+  </si>
+  <si>
+    <t>Part of the IHG group.  This place is clean, rooms are spacious and nicely decorated.  Internet was easy to connect and ok speed.  Even have a direct connect option for internet which is good.  Breakfast was plenty with fruit, oatmeal, eggs and meat options.  Gym had basic machines for cardio and a universal gym.I would recommend this place for anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon A, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Part of the IHG group.  This place is clean, rooms are spacious and nicely decorated.  Internet was easy to connect and ok speed.  Even have a direct connect option for internet which is good.  Breakfast was plenty with fruit, oatmeal, eggs and meat options.  Gym had basic machines for cardio and a universal gym.I would recommend this place for anyone staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r426813273-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>426813273</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceeded our expectations! </t>
+  </si>
+  <si>
+    <t>We stayed for only a couple of day - with a toddler in the full throws of the terrible twos!  It was a very pleasant experience.  The front desk was very helpful and resourceful,  and the room was clean,  surprisingly large and a very reasonable rate with lots of parking and easy access to the interstate.  We will be staying here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for only a couple of day - with a toddler in the full throws of the terrible twos!  It was a very pleasant experience.  The front desk was very helpful and resourceful,  and the room was clean,  surprisingly large and a very reasonable rate with lots of parking and easy access to the interstate.  We will be staying here again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r425055651-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -454,6 +669,45 @@
     <t>Excellent location quite a few stores including Walmart and Sam's Club.  Our room was spacious and clean whatever we needed was there. The breakfast was wonderful not your typical continental . I appreciated the free laundry. I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r415160103-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>415160103</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Clean and Quiet hotel.</t>
+  </si>
+  <si>
+    <t>Very nice, spacious suite on the 4th floor. Clean and quiet with friendly staff. Close to great places to dine and a very nice shopping center only 5 or 10 minutes away.I had a great Chinese meal there. Not far from light rail to Denver which has lots of things to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Very nice, spacious suite on the 4th floor. Clean and quiet with friendly staff. Close to great places to dine and a very nice shopping center only 5 or 10 minutes away.I had a great Chinese meal there. Not far from light rail to Denver which has lots of things to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r411907744-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>411907744</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Clean, quiet, close to freeway</t>
+  </si>
+  <si>
+    <t>Clean, quiet, spacious room. Property looked pretty new. Service was good, hot breakfast (which I did not try), business center for printing boarding passes, etc. Gy, too, I think, I also did not use. Good value.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r408415517-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -514,7 +768,43 @@
     <t>Recently spent two nights at this Staybridge Suites and had a great time without any issues.  Hotel is in great shape, breakfast was wonderful and "The Social" (Mon - Wed) was exactly what we needed: good free food and beer (Coors Light and Blue Moon), wine and other friendly travelers!  AJ, Laura and the rest of the staff went out of their way to make sure everything was great. Thanks guys!</t>
   </si>
   <si>
-    <t>August 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r400770594-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>400770594</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Compared to other extended stay facilities, I was pleased with this facility. It was clean, relatively no odors, the Monday-Wednesday social hours were nice. I didn't have an opportunity to use the laundry or fitness center, but the pool was nice. Convenient location. Walls were a little thin for my liking. Could hear my neighbors above and around me. Overall, satisfied with my stay. Good value. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Compared to other extended stay facilities, I was pleased with this facility. It was clean, relatively no odors, the Monday-Wednesday social hours were nice. I didn't have an opportunity to use the laundry or fitness center, but the pool was nice. Convenient location. Walls were a little thin for my liking. Could hear my neighbors above and around me. Overall, satisfied with my stay. Good value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r397439366-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>397439366</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Beautiful hotel in a good location. Very friendly staff, morning and evening. Free breakfast was good. Room was extremely comfortable and very large. Ok parking, we got there late so most spots were full, our fault.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r386685106-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -583,6 +873,57 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r377440184-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>377440184</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Wherever we go we look for Staybridge</t>
+  </si>
+  <si>
+    <t>I am a new IHG member so really don't have an opinion on that. But the hotel is excellent. Beds are great. Hotel was quite, and staff was seriously top notch! And, of course, the breakfast is consistently delicious. Eggs and Bacon, for us, but if you so choose they have waffles, muffins, yogurt, cereal, cooked oatmeal, and excellent coffee. Staybridge is definitely our go-to hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r368006248-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>368006248</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Lots of great things about hotel, but a few needed improvements also</t>
+  </si>
+  <si>
+    <t>I am a Spire Member with IHG, so we opted to stay here while in town visiting family. 
+This hotel has a lot of great qualities, which we really loved. Room was very clean, and clearly this location has updated its rooms with some nice amenities.  Décor, kitchen, living space and sleeping area was very nicely appointed.  We had an excellent night's sleep...bed was very comfortable.  
+We had our dog with us, so very much appreciated the ability to bring her (charge was $15 extra).  
+Front desk staff is very warm, welcoming and friendly and did an excellent job getting us settled and directed to our room. 
+Breakfast buffet is pretty extensive, and offers a nice variety (as a vegetarian, not a lot of choices if you do not consume dairy however).  They do also include "to go" bags if you are on your way out and do not have time to sit down...which I thought was really nice.
+The improvement...the fitness center!  I utilize fitness centers and gyms regularly while staying at hotels and this one lacks a lot.  Quality of equipment is poor.  Very cramped space and limited choices.  If you had more than 3 people in there, you would feel very crowded.  Disappointing for a Staybridge. It seems like it was an "add on" or "oversight", but would keep me from staying there again if longer than one evening.
+Overall, good stay, but fitness center made it...I am a Spire Member with IHG, so we opted to stay here while in town visiting family. This hotel has a lot of great qualities, which we really loved. Room was very clean, and clearly this location has updated its rooms with some nice amenities.  Décor, kitchen, living space and sleeping area was very nicely appointed.  We had an excellent night's sleep...bed was very comfortable.  We had our dog with us, so very much appreciated the ability to bring her (charge was $15 extra).  Front desk staff is very warm, welcoming and friendly and did an excellent job getting us settled and directed to our room. Breakfast buffet is pretty extensive, and offers a nice variety (as a vegetarian, not a lot of choices if you do not consume dairy however).  They do also include "to go" bags if you are on your way out and do not have time to sit down...which I thought was really nice.The improvement...the fitness center!  I utilize fitness centers and gyms regularly while staying at hotels and this one lacks a lot.  Quality of equipment is poor.  Very cramped space and limited choices.  If you had more than 3 people in there, you would feel very crowded.  Disappointing for a Staybridge. It seems like it was an "add on" or "oversight", but would keep me from staying there again if longer than one evening.Overall, good stay, but fitness center made it less appealing for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonja L, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>I am a Spire Member with IHG, so we opted to stay here while in town visiting family. 
+This hotel has a lot of great qualities, which we really loved. Room was very clean, and clearly this location has updated its rooms with some nice amenities.  Décor, kitchen, living space and sleeping area was very nicely appointed.  We had an excellent night's sleep...bed was very comfortable.  
+We had our dog with us, so very much appreciated the ability to bring her (charge was $15 extra).  
+Front desk staff is very warm, welcoming and friendly and did an excellent job getting us settled and directed to our room. 
+Breakfast buffet is pretty extensive, and offers a nice variety (as a vegetarian, not a lot of choices if you do not consume dairy however).  They do also include "to go" bags if you are on your way out and do not have time to sit down...which I thought was really nice.
+The improvement...the fitness center!  I utilize fitness centers and gyms regularly while staying at hotels and this one lacks a lot.  Quality of equipment is poor.  Very cramped space and limited choices.  If you had more than 3 people in there, you would feel very crowded.  Disappointing for a Staybridge. It seems like it was an "add on" or "oversight", but would keep me from staying there again if longer than one evening.
+Overall, good stay, but fitness center made it...I am a Spire Member with IHG, so we opted to stay here while in town visiting family. This hotel has a lot of great qualities, which we really loved. Room was very clean, and clearly this location has updated its rooms with some nice amenities.  Décor, kitchen, living space and sleeping area was very nicely appointed.  We had an excellent night's sleep...bed was very comfortable.  We had our dog with us, so very much appreciated the ability to bring her (charge was $15 extra).  Front desk staff is very warm, welcoming and friendly and did an excellent job getting us settled and directed to our room. Breakfast buffet is pretty extensive, and offers a nice variety (as a vegetarian, not a lot of choices if you do not consume dairy however).  They do also include "to go" bags if you are on your way out and do not have time to sit down...which I thought was really nice.The improvement...the fitness center!  I utilize fitness centers and gyms regularly while staying at hotels and this one lacks a lot.  Quality of equipment is poor.  Very cramped space and limited choices.  If you had more than 3 people in there, you would feel very crowded.  Disappointing for a Staybridge. It seems like it was an "add on" or "oversight", but would keep me from staying there again if longer than one evening.Overall, good stay, but fitness center made it less appealing for me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r365802216-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -655,6 +996,57 @@
     <t>The room wasn't cleaned very good. There was sticky stuff all over the floor in the kitchen area. The attention to detail was lacking. The breakfast buffet was good. There was a lot of wear and tear throughout the hotel. More than one would expect over 2 years.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r349556965-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>349556965</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Quiet on the weekends</t>
+  </si>
+  <si>
+    <t>This hotel was a great weekend pick, very quiet and not too busy. It also has a pretty good weekend rate. The hotel honored my status by upgrading me to a suite from a regular room. I was impressed with the suite, which had a pretty well-equipped kitchen area. The hotel also has a decent DVD collection if you get bored. The continental breakfast was good and had some different options than I am used to getting, including breakfast pizza. There also looks to be a nice outdoor patio area, but when we were there in January, it was snow-covered.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was a great weekend pick, very quiet and not too busy. It also has a pretty good weekend rate. The hotel honored my status by upgrading me to a suite from a regular room. I was impressed with the suite, which had a pretty well-equipped kitchen area. The hotel also has a decent DVD collection if you get bored. The continental breakfast was good and had some different options than I am used to getting, including breakfast pizza. There also looks to be a nice outdoor patio area, but when we were there in January, it was snow-covered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r345418374-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>345418374</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Staybridge is my new favorite</t>
+  </si>
+  <si>
+    <t>This was a stopover on a cross country drive from Illinois to California.  I love Staybridge for the comfort of their suites, the great breakfast, and the free laundry.  Gave us a chance to wash some clothes so we didn't have to pack so much luggage.  This particular hotel backed onto a little strip mall with an Indian grocery store.  We had fun shopping for Indian convenience food, which we prepared in our kitchenette in the suite!  Very relaxing after a long day of driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thankskathy, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>This was a stopover on a cross country drive from Illinois to California.  I love Staybridge for the comfort of their suites, the great breakfast, and the free laundry.  Gave us a chance to wash some clothes so we didn't have to pack so much luggage.  This particular hotel backed onto a little strip mall with an Indian grocery store.  We had fun shopping for Indian convenience food, which we prepared in our kitchenette in the suite!  Very relaxing after a long day of driving.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r332316746-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -733,6 +1125,54 @@
     <t>Stayed for about three weeks, partial business/pleasure trip.  Hotel is clean, breakfast is excellent and three nights a week they offer free food with beer and wine, sort of a happy hour, get to know people.  Enjoyed the stay, close to shopping and restaurants. Would recommendMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r317747879-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>317747879</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>This is our second time staying here.  As a Pearl Elite level member, I stay in a lot oh IHG properties so I feel that I have a large database of experiences to compare to.  This property is tired and has been WELL used and is in serious need of updating and heavy maintenance.  The staff is always super and are a pleasure to deal with.  Great location too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>This is our second time staying here.  As a Pearl Elite level member, I stay in a lot oh IHG properties so I feel that I have a large database of experiences to compare to.  This property is tired and has been WELL used and is in serious need of updating and heavy maintenance.  The staff is always super and are a pleasure to deal with.  Great location too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r309131002-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>309131002</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Almost perfect</t>
+  </si>
+  <si>
+    <t>Thanks to the front desk clerk Mike, I was welcomed with first rate customer service that set the bar high for the remainder of my 4 day stay. Hotel was clean but some very obvious cosmetic fixer-uppers like floor molding in hallway hanging off, chipped and scraped doors, doorways, very used and dinged un-matched furniture in rooms stuck out like mismatched puzzle pieces. The correct pieces that did fit however worked well with wonderful amenities such as outdoor seating areas, barbecue pits, pool, indoor business center, DVD selection, workout area and lobby. Biggest problem the whole weekend was hotel's lack of acknowledgement of Labor Day as a holiday forcing breakfast to be on weekday hours ending at 9:30 am. When asked, the dining staff's attitude was, "It's not a holiday for us" so all the guests had to suffer. This lack of consideration for guests' holiday was in direct contrast to the high quality of customer service and accommodation given by the entire staff on all shifts especially Kathy, Andrew, Mike and Tash. One of the breakfast girls however was very loud, annoying and very unperceptive of guests' needs as she was always in the way, focused more on getting out on time than the comfort and needs of her guests. With the exception of this very obnoxious breakfast girl who closed breakfast early on a holiday, the stay was almost perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Thanks to the front desk clerk Mike, I was welcomed with first rate customer service that set the bar high for the remainder of my 4 day stay. Hotel was clean but some very obvious cosmetic fixer-uppers like floor molding in hallway hanging off, chipped and scraped doors, doorways, very used and dinged un-matched furniture in rooms stuck out like mismatched puzzle pieces. The correct pieces that did fit however worked well with wonderful amenities such as outdoor seating areas, barbecue pits, pool, indoor business center, DVD selection, workout area and lobby. Biggest problem the whole weekend was hotel's lack of acknowledgement of Labor Day as a holiday forcing breakfast to be on weekday hours ending at 9:30 am. When asked, the dining staff's attitude was, "It's not a holiday for us" so all the guests had to suffer. This lack of consideration for guests' holiday was in direct contrast to the high quality of customer service and accommodation given by the entire staff on all shifts especially Kathy, Andrew, Mike and Tash. One of the breakfast girls however was very loud, annoying and very unperceptive of guests' needs as she was always in the way, focused more on getting out on time than the comfort and needs of her guests. With the exception of this very obnoxious breakfast girl who closed breakfast early on a holiday, the stay was almost perfect.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r301643366-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -808,6 +1248,51 @@
     <t>I stayed with my dad and Mike, Amanda, Christine, and Winnie were all very accommodating throughout my stay. The comp wine and food were excellent. Mike always called me by my first name and with a smile. Amanda gave me a really awesome rateChristine and Winnie brought smiles to my morning And eveningThank you allMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r298283646-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>298283646</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Booked non smoking, got smoking</t>
+  </si>
+  <si>
+    <t>I booked a room at the Staybridge Suites on line for a non smoking suite.  Upon checking, I received my key card and relaxed at the free happy hour which included dinner, wine and beer.  Nice treat.  Once I checked into the room, a wave of smoke hit me and the room even had a portable air clearer running in the room.  I called down to the front desk and mentioned that I booked a non smoking room.  They informed to tell me that my was indeed non smoking.  I noticed that all of the other rooms had the non smoking symbol on the door, but ours didn't.  Dissatisfied, I asked for another room; however, they were sold out and could not accommodate the request.  They cancelled my reservation, but with that said, they should of not accepted my reservation if they could not grant the reservation request.  The Tech Center is always really booked and it was difficult finding another room.  Furthermore, don't try to cover your mistake by saying the room was non smoking.  Won't go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room at the Staybridge Suites on line for a non smoking suite.  Upon checking, I received my key card and relaxed at the free happy hour which included dinner, wine and beer.  Nice treat.  Once I checked into the room, a wave of smoke hit me and the room even had a portable air clearer running in the room.  I called down to the front desk and mentioned that I booked a non smoking room.  They informed to tell me that my was indeed non smoking.  I noticed that all of the other rooms had the non smoking symbol on the door, but ours didn't.  Dissatisfied, I asked for another room; however, they were sold out and could not accommodate the request.  They cancelled my reservation, but with that said, they should of not accepted my reservation if they could not grant the reservation request.  The Tech Center is always really booked and it was difficult finding another room.  Furthermore, don't try to cover your mistake by saying the room was non smoking.  Won't go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r287970910-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>287970910</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>We were so excited to have a girls day out! We selected this property because of the suites and the outdoor pool! Well....the room we reserved was not available due to someone extending their stay. They still took awesome care of us....offering and extra room if needed. When we arrived...the pool was closed! Huge bummer! But they offered us rec center passes or we could use the pool at a different property. Not really our plan to drive around Denver. So....they got the pool chairs out for us...offered us the hose to cool down. Worked just fine. They also gave us some extras to make up for our unfortunate room and pool situation. Super customer service! Also the rooms were clean, the staff friendly and breakfast was tasty! Great location too! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>We were so excited to have a girls day out! We selected this property because of the suites and the outdoor pool! Well....the room we reserved was not available due to someone extending their stay. They still took awesome care of us....offering and extra room if needed. When we arrived...the pool was closed! Huge bummer! But they offered us rec center passes or we could use the pool at a different property. Not really our plan to drive around Denver. So....they got the pool chairs out for us...offered us the hose to cool down. Worked just fine. They also gave us some extras to make up for our unfortunate room and pool situation. Super customer service! Also the rooms were clean, the staff friendly and breakfast was tasty! Great location too! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r285546353-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -889,6 +1374,51 @@
     <t>Room and bedding accommodations were fine.I would recommend staying on the top floor so to avoid the noise from above as the soundproofing between floors is thin. Never heard anything in the rooms next to us but the noise of people walking in the halls or in the room above was aggravating.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r279355939-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>279355939</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Great for a work trip</t>
+  </si>
+  <si>
+    <t>I only stayed a couple of nights, but the parking was convenient on the side of the building directly near the elevator. And their nights with the light meal provided was very good! The room was spacious, and I really loved having the fridge with a working ice machine. The room was clean and well stocked with all necessities. The staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only stayed a couple of nights, but the parking was convenient on the side of the building directly near the elevator. And their nights with the light meal provided was very good! The room was spacious, and I really loved having the fridge with a working ice machine. The room was clean and well stocked with all necessities. The staff was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r277631102-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>277631102</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Under Construction, But Friendly Staff and Nice Activities</t>
+  </si>
+  <si>
+    <t>While the hotel was under some construction and the elevators were down, the staff were great and the nightly social hours with food and alcoholic beverages was a welcome treat after coming in from a long day at work.  I would stay at one of these again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>While the hotel was under some construction and the elevators were down, the staff were great and the nightly social hours with food and alcoholic beverages was a welcome treat after coming in from a long day at work.  I would stay at one of these again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r273743842-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -964,6 +1494,60 @@
     <t>Many hotels can provide excellent experiences for their guests, but how many can do it during challenging circumstances?  This one did.  Due to earlier hail storm damage, the roof on this hotel had to be replaced during our recent stay.  Tawnya and her amazing staff handled it all so well.  Work crews taped off specific parking areas for the section they were doing that day, and it all worked well.  Our room was spacious and clean.  We really appreciated the convenient location of this hotel.  We landed our airplane at the nearby Centennial Airport, KAPA, and enjoyed exploring the area with our rental car.  This was a great location for us to drive to everything we wanted to see:  Leadville, Buena Vista, Fairplay, downtown Denver, Pike's Peak, etc. Excellent shopping and dining close by.  Great quality breakfast included each day.  Thanks Tawnya to you and your fun staff members.  You truly give your guests the home away from home experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r245005093-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>245005093</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>My home in colorado</t>
+  </si>
+  <si>
+    <t>My family has stayed at this location several times.  The location is great.  Plenty of shopping and restaurants  nearby.   The suites are spacious and well maintained.  The daily breakfasts and mid week evening meal are  a nice addition. The staff could not be better.  Any need was promptly addressed.  During my last stay a routine plumbing issue arose in the unit a few days into the stay.  The staff responded quickly, and when the issue could not be readily resolved, we we moved to an upgraded unit for the remainder of the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>My family has stayed at this location several times.  The location is great.  Plenty of shopping and restaurants  nearby.   The suites are spacious and well maintained.  The daily breakfasts and mid week evening meal are  a nice addition. The staff could not be better.  Any need was promptly addressed.  During my last stay a routine plumbing issue arose in the unit a few days into the stay.  The staff responded quickly, and when the issue could not be readily resolved, we we moved to an upgraded unit for the remainder of the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r241886749-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>241886749</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This is more like what I have become accustomed to at Staybridge Suites hotels. I have stayed in quite a few and most of the stays have been great. Unfortunately, when I arrived in town, I originally stayed at a different local Staybridge which was not a good experience. The rooms are good, but more importantly, the staff was very friendly and helpful. I would definitely return to this hotel and recommend it to others. The only only down-side is the hotel being in Colorado and not having the option of an indoor pool or hot tub, but other than that it was a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>This is more like what I have become accustomed to at Staybridge Suites hotels. I have stayed in quite a few and most of the stays have been great. Unfortunately, when I arrived in town, I originally stayed at a different local Staybridge which was not a good experience. The rooms are good, but more importantly, the staff was very friendly and helpful. I would definitely return to this hotel and recommend it to others. The only only down-side is the hotel being in Colorado and not having the option of an indoor pool or hot tub, but other than that it was a great stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r239962186-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -979,12 +1563,6 @@
     <t>The service alone made this a great stay. I don't think I've ever stayed at a friendlier place. We stayed in a two bedroom suite and it was clean and comfortable. Housekeeping even ran our dishwasher one day when we forgot to start it before leaving for the day. The daily breakfast had a nice selection, and the Tuesday through Thursday dinners were nice as well when we didn't feel like cooking in our room. The only unfortunate part (for my two year old) was that there wasn't a pool to swim in as it's an outdoor seasonal one. You get a lot for a great price. We have a few more extended trips to Denver coming up and this place will be on our list of possibilities.MoreShow less</t>
   </si>
   <si>
-    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded December 2, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 2, 2014</t>
-  </si>
-  <si>
     <t>The service alone made this a great stay. I don't think I've ever stayed at a friendlier place. We stayed in a two bedroom suite and it was clean and comfortable. Housekeeping even ran our dishwasher one day when we forgot to start it before leaving for the day. The daily breakfast had a nice selection, and the Tuesday through Thursday dinners were nice as well when we didn't feel like cooking in our room. The only unfortunate part (for my two year old) was that there wasn't a pool to swim in as it's an outdoor seasonal one. You get a lot for a great price. We have a few more extended trips to Denver coming up and this place will be on our list of possibilities.More</t>
   </si>
   <si>
@@ -1006,9 +1584,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 17, 2014</t>
   </si>
   <si>
@@ -1042,6 +1617,48 @@
     <t>The room is very clean and all people are very kind and polite. Food and pantry were good. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r228019633-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>228019633</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent and understands hospitality!</t>
+  </si>
+  <si>
+    <t>After a terrible encounter at another hotel, Staybridge Suites Staff stepped up to the plate for me, made me feel welcome, and were just wonderful!  The grounds are beautiful and the rooms generous.  I would stay here again over more luxurious hotels just because everyone was so nice and everything about the stay was perfect!  This group TOTALLY understands the hospitality business!MoreShow less</t>
+  </si>
+  <si>
+    <t>After a terrible encounter at another hotel, Staybridge Suites Staff stepped up to the plate for me, made me feel welcome, and were just wonderful!  The grounds are beautiful and the rooms generous.  I would stay here again over more luxurious hotels just because everyone was so nice and everything about the stay was perfect!  This group TOTALLY understands the hospitality business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r226433829-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>226433829</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Very good experience</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Staybridge....and I was definitely impressed.  The room was nicely appointed and the kitchenette was very cute and functional.  I was disappointed in the size of the room though.  We stayed in room 301.  It is a studio suite, not a one bedroom suite with a separate living room (that's what I had understood it to be).  So, my bad for not verifying.  My husband likes to stay up a lot later than I do, so having the bedroom and living room all crammed together didn't work well for us.  And I would much rather have had a king size bed instead of the queen.  And the tv situation was a headache (just the way it was situated).  But the location is convenient.  And the hotel was very clean.  And they allow pets.  So, I would probably stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Staybridge....and I was definitely impressed.  The room was nicely appointed and the kitchenette was very cute and functional.  I was disappointed in the size of the room though.  We stayed in room 301.  It is a studio suite, not a one bedroom suite with a separate living room (that's what I had understood it to be).  So, my bad for not verifying.  My husband likes to stay up a lot later than I do, so having the bedroom and living room all crammed together didn't work well for us.  And I would much rather have had a king size bed instead of the queen.  And the tv situation was a headache (just the way it was situated).  But the location is convenient.  And the hotel was very clean.  And they allow pets.  So, I would probably stay again if in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r225292047-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1057,9 +1674,6 @@
     <t>This has to be the best hotel I have every visited. The rooms are clean and very large. The staff with very helpful and friendly. The free breakfast, wi fi, and business center is a complete plus. A must stay for families and business travelers. I could find no fault with this hotel...To the management, what ever you're doing please keep doing it...it worksMoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>This has to be the best hotel I have every visited. The rooms are clean and very large. The staff with very helpful and friendly. The free breakfast, wi fi, and business center is a complete plus. A must stay for families and business travelers. I could find no fault with this hotel...To the management, what ever you're doing please keep doing it...it worksMore</t>
   </si>
   <si>
@@ -1078,9 +1692,6 @@
     <t>This hotel is very clean and the service was excellent. We loved the pool and courtyard. The breakfast offered was the best we have had at a hotel that includes a complimentary breakfast.  The afternoon socials Tues -Thursday was yummy!  At this hotel, you are very close to many restaurants and the Park Meadows mall.  If you like handcrafted beer-venture over the Lone Tree Tasting room.  MoreShow less</t>
   </si>
   <si>
-    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded September 16, 2014</t>
-  </si>
-  <si>
     <t>This hotel is very clean and the service was excellent. We loved the pool and courtyard. The breakfast offered was the best we have had at a hotel that includes a complimentary breakfast.  The afternoon socials Tues -Thursday was yummy!  At this hotel, you are very close to many restaurants and the Park Meadows mall.  If you like handcrafted beer-venture over the Lone Tree Tasting room.  More</t>
   </si>
   <si>
@@ -1099,9 +1710,6 @@
     <t>I don't give 5 stars to hotels without fine restaurants, etc. - but this one's close.This was my first stay at a Staybridge hotel but won't be my last. The rooms are large, fully equipped and very-very well kept (micro, full size fridge/freezer, 2 flat screens, good-fast WiFi, etc.). Breakfast was well above average, evening snacks/beer/wine average (but I only tried it one evening).The staff was 5-star. Michael, AJ, and Tawnya went above and beyond the call of duty in every case, and did so with a smile and a genuine cheerful attitude. They more than anything sold me on this brand, and I will return.Dining - plenty of choices around, but I recommend the Silver Creek Diner in the adjacent parking lot. Great mom-pop place with simple wholesome homemade food. Great fish &amp; chips, good burgers, and great breakfast served all day.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 25, 2014</t>
   </si>
   <si>
@@ -1111,6 +1719,45 @@
     <t>I don't give 5 stars to hotels without fine restaurants, etc. - but this one's close.This was my first stay at a Staybridge hotel but won't be my last. The rooms are large, fully equipped and very-very well kept (micro, full size fridge/freezer, 2 flat screens, good-fast WiFi, etc.). Breakfast was well above average, evening snacks/beer/wine average (but I only tried it one evening).The staff was 5-star. Michael, AJ, and Tawnya went above and beyond the call of duty in every case, and did so with a smile and a genuine cheerful attitude. They more than anything sold me on this brand, and I will return.Dining - plenty of choices around, but I recommend the Silver Creek Diner in the adjacent parking lot. Great mom-pop place with simple wholesome homemade food. Great fish &amp; chips, good burgers, and great breakfast served all day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r213178788-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>213178788</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We stayed here with 3 of our kids for 4 nights in June.  Room was nice and big with a kitchen (always a plus with kids).  Updated modern decor was very nice.  Outside patio area was the best part.  Plenty of grass for the kids to run around in.  Although I had originally booked based on the fact that their website said they have a sport court (basketball/volleyball), this was not the case when we got there.  They turned the sport court into a fire pit area but the kids had a great time nonetheless, playing the bean bag toss game. We were able to use the grill and have drinks while the kids played in the pool.  No hot tub though.  They serve hot breakfast every day with scrambled eggs, sausage or ham, waffles, fruit, cottage cheese, cereal, etc which was pretty good.  The light meal that they serve Tues-Thurs is more of a meal.  When we were there they had hamburgers and hot dogs with a salad and pasta the next night with salad.  We will definitely stay here again as we also loved the Lone Tree area (Littleton is very close by but hotel address is really Lone Tree).  Plenty of shopping near by - Park Meadows mall is about 2 miles away - as well as grocery stores, Super Target and many restaurants.  The only negative that we had was that they do allow smoking in...We stayed here with 3 of our kids for 4 nights in June.  Room was nice and big with a kitchen (always a plus with kids).  Updated modern decor was very nice.  Outside patio area was the best part.  Plenty of grass for the kids to run around in.  Although I had originally booked based on the fact that their website said they have a sport court (basketball/volleyball), this was not the case when we got there.  They turned the sport court into a fire pit area but the kids had a great time nonetheless, playing the bean bag toss game. We were able to use the grill and have drinks while the kids played in the pool.  No hot tub though.  They serve hot breakfast every day with scrambled eggs, sausage or ham, waffles, fruit, cottage cheese, cereal, etc which was pretty good.  The light meal that they serve Tues-Thurs is more of a meal.  When we were there they had hamburgers and hot dogs with a salad and pasta the next night with salad.  We will definitely stay here again as we also loved the Lone Tree area (Littleton is very close by but hotel address is really Lone Tree).  Plenty of shopping near by - Park Meadows mall is about 2 miles away - as well as grocery stores, Super Target and many restaurants.  The only negative that we had was that they do allow smoking in some of the rooms and this includes pot smoking as the hallway reeked of it one afternoon.  So stay away from smoking rooms if you don't explaining "what that gross smell is.."MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed here with 3 of our kids for 4 nights in June.  Room was nice and big with a kitchen (always a plus with kids).  Updated modern decor was very nice.  Outside patio area was the best part.  Plenty of grass for the kids to run around in.  Although I had originally booked based on the fact that their website said they have a sport court (basketball/volleyball), this was not the case when we got there.  They turned the sport court into a fire pit area but the kids had a great time nonetheless, playing the bean bag toss game. We were able to use the grill and have drinks while the kids played in the pool.  No hot tub though.  They serve hot breakfast every day with scrambled eggs, sausage or ham, waffles, fruit, cottage cheese, cereal, etc which was pretty good.  The light meal that they serve Tues-Thurs is more of a meal.  When we were there they had hamburgers and hot dogs with a salad and pasta the next night with salad.  We will definitely stay here again as we also loved the Lone Tree area (Littleton is very close by but hotel address is really Lone Tree).  Plenty of shopping near by - Park Meadows mall is about 2 miles away - as well as grocery stores, Super Target and many restaurants.  The only negative that we had was that they do allow smoking in...We stayed here with 3 of our kids for 4 nights in June.  Room was nice and big with a kitchen (always a plus with kids).  Updated modern decor was very nice.  Outside patio area was the best part.  Plenty of grass for the kids to run around in.  Although I had originally booked based on the fact that their website said they have a sport court (basketball/volleyball), this was not the case when we got there.  They turned the sport court into a fire pit area but the kids had a great time nonetheless, playing the bean bag toss game. We were able to use the grill and have drinks while the kids played in the pool.  No hot tub though.  They serve hot breakfast every day with scrambled eggs, sausage or ham, waffles, fruit, cottage cheese, cereal, etc which was pretty good.  The light meal that they serve Tues-Thurs is more of a meal.  When we were there they had hamburgers and hot dogs with a salad and pasta the next night with salad.  We will definitely stay here again as we also loved the Lone Tree area (Littleton is very close by but hotel address is really Lone Tree).  Plenty of shopping near by - Park Meadows mall is about 2 miles away - as well as grocery stores, Super Target and many restaurants.  The only negative that we had was that they do allow smoking in some of the rooms and this includes pot smoking as the hallway reeked of it one afternoon.  So stay away from smoking rooms if you don't explaining "what that gross smell is.."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r212771710-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>212771710</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Good Stay at the Staybridge</t>
+  </si>
+  <si>
+    <t>Stayed at this property (listed here as Littleton, Colorado but really Lone Tree, CO) for three nights on business in June 2014. Room was a 1 bedroom suite with small sitting area with a TV, and work desk.  Although I did not use it, the kitchen included full size fridge and cooking areas so if you are staying for an extended time or just like do your own cooking it would seem to fit the bill.Pros: Room was pleasant with good bedding, towels, efficient air-conditioning, two TVs, and separate sitting/bedroom.  Front desk people were extremely friendly.  Breakfast area was nice/food selection just fine, and the staff there was pleasant and worked very hard in refilling items and cleaning.  Tuesday, Wednesday, and I believe Thursday evenings includes a happy hour type environment with complimentary beer &amp; wine, with some sort of appetizer.  They have a ‘business area’ where they have computers set up to print directions and airline boarding passes. Although many now stream their content they also had a number of movies available to watch on your in-room DVD player.Property also has an outdoor pool and small workout area.Hotel is close to plenty of stores and restaurants without being directly on the highway. Speaking of highway, hotel is a straight shot (about 30 minutes or less) on the 470 toll-way to the Denver airport.Cons:  Nothing that is worth noting.Overall would stay at this location againMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this property (listed here as Littleton, Colorado but really Lone Tree, CO) for three nights on business in June 2014. Room was a 1 bedroom suite with small sitting area with a TV, and work desk.  Although I did not use it, the kitchen included full size fridge and cooking areas so if you are staying for an extended time or just like do your own cooking it would seem to fit the bill.Pros: Room was pleasant with good bedding, towels, efficient air-conditioning, two TVs, and separate sitting/bedroom.  Front desk people were extremely friendly.  Breakfast area was nice/food selection just fine, and the staff there was pleasant and worked very hard in refilling items and cleaning.  Tuesday, Wednesday, and I believe Thursday evenings includes a happy hour type environment with complimentary beer &amp; wine, with some sort of appetizer.  They have a ‘business area’ where they have computers set up to print directions and airline boarding passes. Although many now stream their content they also had a number of movies available to watch on your in-room DVD player.Property also has an outdoor pool and small workout area.Hotel is close to plenty of stores and restaurants without being directly on the highway. Speaking of highway, hotel is a straight shot (about 30 minutes or less) on the 470 toll-way to the Denver airport.Cons:  Nothing that is worth noting.Overall would stay at this location againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r210280690-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1126,9 +1773,6 @@
     <t>My wife and I were in Denver for a work / pleasure stay. We chose the staybridge suites to stay because of the kitchen and separate living area.  the room was updated and quiet. the kitchen had a full refrigerator and a 2 burner stove. Pots, pans, utensils and plates were provided by the hotel. We have no complaints whatsoever about this hotel. The staff are extremely pleasant and cheery. The hotel provides a full breakfast of eggs, waffles, oatmeal, meats, fruit and cereal. I am a vegetarian and the breakfast staff gladly offered me eggs with no meat in them as an alternative to what they were serving. Three nights a week they provide a light dinner from neighboring restaurants which include beer and wine.  This is a huge bonus for us as it saved us lots of money to have breakfast and dinner provided by the hotel. In addition the facilities on site include washers and dryers, work out room, pool, and a grill area. Everything was in working order and very clean.  There are tons of restaurants and shopping within an easy drive from the hotel and the interstate system is a block away. It is an excellent location to see Denver and the mountains.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 25, 2014</t>
   </si>
   <si>
@@ -1186,6 +1830,60 @@
     <t>I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that...I do commend the staff here as management has let this place fall to pieces. Our first room was emanating strange noises and smells. We asked for another room and the night staff was very accommodating and we settled into an acceptable 2br suite.The suite and surrounds were very quite and beds were fine. The rooms and place in general is a little tired and damage furniture and walls are the norm. While catching up on my work one evening I was present in the business centre and I could not believe the constant stream of people who came to the front desk with major issues with their rooms, flooding from the bathroom, no heat, tv not working, no dishes utensils in the kitchenette... quite shocking as the paying guests are/were expecting a fully functioning room upon check-in. The night staff acted on each issues and I do praise their actions to satisfy the customers, but I did wonder why is all this a problem especially at night. well the next day it became apparent the management is incompetent and actual overheard day staff having a laugh about malfunctions in the hotels rooms. The inconsistency and general lack of pride of work by management is the problem here and I for one was stunned that they simply did not care. My guess is that with one foot out the door it is hard to care and I would recommend that anyone think twice about this place as there are plenty of alternatives in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r188921890-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>188921890</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, Convenient Stay</t>
+  </si>
+  <si>
+    <t>Very conveniently located near Park Meadows for shopping and restaurants. Swift access to freeways. Quiet and restful environment with subdued road-noise. Nice 1 bedroom suite layout with plenty of room. Clean, comfortable bed. Compact yet modern kitchen with a full-size refrigerator. Breakfast and happy hour food satisfactory. Recommendation: at least one tall kitchen sized trash can. A handful of thimble-sized bins don't support living/cooking in the units. Tiny fitness facility is being enlarged but reciprocal agreement with the state-of-the-art TruFit Gym up the street meant many terrific work-outs in a fantastic and nearly empty facility. Accommodating staff - late last day check-out was greatly appreciated. Many thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, General Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Very conveniently located near Park Meadows for shopping and restaurants. Swift access to freeways. Quiet and restful environment with subdued road-noise. Nice 1 bedroom suite layout with plenty of room. Clean, comfortable bed. Compact yet modern kitchen with a full-size refrigerator. Breakfast and happy hour food satisfactory. Recommendation: at least one tall kitchen sized trash can. A handful of thimble-sized bins don't support living/cooking in the units. Tiny fitness facility is being enlarged but reciprocal agreement with the state-of-the-art TruFit Gym up the street meant many terrific work-outs in a fantastic and nearly empty facility. Accommodating staff - late last day check-out was greatly appreciated. Many thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r182819870-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>182819870</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>"Friendly staff and comfortably pleasant rooms"</t>
+  </si>
+  <si>
+    <t>Upon check in Darya was very accommodating. I've stayed here in the past so I knew that some rooms were in 'noisier' locations than others. I requested a third floor room on a quiet hallway...it was perfect! The staff go out of their way to make you feel welcome! The complementary hot breakfast is nice too!  The shuttle drivers were also very friendly. There are a handful of restaurants within walking distance. There is a Starbucks about a mile away..a nice stroll there and back.  A great extended stay hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Upon check in Darya was very accommodating. I've stayed here in the past so I knew that some rooms were in 'noisier' locations than others. I requested a third floor room on a quiet hallway...it was perfect! The staff go out of their way to make you feel welcome! The complementary hot breakfast is nice too!  The shuttle drivers were also very friendly. There are a handful of restaurants within walking distance. There is a Starbucks about a mile away..a nice stroll there and back.  A great extended stay hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r178380632-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1261,6 +1959,45 @@
     <t>We were in middle of packing the house to relocate overseas and needed somewhere for a few days.   I hunted around, looking for an apartment hotel or suites hotel near Highlands Ranch, Colorado.     On hotwire I got this excellent rate in my local area of Lone Tree and it turned out to be the Staybridge Suites in Denver South - ParK Meadows.What a little treasure this place is.   Very friendly service.  Not the most modern but well maintained and the staff are all excellent.  Tue-Thu the hotel puts on simple meals and beer and wine.    Great easy food and a chance to meet other travellers.  Saves heating something up or dragging your tired butt out for dinner every night.Cable, wifi included,  pool and sports court.   Also the breakfast was at least on par with most of chain hotel breakfast offerings.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r170072298-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>170072298</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Nice kitchen, sofa sleeper is uncomfortable</t>
+  </si>
+  <si>
+    <t>This hotel has great amenities such as a kitchen. The kitchen area has some basic utensils, a full refriidgerator, a dishwasher, etc. We were only there for three days but it was nice to have. They offer complementary breakfast, which has a nice selection. The only downfall are the hours: 6:30-9:30am weekdays and 7:30-10:30am weekends. Our plane left early Sunday morning so we missed breakfast. However, they do offer "to-go" bags so we took some food the day before and put it in our fridge. They also offer free dinner on some weeknights. The "pull out" couch was uncomfortable (you can feel the bar) and its more comfortable to sleep on the couch in the regular couch position. The air conditioner was also right by the couch so it was difficult to please all parties in the room. The bed was fine and the bathroom was standard.  Overall, it's a decent hotel and we'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has great amenities such as a kitchen. The kitchen area has some basic utensils, a full refriidgerator, a dishwasher, etc. We were only there for three days but it was nice to have. They offer complementary breakfast, which has a nice selection. The only downfall are the hours: 6:30-9:30am weekdays and 7:30-10:30am weekends. Our plane left early Sunday morning so we missed breakfast. However, they do offer "to-go" bags so we took some food the day before and put it in our fridge. They also offer free dinner on some weeknights. The "pull out" couch was uncomfortable (you can feel the bar) and its more comfortable to sleep on the couch in the regular couch position. The air conditioner was also right by the couch so it was difficult to please all parties in the room. The bed was fine and the bathroom was standard.  Overall, it's a decent hotel and we'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r169990479-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>169990479</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>This is in a great location.  Close to I-25 and C470 and Park Meadows Mall (large and upscale).  A lot of eating places close by.  The hotel was well kept and every staff person I came in contact with was friendly and helpful.  Away from traffic, nice amenities, clean, area shuttle provided.  Breakfast (hot and cold) and Tues-Thurs manager's evening special.  Would definitely stay here again and highly recommend it.  Complimentary washer/dryer service, pool, grills, activity courts and full business center.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is in a great location.  Close to I-25 and C470 and Park Meadows Mall (large and upscale).  A lot of eating places close by.  The hotel was well kept and every staff person I came in contact with was friendly and helpful.  Away from traffic, nice amenities, clean, area shuttle provided.  Breakfast (hot and cold) and Tues-Thurs manager's evening special.  Would definitely stay here again and highly recommend it.  Complimentary washer/dryer service, pool, grills, activity courts and full business center.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r164856355-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1334,6 +2071,51 @@
   </si>
   <si>
     <t>I've stayed here quite a bit over the years and have never been disappointed. The staff is great, all areas of the hotel are immaculate, and with the recent renovations it only got better! I recommend this place to anyone staying in the area, especially for an extended stay. With the Social reception in Tues, Wed, and Thurs and breakfast everyday, it doesn't get any better. ENJOY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r157137907-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>157137907</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Flawless</t>
+  </si>
+  <si>
+    <t>This is the first time I thought I didn't pay enough for a hotel. The rooms seem to be absolutely brand new, extremely large and fully appointed with a kitchen to boot. Immaculate, spotless and modern. Checkin was super fast. I was in and out in a flash so I didn't get to check out the complimentary breakfast. If you're on the south side of the Denver metro area, Staybridge Suites is worth checking out.  They're a bit hard to find. The sign is small and not too obvious by the road, especially if you're arriving at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>This is the first time I thought I didn't pay enough for a hotel. The rooms seem to be absolutely brand new, extremely large and fully appointed with a kitchen to boot. Immaculate, spotless and modern. Checkin was super fast. I was in and out in a flash so I didn't get to check out the complimentary breakfast. If you're on the south side of the Denver metro area, Staybridge Suites is worth checking out.  They're a bit hard to find. The sign is small and not too obvious by the road, especially if you're arriving at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r154988885-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>154988885</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff and comfortable accommodations</t>
+  </si>
+  <si>
+    <t>Wife and I have stayed here before and were pleased to find it as good a choice as we remembered it to be. The staff were friendly and helpful at the front desk, dining room and room service. The breakfast and evening meals (Tues-Thurs) had enough variety for a stay of several days. The basketball court was well-maintained, and the business center had everything I needed. There was a variety of DVD movies at no additional cost, and the small food mart had enough choices for snacking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wife and I have stayed here before and were pleased to find it as good a choice as we remembered it to be. The staff were friendly and helpful at the front desk, dining room and room service. The breakfast and evening meals (Tues-Thurs) had enough variety for a stay of several days. The basketball court was well-maintained, and the business center had everything I needed. There was a variety of DVD movies at no additional cost, and the small food mart had enough choices for snacking.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r152917258-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -1360,12 +2142,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded April 17, 2013</t>
-  </si>
-  <si>
-    <t>Responded April 17, 2013</t>
-  </si>
-  <si>
     <t>I LIVED at this hotel for FIVE MONTHS straight from early November 2011 until April 2012. The staff is beyond amazing - I have never experienced such attentiveness and GENUINELY pleasant service, down to having AJ check in on my cats during an extended Christmas trip home.
 I had an issue with the internet connectivity, and Drew (Manager) looked into my situation personally and worked diligently with the outsourced IT services company to correct my connectivity situation.
 The housekeeping staff is thorough, provide great service and took great care of my room while I was living there.
@@ -1393,12 +2169,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>Tawnya P, Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded July 17, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 17, 2015</t>
-  </si>
-  <si>
     <t>Have not stayed here in a couple of years.  The hotel looks great after the recent update but it does not look complete in some areas.  Paint overspray on tile in bathroom. Thermostat was not working thank goodness we figured out that the unit would work without it.  When I contacted the front desk they seemed pretty uninterested in resolving the problem.  The refrigerator makes terrible noise all night and none of the appliances had been replaced.  Looks far better than it did but just not complete in my opinion.More</t>
   </si>
   <si>
@@ -1433,6 +2203,76 @@
 Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide...My wife and I have literally spent well over a month of time in this hotel in 2012, spread over five separate trips (three of those with our three-year-old daughter), and I can honestly say that all of our needs were met on each of those occasions. The staff at the Staybridge is above all its leading asset, as everyone from the desk staff, to breakfast attendants, to housekeeping, are incredibly friendly and willing to help with any concerns. The front desk is especially flexible when it comes to changing travel plans: more than once, we had to cut several days off of our reservation due to unforeseen circumstances, and these modifications were accommodated cheerfully and without penalty--even though our notice was given only a couple of days before the updated checkout date. When it comes to food, breakfast is always a well-prepared, comprehensive spread, including a hot station with some variation on eggs/bacon/sausage/ham, a make-your-own waffle station, bagels/muffins/toast/coffee cake, cold cereal, fruit, yogurt, and a selection of juices and milk. Breakfast hours extend to a reasonable 9:30 on weekdays, and 10:30 on weekends. Take-out bags are also provided in case you want to grab a couple of items for later in the day. Tuesday through Thursday nights, a buffet-style dinner is provided from one of several local restaurants, along with free beer and wine. We've found these meals to be hit or miss in quality, but they still provide a reasonable fallback option from eating out during the entire stay.Rooms were always adequate, but the hotel has just completed down-to-the-plaster renovations in every room with significant updates to somewhat dated decor, completely new furniture (including beds), and HD TVs. This being an all-suite property, each room has at the minimum a full-size refrigerator, two-burner stovetop, cookware, dishes, and dishwasher. Free WiFi is included with the room, and usually works without a hitch--although in one of the rooms we stayed signal was rather weak. Ethernet jacks are also provided, but I've never seen any networking cables in the rooms (don't know if the front desk has any).Recreation amenities include the courtyard with swimming pool, basketball/volleyball court, and picnic tables with nearby propane grills for guest use; and when the weather is not nice enough to play outside, a selection of several dozen DVDs for free guest checkout at the front desk. Also, if you have young children, there is a nice neighborhood playground about a three-block walk to the south.Bottom line: this Staybridge has consistently provided a good place to stay with top-notch service and great breakfast for an excellent value. With the recent renovations and updates, it is even better. Based on their track-record with our family, we wouldn't stay anywhere else in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r140699232-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>140699232</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Good staff, but construction work and some other issues were too much</t>
+  </si>
+  <si>
+    <t>The hotel location is great, close to main roads, train station into Denver downtown (Lincoln), restaurants and shopping centers. Also the hotel staff is friendly.
+We stayed for 2 weeks. During this time, the hotel lobby area went through renovations which made the lobby almost unusable and impacted breakfast and dinner services and parking. I think the hotel tried to do the best they could to minimize impact on guests but I think the impact was still too much. Here are my issues with the renovation (and other):
+* we were not told that there is a renovation going on when we made the reservation
+* the entire North parking area is closed. Is this really necessary?
+* you keep running into construction workers whenever you go at ANY time of day
+* breakfast is very minimal. 
+* dinner is limited and for some reason it is not kept warm
+* on Labor day, Breakfast ended at 9:30 as if it was a working day (even though maintenance services were on "holiday mode")
+*  we were informed that we need to change room due to some other work - with almost no notice on a Sunday!
+* Room condition: the first room we got was great. The 2nd room had almost no wifi reception, the door needed maintenance, a phone was missing
+* the recognition as a Platinum member is ridiculous. Basically you get a bottle of water... 
+I stayed...The hotel location is great, close to main roads, train station into Denver downtown (Lincoln), restaurants and shopping centers. Also the hotel staff is friendly.We stayed for 2 weeks. During this time, the hotel lobby area went through renovations which made the lobby almost unusable and impacted breakfast and dinner services and parking. I think the hotel tried to do the best they could to minimize impact on guests but I think the impact was still too much. Here are my issues with the renovation (and other):* we were not told that there is a renovation going on when we made the reservation* the entire North parking area is closed. Is this really necessary?* you keep running into construction workers whenever you go at ANY time of day* breakfast is very minimal. * dinner is limited and for some reason it is not kept warm* on Labor day, Breakfast ended at 9:30 as if it was a working day (even though maintenance services were on "holiday mode")*  we were informed that we need to change room due to some other work - with almost no notice on a Sunday!* Room condition: the first room we got was great. The 2nd room had almost no wifi reception, the door needed maintenance, a phone was missing* the recognition as a Platinum member is ridiculous. Basically you get a bottle of water... I stayed at other Staybridge hotels many times before.and they were always great. I'm sure that once renovation is over, this one will be good too. I would stay away from it right now...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Denver South-Park Meadows, responded to this reviewResponded October 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2012</t>
+  </si>
+  <si>
+    <t>The hotel location is great, close to main roads, train station into Denver downtown (Lincoln), restaurants and shopping centers. Also the hotel staff is friendly.
+We stayed for 2 weeks. During this time, the hotel lobby area went through renovations which made the lobby almost unusable and impacted breakfast and dinner services and parking. I think the hotel tried to do the best they could to minimize impact on guests but I think the impact was still too much. Here are my issues with the renovation (and other):
+* we were not told that there is a renovation going on when we made the reservation
+* the entire North parking area is closed. Is this really necessary?
+* you keep running into construction workers whenever you go at ANY time of day
+* breakfast is very minimal. 
+* dinner is limited and for some reason it is not kept warm
+* on Labor day, Breakfast ended at 9:30 as if it was a working day (even though maintenance services were on "holiday mode")
+*  we were informed that we need to change room due to some other work - with almost no notice on a Sunday!
+* Room condition: the first room we got was great. The 2nd room had almost no wifi reception, the door needed maintenance, a phone was missing
+* the recognition as a Platinum member is ridiculous. Basically you get a bottle of water... 
+I stayed...The hotel location is great, close to main roads, train station into Denver downtown (Lincoln), restaurants and shopping centers. Also the hotel staff is friendly.We stayed for 2 weeks. During this time, the hotel lobby area went through renovations which made the lobby almost unusable and impacted breakfast and dinner services and parking. I think the hotel tried to do the best they could to minimize impact on guests but I think the impact was still too much. Here are my issues with the renovation (and other):* we were not told that there is a renovation going on when we made the reservation* the entire North parking area is closed. Is this really necessary?* you keep running into construction workers whenever you go at ANY time of day* breakfast is very minimal. * dinner is limited and for some reason it is not kept warm* on Labor day, Breakfast ended at 9:30 as if it was a working day (even though maintenance services were on "holiday mode")*  we were informed that we need to change room due to some other work - with almost no notice on a Sunday!* Room condition: the first room we got was great. The 2nd room had almost no wifi reception, the door needed maintenance, a phone was missing* the recognition as a Platinum member is ridiculous. Basically you get a bottle of water... I stayed at other Staybridge hotels many times before.and they were always great. I'm sure that once renovation is over, this one will be good too. I would stay away from it right now...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r137404143-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>137404143</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Wouldn't stay anywhere else!</t>
+  </si>
+  <si>
+    <t>My family and I spent the enitre Christmas season with them. We checked in mid-August 2011 and checked out March 2012. My Dad was having some health problems and Drew, LaShonda, Michelle could not have been a more accomadating staff. We got a fantastic staff, they extened or stay with our needs and the entire staff as a whole was wonderful. They are one of a handful of hotels in the are that take dogs, they offer a courtyard with pool (seasonal), sportcourt, shuttle, dinner Tues-Thurs., breakfast 7 days a week and most importantly for a family of 7- FREE LAUNDRY! They were most certainly a home-away-from-home. AJ was an absolute delight, Jenna was knowledgable and friendly, Mike was accomadating and courteous and Brandina was an absolute delight. I am a frequent visitor to the colorado area and I will plan my trip around the vacancies of this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>My family and I spent the enitre Christmas season with them. We checked in mid-August 2011 and checked out March 2012. My Dad was having some health problems and Drew, LaShonda, Michelle could not have been a more accomadating staff. We got a fantastic staff, they extened or stay with our needs and the entire staff as a whole was wonderful. They are one of a handful of hotels in the are that take dogs, they offer a courtyard with pool (seasonal), sportcourt, shuttle, dinner Tues-Thurs., breakfast 7 days a week and most importantly for a family of 7- FREE LAUNDRY! They were most certainly a home-away-from-home. AJ was an absolute delight, Jenna was knowledgable and friendly, Mike was accomadating and courteous and Brandina was an absolute delight. I am a frequent visitor to the colorado area and I will plan my trip around the vacancies of this property!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r136869226-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1448,9 +2288,6 @@
     <t>I stayed here for 5 nights with my wife whilst on a business trip. Firstly, the hotel ticked all the basic requirements - clean, comfortable, spacious rooms. Next, a few things to make the stay a little bit special - excellent free breakfast, free shuttle service to anywhere you want in a 3 mile radius, free wifi, free laundry and even complimentary food on some evenings!And finally, the real wow factor for us - The amazing, lovely staff. In all my travels I have not had such a team of people. Always smiling, helpful beyond the call of duty. Nothing was ever too much trouble.  If work or pleasure brings me back to the area, I would not consider staying anywhere except the Staybridge South Park Meadows.MoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>I stayed here for 5 nights with my wife whilst on a business trip. Firstly, the hotel ticked all the basic requirements - clean, comfortable, spacious rooms. Next, a few things to make the stay a little bit special - excellent free breakfast, free shuttle service to anywhere you want in a 3 mile radius, free wifi, free laundry and even complimentary food on some evenings!And finally, the real wow factor for us - The amazing, lovely staff. In all my travels I have not had such a team of people. Always smiling, helpful beyond the call of duty. Nothing was ever too much trouble.  If work or pleasure brings me back to the area, I would not consider staying anywhere except the Staybridge South Park Meadows.More</t>
   </si>
   <si>
@@ -1500,6 +2337,51 @@
   </si>
   <si>
     <t>We were booked here thru my husband's company. It was not a good hotel. We started in a room downstairs and in the middle of the night when people above flushed the toilet it was so loud it woke us up. Sounded like a waterfall in the wall. Then the second night a dog in the room next to us started barking. We asked to be moved and the next room was fine, just seemed a little cheap and outdated. When we checked in they asked for a credit card for incidentals. My husband's company had paid for the room already but I found out a few days later that they had charged my card for the room anyway! Needless to say I was ticked. We called and they argued with me about it saying that his company had not paid for it. We contacted my husband's company and they said they did. I finally got my card refunded after arguing with the hotel. Definately would not stay there again. You can find something way cleaner and nicer for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r130464930-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>130464930</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Ok place, but rough on the edges</t>
+  </si>
+  <si>
+    <t>suite 136 has paint chipping in the shower, one tv does not work, one remote for two tv's, bathroom sink leaks badly on cold water, lights too low to read by in couch room.  Snack bar had drink machine broken, Hard to find due to signage being smallMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2012</t>
+  </si>
+  <si>
+    <t>suite 136 has paint chipping in the shower, one tv does not work, one remote for two tv's, bathroom sink leaks badly on cold water, lights too low to read by in couch room.  Snack bar had drink machine broken, Hard to find due to signage being smallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r127859820-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127859820</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel. Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed at Staybridge Suites for four nights on Business. This hotel is very clean, spacious, and grounds were well kept. I have to say the most impressive aspect of this hotel is the staff. I felt like I was in Disney World or Las Vegas or something as the staff was extremely friendly and helpful. If you were to ask a request, they would drop whatever they were doing to make sure your needs are met. You also cannot pass by any of the staff whether it be at the front desk, corridor, buffet  area without someone saying hello or can I assist. Very refreshing! It is a reflection on the management. The breakfast buffet was also very good and feel this hotel is an excellent value. My company decides where I am going to stay on business, however I would not have any problem staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at Staybridge Suites for four nights on Business. This hotel is very clean, spacious, and grounds were well kept. I have to say the most impressive aspect of this hotel is the staff. I felt like I was in Disney World or Las Vegas or something as the staff was extremely friendly and helpful. If you were to ask a request, they would drop whatever they were doing to make sure your needs are met. You also cannot pass by any of the staff whether it be at the front desk, corridor, buffet  area without someone saying hello or can I assist. Very refreshing! It is a reflection on the management. The breakfast buffet was also very good and feel this hotel is an excellent value. My company decides where I am going to stay on business, however I would not have any problem staying here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r126342468-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -1569,6 +2451,47 @@
   </si>
   <si>
     <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r124376406-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>124376406</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly pleased</t>
+  </si>
+  <si>
+    <t>I am going to give kudo's to price line. This is how I came about finding staybridge suites in lone tree. My husband and I stayed 2 nights, if we would of known about this place we would of stayed here our entire week! We only paid 60.00 per night, 1/2 price, I am so pleasantly pleased! I didn't expect a studio apartment. This place has a full frig, two burner stove, microwave, dishwasher, and everything you need to cook minus the food. Plus it has a full size sofa! The only thing I wish was different would be the bed size, I think it  was a queen, wish it was king, but still a comfy sleep. For the price I paid (thanks price line).. We got a real breakfast for free, plus all the coffee  you can drink ( and we drink it all day) not only do you get breakfast but Tuesday through Thursday you also get dinner on the house! It comes with free drinks also, and believe it or not free BEER!!  We plan on coming back to Denver this summer with our two daughters ages 19 and 21 and will be using price line again hoping to get the same deal!!  Great all around stay!  Yes.... I highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am going to give kudo's to price line. This is how I came about finding staybridge suites in lone tree. My husband and I stayed 2 nights, if we would of known about this place we would of stayed here our entire week! We only paid 60.00 per night, 1/2 price, I am so pleasantly pleased! I didn't expect a studio apartment. This place has a full frig, two burner stove, microwave, dishwasher, and everything you need to cook minus the food. Plus it has a full size sofa! The only thing I wish was different would be the bed size, I think it  was a queen, wish it was king, but still a comfy sleep. For the price I paid (thanks price line).. We got a real breakfast for free, plus all the coffee  you can drink ( and we drink it all day) not only do you get breakfast but Tuesday through Thursday you also get dinner on the house! It comes with free drinks also, and believe it or not free BEER!!  We plan on coming back to Denver this summer with our two daughters ages 19 and 21 and will be using price line again hoping to get the same deal!!  Great all around stay!  Yes.... I highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r121870593-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121870593</t>
+  </si>
+  <si>
+    <t>12/18/2011</t>
+  </si>
+  <si>
+    <t>Surpisingly Not So Good</t>
+  </si>
+  <si>
+    <t>I want so much to give this hotel a good rating because we've liked the other Staybridge Suites that we've stayed in  before this but I just can't. My disclaimer to my review: The staff was really good about the issues that we had brought to their attention, I believe that this is just an older building.
+Four of us stayed in a two bedroom suite for a Friday and Saturday night. In the first room that we were in, the bedroom windows were open when we first walked into the room, it was December 16th, the room was really quite cold, but okay, close the windows and turn up the heat. then a few minutes later I used one of the restrooms and the florescent light in it kept flickering like it was warming up then just shut off. I went straight down to the front desk and asked if we could get it fixed and was told that the person that could fix it may be in the next day after 4. I brought to the person's attention that we specifically booked a two bedroom suite because we didn't want four people sharing one bathroom she quickly switched us to a different room down the hall.  The next room had it's own issues. The refrigerator had been turned off and there was mold in the ice bucket in the freezer, the paint was peeling from the wall in...I want so much to give this hotel a good rating because we've liked the other Staybridge Suites that we've stayed in  before this but I just can't. My disclaimer to my review: The staff was really good about the issues that we had brought to their attention, I believe that this is just an older building.Four of us stayed in a two bedroom suite for a Friday and Saturday night. In the first room that we were in, the bedroom windows were open when we first walked into the room, it was December 16th, the room was really quite cold, but okay, close the windows and turn up the heat. then a few minutes later I used one of the restrooms and the florescent light in it kept flickering like it was warming up then just shut off. I went straight down to the front desk and asked if we could get it fixed and was told that the person that could fix it may be in the next day after 4. I brought to the person's attention that we specifically booked a two bedroom suite because we didn't want four people sharing one bathroom she quickly switched us to a different room down the hall.  The next room had it's own issues. The refrigerator had been turned off and there was mold in the ice bucket in the freezer, the paint was peeling from the wall in one bathroom, there were dead bugs and dust bunnies in the other bathroom, and there were sunflower seeds on one of the nightstands.. not ours.   In the bedroom with two beds there is a closet with a locked, louvered, door in the corner at the foot of one of the beds so every time the furnace kicks on it's very loud in the room.  The beds were terribly uncomfortable. My adult daughter slept  on the sofabed and in the morning got into my bed and the first words out of her mouth were about how uncomfortable the bed was.  The second night we were at the hotel there were people in the room above us who were not sleepers and we could hear them walking in and out of the bedroom all night, flushing the toilet, closing doors all night. It could have been the lack of sleep that has caused our disappointment in this hotel but as I'm listing all of the issues that we had I would have to say that it was really the hotel.Please keep in mind that if you chose this hotel, the continental breakfast is a bonus and on weeknights they offer a service of some kind. There is no maid service on the weekends unless you request it by the evening the day before, we didn't know this. The kitchens are stocked with all of the basics that you will need. There are dvd players and a borrowing library in the main area. The staff is accommodating and professional.If we can help it, we will stay in another one of our favorite hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I want so much to give this hotel a good rating because we've liked the other Staybridge Suites that we've stayed in  before this but I just can't. My disclaimer to my review: The staff was really good about the issues that we had brought to their attention, I believe that this is just an older building.
+Four of us stayed in a two bedroom suite for a Friday and Saturday night. In the first room that we were in, the bedroom windows were open when we first walked into the room, it was December 16th, the room was really quite cold, but okay, close the windows and turn up the heat. then a few minutes later I used one of the restrooms and the florescent light in it kept flickering like it was warming up then just shut off. I went straight down to the front desk and asked if we could get it fixed and was told that the person that could fix it may be in the next day after 4. I brought to the person's attention that we specifically booked a two bedroom suite because we didn't want four people sharing one bathroom she quickly switched us to a different room down the hall.  The next room had it's own issues. The refrigerator had been turned off and there was mold in the ice bucket in the freezer, the paint was peeling from the wall in...I want so much to give this hotel a good rating because we've liked the other Staybridge Suites that we've stayed in  before this but I just can't. My disclaimer to my review: The staff was really good about the issues that we had brought to their attention, I believe that this is just an older building.Four of us stayed in a two bedroom suite for a Friday and Saturday night. In the first room that we were in, the bedroom windows were open when we first walked into the room, it was December 16th, the room was really quite cold, but okay, close the windows and turn up the heat. then a few minutes later I used one of the restrooms and the florescent light in it kept flickering like it was warming up then just shut off. I went straight down to the front desk and asked if we could get it fixed and was told that the person that could fix it may be in the next day after 4. I brought to the person's attention that we specifically booked a two bedroom suite because we didn't want four people sharing one bathroom she quickly switched us to a different room down the hall.  The next room had it's own issues. The refrigerator had been turned off and there was mold in the ice bucket in the freezer, the paint was peeling from the wall in one bathroom, there were dead bugs and dust bunnies in the other bathroom, and there were sunflower seeds on one of the nightstands.. not ours.   In the bedroom with two beds there is a closet with a locked, louvered, door in the corner at the foot of one of the beds so every time the furnace kicks on it's very loud in the room.  The beds were terribly uncomfortable. My adult daughter slept  on the sofabed and in the morning got into my bed and the first words out of her mouth were about how uncomfortable the bed was.  The second night we were at the hotel there were people in the room above us who were not sleepers and we could hear them walking in and out of the bedroom all night, flushing the toilet, closing doors all night. It could have been the lack of sleep that has caused our disappointment in this hotel but as I'm listing all of the issues that we had I would have to say that it was really the hotel.Please keep in mind that if you chose this hotel, the continental breakfast is a bonus and on weeknights they offer a service of some kind. There is no maid service on the weekends unless you request it by the evening the day before, we didn't know this. The kitchens are stocked with all of the basics that you will need. There are dvd players and a borrowing library in the main area. The staff is accommodating and professional.If we can help it, we will stay in another one of our favorite hotels in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r121416320-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
@@ -1639,6 +2562,42 @@
 I LOVE this...This was my second year of staying at this Staybridge Suites.  I requested that we be put here this year after my experience with them last year.  The property is beautiful and well maintained.  The studio suites are spacious, fully furnished and in outstanding condition.The staff, Drew Rudnick (Mgr), LsShawnda Thomas (Front Desk) and Christina (food service setup) is unbelievable.  I travel a lot and I must say that I have never been treated so well in my life.  They all bent over backwards to make our stay the most enjoyable and trouble free experience of our lives.  An A/C unit failed in one of our rooms - they immediately replaced it with a brand new one.  We had to leave early everyday - they had breakfast buffet ready 45 min earlier than normal...just for us!!We BBQ'd, played some basketball (yes, they have a court), swam, played board games, and used the free computer and Internet in the business office.  They have snacks, coffee, tea and fruit 24 hours a day.Don't let the location of the property fool you.  Being south of Denver has a multitude of advantages, including easy freeway access.  The best part is that it is worth the drive.  We worked north of Denver almost every day, but the thought of returning to our wonderful suites with the most comfortable beds ever made was worth every single moment on the road.I LOVE this place!!  IT ROCKS!!! JimMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r102490512-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>102490512</t>
+  </si>
+  <si>
+    <t>04/01/2011</t>
+  </si>
+  <si>
+    <t>wonderful hotel</t>
+  </si>
+  <si>
+    <t>This hotel is always great I stay her every spring and I have never been dissapointed  the staff is great and the hotel is always clean and well maintained. Thank you to the staff for the great job they do.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r84794871-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>84794871</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Great location, beautiful suites</t>
+  </si>
+  <si>
+    <t>We were in the Denver area for the Baseballl games, found it very convenient to drive to Denver  or drive to the park and ride for the Light Rail system. Several shopping centres and restaurants in the vicinity .  Rooms were very clean, well situated suites. Would use the same Motel next time we visit</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r48140319-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1707,6 +2666,42 @@
 We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets...We just returned from a 3 day stay here, and I don't think I have seen Better customer service Anywhere in the USA!  The hotel is clean, and the amenties wonderful. Every person we encountered with the staff went out of their way; each one personable and helpful! I wanted to go to the nearby Park Meadows Mall, and asked about a taxi there. Within moments the young lady at the front desk relayed a radio message to the courtesy shuttle driver (which I thought was only for airport runs), and his Only question in reply was "When do they want to go?  I said "asap", and we were on our way within 5 minutes!!  They offered to come back and get me at the mall, with just a simple call ,to let them know when I was ready.The housekeeping staff did come later in the day, but they did a wonderful job. I felt that if I had spoken to the front desk and let them know we were out of our room very early, they would have had the room cleaned earlier; so it was just a a matter of a request, on my part.We had the 2 room suite, with a king bed, and enjoyed the comfortable bed and bedding--it was cool enough at night to leave the windwo open, and with it right by the bed, it was wonderful! Both light and heavier blankets and coverlets are provided. We stayed on the third floor,which was quiet. I noticed that they are pet friendly., as well. Be sure to designate non smoking, as they do stil have smoking rooms, if that is your preference. We were accomodated there, and being able to leave the windows open all night, or most of the morning, we never felt we had been in a "smoking sometime" room, as some chains will give you. I do wish they would go all non-smoking, but I can see they are trying their best, to please all customers.The pool area seemed nice, as all of the grounds were well landscaped and very clean. We saw baby bunnies each night, feeding near the smaller flower beds!(hey, if baby bunnies feel safe here....gotta love it!)They have a night time reception during the week that has Real food; not snacks or appetizers--we had PF Chang's when we were there, and plenty of it, along with wine and soft drinks! The breakfast is also very good; with lots of choices for those who eat healthy, ( hot oatmeal, yogurt, fresh fruit, wheat bread and bagels for toasting, etc)and wonderful pound cakes, waffles, eggs and bacon, for those who want a heartier fare. We got a little carry-out bag from the kiosk there, and took back some fruit and pound cake slices, to leave in our  own kitchen, for later. With a full kitchenette and coffee maker, we enjoyed our coffee and cakes in the morning, the next day. They have a full sized fridge, and grocery stores nearby., so it is great to come back to a glass of wine or snack from your own fridge! There are 2 computers in the lobby, in a quiet nook, and a good printer, for getting your baording passes done, for your flight, or to print directions to attractions and restaurants.All in all, it was like having a a great apartment...HIGHLY recommend this hotel and would not stay anywhere else, on our next visit to Denver!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r15116607-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>15116607</t>
+  </si>
+  <si>
+    <t>04/18/2008</t>
+  </si>
+  <si>
+    <t>Great place for a long term stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one week in a one bedroom suite.The suite had a desk, small kitchen including a refrigerator,small stove,microwave, coffee makerand dishwasher which included dishwashing detergent. Free laundry, but you have to buy your own laundry detergent. There is an indoor work-out room. (It snowed in Denver in April while I was there on one day but was seventy degrees on another day.)  The room was always warm and clean. On Tuesday,Wednesdays and Thursdays there is a complimentary dinner. Every morning there is a hot breakfast, including waffles with fruit. The staff is friendly and professional.  There is free wireless internet and a business area with computers with internet access and a printer. Blackout shades keep the light out for people who like to sleep in late. The room was quiet, but the heating unit was loud. No problem because I always travel with ear plugs. Also the soap and shampoo was very basic and hair conditioner was not in the room, instead they provide "conditioning shampoo."  Again not a problem since there are many convenient stores nearby to purchase these items. Overall I enjoyed staying here and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for one week in a one bedroom suite.The suite had a desk, small kitchen including a refrigerator,small stove,microwave, coffee makerand dishwasher which included dishwashing detergent. Free laundry, but you have to buy your own laundry detergent. There is an indoor work-out room. (It snowed in Denver in April while I was there on one day but was seventy degrees on another day.)  The room was always warm and clean. On Tuesday,Wednesdays and Thursdays there is a complimentary dinner. Every morning there is a hot breakfast, including waffles with fruit. The staff is friendly and professional.  There is free wireless internet and a business area with computers with internet access and a printer. Blackout shades keep the light out for people who like to sleep in late. The room was quiet, but the heating unit was loud. No problem because I always travel with ear plugs. Also the soap and shampoo was very basic and hair conditioner was not in the room, instead they provide "conditioning shampoo."  Again not a problem since there are many convenient stores nearby to purchase these items. Overall I enjoyed staying here and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r14714624-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>14714624</t>
+  </si>
+  <si>
+    <t>04/01/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Excellent Staff</t>
+  </si>
+  <si>
+    <t>We found this hotel the first time by accident and have stayed 3 or 4 more times, when we are in the Denver area.They serve a light dinner tues, wed, thur with a nice changing selection and along with drinks and sodas.  A great breakfast is served each morning. The rooms we stayed in had a nice kitchen area with microwave, stove top, large refrigerator.  Along with kitchen items, dishes, pots pans, etc.   This is an extended stay hotel. Large bathroom area and sitting area.  Bed was comfy and room was very well appointed. We stayed with two small dogs, there is a potty area out back, and they provide bags and trash area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We found this hotel the first time by accident and have stayed 3 or 4 more times, when we are in the Denver area.They serve a light dinner tues, wed, thur with a nice changing selection and along with drinks and sodas.  A great breakfast is served each morning. The rooms we stayed in had a nice kitchen area with microwave, stove top, large refrigerator.  Along with kitchen items, dishes, pots pans, etc.   This is an extended stay hotel. Large bathroom area and sitting area.  Bed was comfy and room was very well appointed. We stayed with two small dogs, there is a potty area out back, and they provide bags and trash area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r8377948-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -1762,6 +2757,24 @@
   </si>
   <si>
     <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d223237-r5945811-Staybridge_Suites_Denver_South_Park_Meadows-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>5945811</t>
+  </si>
+  <si>
+    <t>10/11/2006</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 br/2bath suite and it was wonderful!  I think we paid 189.00/night with an AAA discount. Very clean!  We also used the laundry and gym facilities which were also very new and very clean!  The Bridgemart store inside the hotel where you can buy laundry detergent, drinks, snacks, dinners you can prepare in the room, etc was stocked and accomodating.  The staff was wonderful!  They let us check in at 5am when check in is supposed to be at 3pm!  Stay here..it is well worth the money!  You will not be dissatisfied.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +3309,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2306,21 +3319,21 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2336,7 +3349,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2345,25 +3358,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2377,7 +3390,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2393,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2402,32 +3415,34 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>4</v>
@@ -2438,7 +3453,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2454,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2463,49 +3478,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2521,52 +3522,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>82</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2582,44 +3585,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2635,58 +3646,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" t="s">
-        <v>96</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2702,7 +3703,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2711,43 +3712,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>106</v>
-      </c>
-      <c r="X9" t="s">
-        <v>107</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2763,7 +3764,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2772,49 +3773,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2830,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2839,25 +3834,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2868,14 +3863,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" t="s">
-        <v>124</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2891,7 +3882,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2900,47 +3891,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -2956,7 +3949,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2965,22 +3958,26 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2991,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -3013,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3022,49 +4019,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" t="s">
-        <v>149</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -3080,7 +4063,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3089,45 +4072,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -3143,7 +4130,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3152,25 +4139,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3184,7 +4171,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -3200,7 +4187,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3209,33 +4196,33 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3244,10 +4231,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -3263,7 +4254,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3272,49 +4263,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -3330,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3339,45 +4324,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -3393,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3402,49 +4391,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -3460,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3469,25 +4452,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3499,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -3521,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3530,47 +4513,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="X22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -3586,7 +4565,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3595,49 +4574,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -3653,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3662,47 +4639,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
-        <v>184</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -3718,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3727,49 +4696,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3785,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3794,43 +4761,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>241</v>
-      </c>
-      <c r="X26" t="s">
-        <v>242</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -3846,7 +4813,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3855,47 +4822,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
@@ -3911,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3920,43 +4889,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
         <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>257</v>
-      </c>
-      <c r="X28" t="s">
-        <v>258</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -3972,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3981,49 +4952,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>266</v>
-      </c>
-      <c r="X29" t="s">
-        <v>267</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -4039,7 +5000,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4048,47 +5009,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -4104,7 +5061,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4113,47 +5070,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>284</v>
-      </c>
-      <c r="X31" t="s">
-        <v>285</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
@@ -4169,7 +5122,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4178,43 +5131,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>292</v>
-      </c>
-      <c r="X32" t="s">
-        <v>293</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -4230,7 +5185,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4239,43 +5194,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -4291,7 +5252,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4300,34 +5261,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4335,14 +5296,10 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>309</v>
-      </c>
-      <c r="X34" t="s">
-        <v>310</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -4358,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4367,34 +5324,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4402,14 +5357,10 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>317</v>
-      </c>
-      <c r="X35" t="s">
-        <v>318</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -4425,7 +5376,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4434,49 +5385,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
@@ -4492,7 +5441,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4501,43 +5450,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -4553,7 +5508,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4562,49 +5517,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="X38" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
@@ -4620,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4629,49 +5578,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
       <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
@@ -4687,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4696,49 +5643,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
@@ -4754,7 +5695,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4763,37 +5704,33 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4803,13 +5740,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="X41" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
@@ -4825,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4834,53 +5771,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
@@ -4896,7 +5829,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4905,53 +5838,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="X43" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
@@ -4967,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4976,38 +5903,34 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -5016,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
@@ -5038,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5047,53 +5970,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="O45" t="s">
-        <v>96</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="Y45" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
@@ -5109,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5118,53 +6031,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="X46" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="Y46" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
@@ -5180,7 +6089,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5189,25 +6098,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5219,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="X47" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48">
@@ -5241,7 +6150,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5250,53 +6159,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="J48" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="X48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="Y48" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
@@ -5312,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5321,49 +6224,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="N49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="X49" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="Y49" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50">
@@ -5379,7 +6276,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5388,53 +6285,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="X50" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51">
@@ -5450,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5459,53 +6350,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="X51" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="Y51" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
@@ -5521,7 +6402,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5530,38 +6411,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5570,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="X52" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="Y52" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
@@ -5592,7 +6469,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5601,49 +6478,47 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="J53" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>432</v>
+      </c>
+      <c r="X53" t="s">
+        <v>433</v>
+      </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54">
@@ -5659,7 +6534,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5668,49 +6543,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="O54" t="s">
-        <v>96</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>441</v>
+      </c>
+      <c r="X54" t="s">
+        <v>442</v>
+      </c>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
@@ -5726,7 +6599,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5735,53 +6608,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s">
         <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="X55" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="Y55" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
@@ -5797,7 +6666,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5806,37 +6675,33 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5845,10 +6710,14 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>456</v>
+      </c>
+      <c r="X56" t="s">
+        <v>457</v>
+      </c>
       <c r="Y56" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
@@ -5864,7 +6733,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5873,53 +6742,43 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="K57" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="X57" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="Y57" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
@@ -5935,7 +6794,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5944,49 +6803,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="J58" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>472</v>
+      </c>
+      <c r="X58" t="s">
+        <v>473</v>
+      </c>
       <c r="Y58" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59">
@@ -6002,7 +6855,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6011,35 +6864,31 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -6050,10 +6899,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>481</v>
+      </c>
+      <c r="X59" t="s">
+        <v>482</v>
+      </c>
       <c r="Y59" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
@@ -6069,7 +6922,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6078,45 +6931,47 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="J60" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="K60" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="L60" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>490</v>
+      </c>
+      <c r="X60" t="s">
+        <v>491</v>
+      </c>
       <c r="Y60" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61">
@@ -6132,7 +6987,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6141,34 +6996,32 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="J61" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="O61" t="s">
         <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -6176,10 +7029,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>499</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
       <c r="Y61" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
@@ -6195,7 +7052,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6204,37 +7061,33 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="J62" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="K62" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="L62" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
-      </c>
-      <c r="N62" t="s">
-        <v>532</v>
-      </c>
-      <c r="O62" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6243,10 +7096,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>499</v>
+      </c>
+      <c r="X62" t="s">
+        <v>500</v>
+      </c>
       <c r="Y62" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63">
@@ -6262,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6271,49 +7128,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="J63" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="K63" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="L63" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>514</v>
+      </c>
+      <c r="X63" t="s">
+        <v>515</v>
+      </c>
       <c r="Y63" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64">
@@ -6329,7 +7186,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6338,49 +7195,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="J64" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X64" t="s">
+        <v>523</v>
+      </c>
       <c r="Y64" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65">
@@ -6396,7 +7247,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6405,34 +7256,30 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="J65" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="K65" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="L65" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -6444,10 +7291,14 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
       <c r="Y65" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66">
@@ -6463,7 +7314,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6472,49 +7323,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
       <c r="S66" t="n">
         <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>523</v>
+      </c>
       <c r="Y66" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67">
@@ -6530,7 +7381,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6539,35 +7390,31 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="J67" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="K67" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="L67" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
       </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
       <c r="S67" t="n">
         <v>5</v>
       </c>
@@ -6578,10 +7425,3286 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>522</v>
+      </c>
+      <c r="X67" t="s">
+        <v>523</v>
+      </c>
       <c r="Y67" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>546</v>
+      </c>
+      <c r="J68" t="s">
+        <v>547</v>
+      </c>
+      <c r="K68" t="s">
+        <v>548</v>
+      </c>
+      <c r="L68" t="s">
+        <v>549</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>537</v>
+      </c>
+      <c r="X68" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>455</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>556</v>
+      </c>
+      <c r="X69" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>560</v>
+      </c>
+      <c r="J70" t="s">
+        <v>561</v>
+      </c>
+      <c r="K70" t="s">
+        <v>562</v>
+      </c>
+      <c r="L70" t="s">
+        <v>563</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
         <v>564</v>
+      </c>
+      <c r="O70" t="s">
+        <v>92</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>556</v>
+      </c>
+      <c r="X70" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>566</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>567</v>
+      </c>
+      <c r="J71" t="s">
+        <v>568</v>
+      </c>
+      <c r="K71" t="s">
+        <v>569</v>
+      </c>
+      <c r="L71" t="s">
+        <v>570</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>564</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>556</v>
+      </c>
+      <c r="X71" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>564</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>577</v>
+      </c>
+      <c r="X72" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>579</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>580</v>
+      </c>
+      <c r="J73" t="s">
+        <v>581</v>
+      </c>
+      <c r="K73" t="s">
+        <v>582</v>
+      </c>
+      <c r="L73" t="s">
+        <v>583</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>584</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>585</v>
+      </c>
+      <c r="X73" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>589</v>
+      </c>
+      <c r="J74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s">
+        <v>591</v>
+      </c>
+      <c r="L74" t="s">
+        <v>592</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>584</v>
+      </c>
+      <c r="O74" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>593</v>
+      </c>
+      <c r="X74" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>601</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>602</v>
+      </c>
+      <c r="X75" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>610</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>611</v>
+      </c>
+      <c r="X76" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>615</v>
+      </c>
+      <c r="J77" t="s">
+        <v>616</v>
+      </c>
+      <c r="K77" t="s">
+        <v>617</v>
+      </c>
+      <c r="L77" t="s">
+        <v>618</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>619</v>
+      </c>
+      <c r="O77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>620</v>
+      </c>
+      <c r="X77" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>623</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>624</v>
+      </c>
+      <c r="J78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K78" t="s">
+        <v>626</v>
+      </c>
+      <c r="L78" t="s">
+        <v>627</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>628</v>
+      </c>
+      <c r="O78" t="s">
+        <v>153</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>620</v>
+      </c>
+      <c r="X78" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>630</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>631</v>
+      </c>
+      <c r="J79" t="s">
+        <v>632</v>
+      </c>
+      <c r="K79" t="s">
+        <v>633</v>
+      </c>
+      <c r="L79" t="s">
+        <v>634</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>635</v>
+      </c>
+      <c r="O79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>636</v>
+      </c>
+      <c r="X79" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>639</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>640</v>
+      </c>
+      <c r="J80" t="s">
+        <v>641</v>
+      </c>
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>635</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>644</v>
+      </c>
+      <c r="X80" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K81" t="s">
+        <v>649</v>
+      </c>
+      <c r="L81" t="s">
+        <v>650</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>635</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>652</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>653</v>
+      </c>
+      <c r="J82" t="s">
+        <v>654</v>
+      </c>
+      <c r="K82" t="s">
+        <v>655</v>
+      </c>
+      <c r="L82" t="s">
+        <v>656</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>657</v>
+      </c>
+      <c r="O82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>658</v>
+      </c>
+      <c r="X82" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>661</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>662</v>
+      </c>
+      <c r="J83" t="s">
+        <v>663</v>
+      </c>
+      <c r="K83" t="s">
+        <v>664</v>
+      </c>
+      <c r="L83" t="s">
+        <v>665</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>657</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>666</v>
+      </c>
+      <c r="X83" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>669</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>670</v>
+      </c>
+      <c r="J84" t="s">
+        <v>671</v>
+      </c>
+      <c r="K84" t="s">
+        <v>672</v>
+      </c>
+      <c r="L84" t="s">
+        <v>673</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>674</v>
+      </c>
+      <c r="X84" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>677</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>678</v>
+      </c>
+      <c r="J85" t="s">
+        <v>679</v>
+      </c>
+      <c r="K85" t="s">
+        <v>680</v>
+      </c>
+      <c r="L85" t="s">
+        <v>681</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>682</v>
+      </c>
+      <c r="O85" t="s">
+        <v>153</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>683</v>
+      </c>
+      <c r="X85" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>686</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>687</v>
+      </c>
+      <c r="J86" t="s">
+        <v>688</v>
+      </c>
+      <c r="K86" t="s">
+        <v>689</v>
+      </c>
+      <c r="L86" t="s">
+        <v>690</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>682</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>683</v>
+      </c>
+      <c r="X86" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>692</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>693</v>
+      </c>
+      <c r="J87" t="s">
+        <v>694</v>
+      </c>
+      <c r="K87" t="s">
+        <v>695</v>
+      </c>
+      <c r="L87" t="s">
+        <v>696</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>697</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>683</v>
+      </c>
+      <c r="X87" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>699</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>700</v>
+      </c>
+      <c r="J88" t="s">
+        <v>701</v>
+      </c>
+      <c r="K88" t="s">
+        <v>702</v>
+      </c>
+      <c r="L88" t="s">
+        <v>703</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>704</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>414</v>
+      </c>
+      <c r="X88" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>706</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>707</v>
+      </c>
+      <c r="J89" t="s">
+        <v>708</v>
+      </c>
+      <c r="K89" t="s">
+        <v>709</v>
+      </c>
+      <c r="L89" t="s">
+        <v>710</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>711</v>
+      </c>
+      <c r="O89" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>712</v>
+      </c>
+      <c r="X89" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>715</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>716</v>
+      </c>
+      <c r="J90" t="s">
+        <v>717</v>
+      </c>
+      <c r="K90" t="s">
+        <v>718</v>
+      </c>
+      <c r="L90" t="s">
+        <v>719</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>720</v>
+      </c>
+      <c r="O90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>721</v>
+      </c>
+      <c r="X90" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>724</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>725</v>
+      </c>
+      <c r="J91" t="s">
+        <v>726</v>
+      </c>
+      <c r="K91" t="s">
+        <v>727</v>
+      </c>
+      <c r="L91" t="s">
+        <v>728</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>729</v>
+      </c>
+      <c r="O91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>731</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>732</v>
+      </c>
+      <c r="J92" t="s">
+        <v>733</v>
+      </c>
+      <c r="K92" t="s">
+        <v>734</v>
+      </c>
+      <c r="L92" t="s">
+        <v>735</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>737</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>738</v>
+      </c>
+      <c r="J93" t="s">
+        <v>739</v>
+      </c>
+      <c r="K93" t="s">
+        <v>740</v>
+      </c>
+      <c r="L93" t="s">
+        <v>741</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>742</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>744</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>745</v>
+      </c>
+      <c r="J94" t="s">
+        <v>746</v>
+      </c>
+      <c r="K94" t="s">
+        <v>747</v>
+      </c>
+      <c r="L94" t="s">
+        <v>748</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>749</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>750</v>
+      </c>
+      <c r="X94" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>753</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>754</v>
+      </c>
+      <c r="J95" t="s">
+        <v>755</v>
+      </c>
+      <c r="K95" t="s">
+        <v>756</v>
+      </c>
+      <c r="L95" t="s">
+        <v>757</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>758</v>
+      </c>
+      <c r="O95" t="s">
+        <v>92</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>759</v>
+      </c>
+      <c r="X95" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>762</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>763</v>
+      </c>
+      <c r="J96" t="s">
+        <v>764</v>
+      </c>
+      <c r="K96" t="s">
+        <v>765</v>
+      </c>
+      <c r="L96" t="s">
+        <v>766</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>697</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>768</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>769</v>
+      </c>
+      <c r="J97" t="s">
+        <v>770</v>
+      </c>
+      <c r="K97" t="s">
+        <v>771</v>
+      </c>
+      <c r="L97" t="s">
+        <v>772</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>773</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>776</v>
+      </c>
+      <c r="J98" t="s">
+        <v>777</v>
+      </c>
+      <c r="K98" t="s">
+        <v>778</v>
+      </c>
+      <c r="L98" t="s">
+        <v>779</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>749</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>780</v>
+      </c>
+      <c r="X98" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>783</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>784</v>
+      </c>
+      <c r="J99" t="s">
+        <v>785</v>
+      </c>
+      <c r="K99" t="s">
+        <v>786</v>
+      </c>
+      <c r="L99" t="s">
+        <v>787</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>788</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>789</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>790</v>
+      </c>
+      <c r="J100" t="s">
+        <v>791</v>
+      </c>
+      <c r="K100" t="s">
+        <v>792</v>
+      </c>
+      <c r="L100" t="s">
+        <v>793</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>749</v>
+      </c>
+      <c r="O100" t="s">
+        <v>92</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>795</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>796</v>
+      </c>
+      <c r="J101" t="s">
+        <v>797</v>
+      </c>
+      <c r="K101" t="s">
+        <v>798</v>
+      </c>
+      <c r="L101" t="s">
+        <v>799</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>800</v>
+      </c>
+      <c r="O101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>802</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>803</v>
+      </c>
+      <c r="J102" t="s">
+        <v>804</v>
+      </c>
+      <c r="K102" t="s">
+        <v>805</v>
+      </c>
+      <c r="L102" t="s">
+        <v>806</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>807</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>809</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>810</v>
+      </c>
+      <c r="J103" t="s">
+        <v>811</v>
+      </c>
+      <c r="K103" t="s">
+        <v>812</v>
+      </c>
+      <c r="L103" t="s">
+        <v>813</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>814</v>
+      </c>
+      <c r="O103" t="s">
+        <v>153</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>816</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>817</v>
+      </c>
+      <c r="J104" t="s">
+        <v>818</v>
+      </c>
+      <c r="K104" t="s">
+        <v>819</v>
+      </c>
+      <c r="L104" t="s">
+        <v>820</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>807</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>822</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>823</v>
+      </c>
+      <c r="J105" t="s">
+        <v>824</v>
+      </c>
+      <c r="K105" t="s">
+        <v>825</v>
+      </c>
+      <c r="L105" t="s">
+        <v>826</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>827</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>828</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>829</v>
+      </c>
+      <c r="J106" t="s">
+        <v>830</v>
+      </c>
+      <c r="K106" t="s">
+        <v>831</v>
+      </c>
+      <c r="L106" t="s">
+        <v>832</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>833</v>
+      </c>
+      <c r="O106" t="s">
+        <v>92</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>834</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>835</v>
+      </c>
+      <c r="J107" t="s">
+        <v>836</v>
+      </c>
+      <c r="K107" t="s">
+        <v>837</v>
+      </c>
+      <c r="L107" t="s">
+        <v>838</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>839</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>841</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>842</v>
+      </c>
+      <c r="J108" t="s">
+        <v>843</v>
+      </c>
+      <c r="K108" t="s">
+        <v>844</v>
+      </c>
+      <c r="L108" t="s">
+        <v>845</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>846</v>
+      </c>
+      <c r="O108" t="s">
+        <v>92</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>848</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>849</v>
+      </c>
+      <c r="J109" t="s">
+        <v>850</v>
+      </c>
+      <c r="K109" t="s">
+        <v>851</v>
+      </c>
+      <c r="L109" t="s">
+        <v>852</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>846</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>854</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>855</v>
+      </c>
+      <c r="J110" t="s">
+        <v>856</v>
+      </c>
+      <c r="K110" t="s">
+        <v>857</v>
+      </c>
+      <c r="L110" t="s">
+        <v>858</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>860</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>861</v>
+      </c>
+      <c r="J111" t="s">
+        <v>862</v>
+      </c>
+      <c r="K111" t="s">
+        <v>863</v>
+      </c>
+      <c r="L111" t="s">
+        <v>864</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>866</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>867</v>
+      </c>
+      <c r="J112" t="s">
+        <v>868</v>
+      </c>
+      <c r="K112" t="s">
+        <v>869</v>
+      </c>
+      <c r="L112" t="s">
+        <v>870</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>871</v>
+      </c>
+      <c r="O112" t="s">
+        <v>92</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>873</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>874</v>
+      </c>
+      <c r="J113" t="s">
+        <v>875</v>
+      </c>
+      <c r="K113" t="s">
+        <v>876</v>
+      </c>
+      <c r="L113" t="s">
+        <v>877</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>878</v>
+      </c>
+      <c r="O113" t="s">
+        <v>153</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>879</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>880</v>
+      </c>
+      <c r="J114" t="s">
+        <v>881</v>
+      </c>
+      <c r="K114" t="s">
+        <v>882</v>
+      </c>
+      <c r="L114" t="s">
+        <v>883</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>884</v>
+      </c>
+      <c r="O114" t="s">
+        <v>92</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>39779</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>885</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>886</v>
+      </c>
+      <c r="J115" t="s">
+        <v>887</v>
+      </c>
+      <c r="K115" t="s">
+        <v>888</v>
+      </c>
+      <c r="L115" t="s">
+        <v>889</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>890</v>
+      </c>
+      <c r="O115" t="s">
+        <v>92</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>
